--- a/configuration/documentation/ebusd Ochsner 15.24849.HW0102.SW0605_2024-06-16.xlsx
+++ b/configuration/documentation/ebusd Ochsner 15.24849.HW0102.SW0605_2024-06-16.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pspee/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pspee/Documents/GitHub/ebusd-ochsner/configuration/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D661B1C5-A064-5E40-A76B-862D6A65A06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50D8F64-48DE-DC4B-B1B4-D5456756C850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="500" windowWidth="41580" windowHeight="26260" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="680" yWindow="500" windowWidth="41580" windowHeight="26260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -178,7 +178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15432" uniqueCount="1656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15440" uniqueCount="1656">
   <si>
     <t>02-051</t>
   </si>
@@ -6204,7 +6204,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6455,15 +6455,14 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -7192,8 +7191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T225"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A132" sqref="A132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -11554,27 +11553,29 @@
       <c r="S131" s="19"/>
     </row>
     <row r="132" spans="1:19" s="55" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A132" s="21" t="s">
+      <c r="A132" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B132" s="21" t="s">
+      <c r="B132" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C132" s="26" t="s">
+      <c r="C132" s="20" t="s">
         <v>651</v>
       </c>
-      <c r="D132" s="21" t="s">
+      <c r="D132" s="19" t="s">
         <v>424</v>
       </c>
-      <c r="E132" s="26" t="s">
+      <c r="E132" s="20" t="s">
         <v>833</v>
       </c>
-      <c r="F132" s="26"/>
-      <c r="G132" s="26" t="s">
+      <c r="F132" s="20"/>
+      <c r="G132" s="20" t="s">
         <v>712</v>
       </c>
-      <c r="H132" s="34"/>
-      <c r="I132" s="26" t="s">
+      <c r="H132" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="I132" s="83" t="s">
         <v>247</v>
       </c>
       <c r="J132" s="52"/>
@@ -11589,27 +11590,29 @@
       <c r="S132" s="52"/>
     </row>
     <row r="133" spans="1:19" s="55" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A133" s="21" t="s">
+      <c r="A133" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B133" s="21" t="s">
+      <c r="B133" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C133" s="26" t="s">
+      <c r="C133" s="20" t="s">
         <v>638</v>
       </c>
-      <c r="D133" s="21" t="s">
+      <c r="D133" s="19" t="s">
         <v>425</v>
       </c>
-      <c r="E133" s="26" t="s">
+      <c r="E133" s="20" t="s">
         <v>834</v>
       </c>
-      <c r="F133" s="26"/>
-      <c r="G133" s="26" t="s">
+      <c r="F133" s="20"/>
+      <c r="G133" s="20" t="s">
         <v>713</v>
       </c>
-      <c r="H133" s="34"/>
-      <c r="I133" s="26" t="s">
+      <c r="H133" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="I133" s="83" t="s">
         <v>248</v>
       </c>
       <c r="J133" s="52"/>
@@ -11643,7 +11646,7 @@
       <c r="G134" s="20" t="s">
         <v>714</v>
       </c>
-      <c r="H134" s="27" t="s">
+      <c r="H134" s="32" t="s">
         <v>331</v>
       </c>
       <c r="I134" s="20" t="s">
@@ -11686,7 +11689,7 @@
       <c r="G135" s="20" t="s">
         <v>715</v>
       </c>
-      <c r="H135" s="27" t="s">
+      <c r="H135" s="32" t="s">
         <v>332</v>
       </c>
       <c r="I135" s="20" t="s">
@@ -15519,7 +15522,7 @@
   <dimension ref="A1:K349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C75" sqref="C75:D75"/>
+      <selection activeCell="C7" sqref="C7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15557,10 +15560,10 @@
       <c r="B2" s="18" t="s">
         <v>473</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="85" t="s">
         <v>406</v>
       </c>
-      <c r="D2" s="87"/>
+      <c r="D2" s="85"/>
       <c r="E2" s="18" t="s">
         <v>326</v>
       </c>
@@ -15724,10 +15727,10 @@
       <c r="B10" s="18" t="s">
         <v>473</v>
       </c>
-      <c r="C10" s="87" t="s">
+      <c r="C10" s="85" t="s">
         <v>406</v>
       </c>
-      <c r="D10" s="87"/>
+      <c r="D10" s="85"/>
       <c r="E10" s="18" t="s">
         <v>326</v>
       </c>
@@ -15903,10 +15906,10 @@
       <c r="B19" s="20" t="s">
         <v>473</v>
       </c>
-      <c r="C19" s="85" t="s">
+      <c r="C19" s="86" t="s">
         <v>406</v>
       </c>
-      <c r="D19" s="85"/>
+      <c r="D19" s="86"/>
       <c r="E19" s="20" t="s">
         <v>326</v>
       </c>
@@ -15982,7 +15985,7 @@
       <c r="K21" s="84"/>
     </row>
     <row r="22" spans="1:11" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="86" t="s">
+      <c r="A22" s="87" t="s">
         <v>343</v>
       </c>
       <c r="B22" s="84" t="s">
@@ -16009,7 +16012,7 @@
       <c r="K22" s="84"/>
     </row>
     <row r="23" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="86"/>
+      <c r="A23" s="87"/>
       <c r="B23" s="84"/>
       <c r="C23" s="13" t="s">
         <v>475</v>
@@ -16026,7 +16029,7 @@
       <c r="K23" s="84"/>
     </row>
     <row r="24" spans="1:11" ht="32" x14ac:dyDescent="0.2">
-      <c r="A24" s="86"/>
+      <c r="A24" s="87"/>
       <c r="B24" s="84"/>
       <c r="C24" s="13" t="s">
         <v>476</v>
@@ -16043,7 +16046,7 @@
       <c r="K24" s="84"/>
     </row>
     <row r="25" spans="1:11" ht="32" x14ac:dyDescent="0.2">
-      <c r="A25" s="86"/>
+      <c r="A25" s="87"/>
       <c r="B25" s="84"/>
       <c r="C25" s="13" t="s">
         <v>477</v>
@@ -16060,7 +16063,7 @@
       <c r="K25" s="84"/>
     </row>
     <row r="26" spans="1:11" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="86" t="s">
+      <c r="A26" s="87" t="s">
         <v>345</v>
       </c>
       <c r="B26" s="84" t="s">
@@ -16087,7 +16090,7 @@
       <c r="K26" s="84"/>
     </row>
     <row r="27" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="86"/>
+      <c r="A27" s="87"/>
       <c r="B27" s="84"/>
       <c r="C27" s="13" t="s">
         <v>488</v>
@@ -16104,7 +16107,7 @@
       <c r="K27" s="84"/>
     </row>
     <row r="28" spans="1:11" ht="32" x14ac:dyDescent="0.2">
-      <c r="A28" s="86"/>
+      <c r="A28" s="87"/>
       <c r="B28" s="84"/>
       <c r="C28" s="13" t="s">
         <v>489</v>
@@ -16121,7 +16124,7 @@
       <c r="K28" s="84"/>
     </row>
     <row r="29" spans="1:11" ht="32" x14ac:dyDescent="0.2">
-      <c r="A29" s="86"/>
+      <c r="A29" s="87"/>
       <c r="B29" s="84"/>
       <c r="C29" s="13" t="s">
         <v>477</v>
@@ -16224,10 +16227,10 @@
       <c r="B34" s="20" t="s">
         <v>473</v>
       </c>
-      <c r="C34" s="85" t="s">
+      <c r="C34" s="86" t="s">
         <v>406</v>
       </c>
-      <c r="D34" s="85"/>
+      <c r="D34" s="86"/>
       <c r="E34" s="20" t="s">
         <v>326</v>
       </c>
@@ -20444,82 +20447,6 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="K3:K8"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="K11:K16"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="J26:J29"/>
-    <mergeCell ref="K20:K31"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="I22:I25"/>
-    <mergeCell ref="J22:J25"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="G26:G29"/>
-    <mergeCell ref="H26:H29"/>
-    <mergeCell ref="I26:I29"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
     <mergeCell ref="K35:K72"/>
     <mergeCell ref="C87:D87"/>
     <mergeCell ref="C88:D88"/>
@@ -20536,6 +20463,82 @@
     <mergeCell ref="C71:D71"/>
     <mergeCell ref="C72:D72"/>
     <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="J26:J29"/>
+    <mergeCell ref="K20:K31"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="I22:I25"/>
+    <mergeCell ref="J22:J25"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="G26:G29"/>
+    <mergeCell ref="H26:H29"/>
+    <mergeCell ref="I26:I29"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="K11:K16"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="K3:K8"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E3:E6"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -20544,10 +20547,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18C6B330-EB30-4183-835F-7EDDE830B5BE}">
-  <dimension ref="A1:M99"/>
+  <dimension ref="A1:XFA102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21367,7 +21370,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1021 1027:2047 2053:3067 3073:4093 4099:5119 5125:6139 6145:7165 7171:8191 8197:9211 9217:10237 10243:11263 11269:12283 12289:13309 13315:14335 14341:15355 15361:16381" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>1105</v>
       </c>
@@ -21375,7 +21378,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1021 1027:2047 2053:3067 3073:4093 4099:5119 5125:6139 6145:7165 7171:8191 8197:9211 9217:10237 10243:11263 11269:12283 12289:13309 13315:14335 14341:15355 15361:16381" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>1107</v>
       </c>
@@ -21383,13 +21386,8229 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1021 1027:2047 2053:3067 3073:4093 4099:5119 5125:6139 6145:7165 7171:8191 8197:9211 9217:10237 10243:11263 11269:12283 12289:13309 13315:14335 14341:15355 15361:16381" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" t="s">
         <v>1147</v>
       </c>
+      <c r="G99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="S99" s="1"/>
+      <c r="Y99" s="1"/>
+      <c r="AE99" s="1"/>
+      <c r="AK99" s="1"/>
+      <c r="AQ99" s="1"/>
+      <c r="AW99" s="1"/>
+      <c r="BC99" s="1"/>
+      <c r="BI99" s="1"/>
+      <c r="BO99" s="1"/>
+      <c r="BU99" s="1"/>
+      <c r="CA99" s="1"/>
+      <c r="CG99" s="1"/>
+      <c r="CM99" s="1"/>
+      <c r="CS99" s="1"/>
+      <c r="CY99" s="1"/>
+      <c r="DE99" s="1"/>
+      <c r="DK99" s="1"/>
+      <c r="DQ99" s="1"/>
+      <c r="DW99" s="1"/>
+      <c r="EC99" s="1"/>
+      <c r="EI99" s="1"/>
+      <c r="EO99" s="1"/>
+      <c r="EU99" s="1"/>
+      <c r="FA99" s="1"/>
+      <c r="FG99" s="1"/>
+      <c r="FM99" s="1"/>
+      <c r="FS99" s="1"/>
+      <c r="FY99" s="1"/>
+      <c r="GE99" s="1"/>
+      <c r="GK99" s="1"/>
+      <c r="GQ99" s="1"/>
+      <c r="GW99" s="1"/>
+      <c r="HC99" s="1"/>
+      <c r="HI99" s="1"/>
+      <c r="HO99" s="1"/>
+      <c r="HU99" s="1"/>
+      <c r="IA99" s="1"/>
+      <c r="IG99" s="1"/>
+      <c r="IM99" s="1"/>
+      <c r="IS99" s="1"/>
+      <c r="IY99" s="1"/>
+      <c r="JE99" s="1"/>
+      <c r="JK99" s="1"/>
+      <c r="JQ99" s="1"/>
+      <c r="JW99" s="1"/>
+      <c r="KC99" s="1"/>
+      <c r="KI99" s="1"/>
+      <c r="KO99" s="1"/>
+      <c r="KU99" s="1"/>
+      <c r="LA99" s="1"/>
+      <c r="LG99" s="1"/>
+      <c r="LM99" s="1"/>
+      <c r="LS99" s="1"/>
+      <c r="LY99" s="1"/>
+      <c r="ME99" s="1"/>
+      <c r="MK99" s="1"/>
+      <c r="MQ99" s="1"/>
+      <c r="MW99" s="1"/>
+      <c r="NC99" s="1"/>
+      <c r="NI99" s="1"/>
+      <c r="NO99" s="1"/>
+      <c r="NU99" s="1"/>
+      <c r="OA99" s="1"/>
+      <c r="OG99" s="1"/>
+      <c r="OM99" s="1"/>
+      <c r="OS99" s="1"/>
+      <c r="OY99" s="1"/>
+      <c r="PE99" s="1"/>
+      <c r="PK99" s="1"/>
+      <c r="PQ99" s="1"/>
+      <c r="PW99" s="1"/>
+      <c r="QC99" s="1"/>
+      <c r="QI99" s="1"/>
+      <c r="QO99" s="1"/>
+      <c r="QU99" s="1"/>
+      <c r="RA99" s="1"/>
+      <c r="RG99" s="1"/>
+      <c r="RM99" s="1"/>
+      <c r="RS99" s="1"/>
+      <c r="RY99" s="1"/>
+      <c r="SE99" s="1"/>
+      <c r="SK99" s="1"/>
+      <c r="SQ99" s="1"/>
+      <c r="SW99" s="1"/>
+      <c r="TC99" s="1"/>
+      <c r="TI99" s="1"/>
+      <c r="TO99" s="1"/>
+      <c r="TU99" s="1"/>
+      <c r="UA99" s="1"/>
+      <c r="UG99" s="1"/>
+      <c r="UM99" s="1"/>
+      <c r="US99" s="1"/>
+      <c r="UY99" s="1"/>
+      <c r="VE99" s="1"/>
+      <c r="VK99" s="1"/>
+      <c r="VQ99" s="1"/>
+      <c r="VW99" s="1"/>
+      <c r="WC99" s="1"/>
+      <c r="WI99" s="1"/>
+      <c r="WO99" s="1"/>
+      <c r="WU99" s="1"/>
+      <c r="XA99" s="1"/>
+      <c r="XG99" s="1"/>
+      <c r="XM99" s="1"/>
+      <c r="XS99" s="1"/>
+      <c r="XY99" s="1"/>
+      <c r="YE99" s="1"/>
+      <c r="YK99" s="1"/>
+      <c r="YQ99" s="1"/>
+      <c r="YW99" s="1"/>
+      <c r="ZC99" s="1"/>
+      <c r="ZI99" s="1"/>
+      <c r="ZO99" s="1"/>
+      <c r="ZU99" s="1"/>
+      <c r="AAA99" s="1"/>
+      <c r="AAG99" s="1"/>
+      <c r="AAM99" s="1"/>
+      <c r="AAS99" s="1"/>
+      <c r="AAY99" s="1"/>
+      <c r="ABE99" s="1"/>
+      <c r="ABK99" s="1"/>
+      <c r="ABQ99" s="1"/>
+      <c r="ABW99" s="1"/>
+      <c r="ACC99" s="1"/>
+      <c r="ACI99" s="1"/>
+      <c r="ACO99" s="1"/>
+      <c r="ACU99" s="1"/>
+      <c r="ADA99" s="1"/>
+      <c r="ADG99" s="1"/>
+      <c r="ADM99" s="1"/>
+      <c r="ADS99" s="1"/>
+      <c r="ADY99" s="1"/>
+      <c r="AEE99" s="1"/>
+      <c r="AEK99" s="1"/>
+      <c r="AEQ99" s="1"/>
+      <c r="AEW99" s="1"/>
+      <c r="AFC99" s="1"/>
+      <c r="AFI99" s="1"/>
+      <c r="AFO99" s="1"/>
+      <c r="AFU99" s="1"/>
+      <c r="AGA99" s="1"/>
+      <c r="AGG99" s="1"/>
+      <c r="AGM99" s="1"/>
+      <c r="AGS99" s="1"/>
+      <c r="AGY99" s="1"/>
+      <c r="AHE99" s="1"/>
+      <c r="AHK99" s="1"/>
+      <c r="AHQ99" s="1"/>
+      <c r="AHW99" s="1"/>
+      <c r="AIC99" s="1"/>
+      <c r="AII99" s="1"/>
+      <c r="AIO99" s="1"/>
+      <c r="AIU99" s="1"/>
+      <c r="AJA99" s="1"/>
+      <c r="AJG99" s="1"/>
+      <c r="AJM99" s="1"/>
+      <c r="AJS99" s="1"/>
+      <c r="AJY99" s="1"/>
+      <c r="AKE99" s="1"/>
+      <c r="AKK99" s="1"/>
+      <c r="AKQ99" s="1"/>
+      <c r="AKW99" s="1"/>
+      <c r="ALC99" s="1"/>
+      <c r="ALI99" s="1"/>
+      <c r="ALO99" s="1"/>
+      <c r="ALU99" s="1"/>
+      <c r="AMA99" s="1"/>
+      <c r="AMG99" s="1"/>
+      <c r="AMM99" s="1"/>
+      <c r="AMS99" s="1"/>
+      <c r="AMY99" s="1"/>
+      <c r="ANE99" s="1"/>
+      <c r="ANK99" s="1"/>
+      <c r="ANQ99" s="1"/>
+      <c r="ANW99" s="1"/>
+      <c r="AOC99" s="1"/>
+      <c r="AOI99" s="1"/>
+      <c r="AOO99" s="1"/>
+      <c r="AOU99" s="1"/>
+      <c r="APA99" s="1"/>
+      <c r="APG99" s="1"/>
+      <c r="APM99" s="1"/>
+      <c r="APS99" s="1"/>
+      <c r="APY99" s="1"/>
+      <c r="AQE99" s="1"/>
+      <c r="AQK99" s="1"/>
+      <c r="AQQ99" s="1"/>
+      <c r="AQW99" s="1"/>
+      <c r="ARC99" s="1"/>
+      <c r="ARI99" s="1"/>
+      <c r="ARO99" s="1"/>
+      <c r="ARU99" s="1"/>
+      <c r="ASA99" s="1"/>
+      <c r="ASG99" s="1"/>
+      <c r="ASM99" s="1"/>
+      <c r="ASS99" s="1"/>
+      <c r="ASY99" s="1"/>
+      <c r="ATE99" s="1"/>
+      <c r="ATK99" s="1"/>
+      <c r="ATQ99" s="1"/>
+      <c r="ATW99" s="1"/>
+      <c r="AUC99" s="1"/>
+      <c r="AUI99" s="1"/>
+      <c r="AUO99" s="1"/>
+      <c r="AUU99" s="1"/>
+      <c r="AVA99" s="1"/>
+      <c r="AVG99" s="1"/>
+      <c r="AVM99" s="1"/>
+      <c r="AVS99" s="1"/>
+      <c r="AVY99" s="1"/>
+      <c r="AWE99" s="1"/>
+      <c r="AWK99" s="1"/>
+      <c r="AWQ99" s="1"/>
+      <c r="AWW99" s="1"/>
+      <c r="AXC99" s="1"/>
+      <c r="AXI99" s="1"/>
+      <c r="AXO99" s="1"/>
+      <c r="AXU99" s="1"/>
+      <c r="AYA99" s="1"/>
+      <c r="AYG99" s="1"/>
+      <c r="AYM99" s="1"/>
+      <c r="AYS99" s="1"/>
+      <c r="AYY99" s="1"/>
+      <c r="AZE99" s="1"/>
+      <c r="AZK99" s="1"/>
+      <c r="AZQ99" s="1"/>
+      <c r="AZW99" s="1"/>
+      <c r="BAC99" s="1"/>
+      <c r="BAI99" s="1"/>
+      <c r="BAO99" s="1"/>
+      <c r="BAU99" s="1"/>
+      <c r="BBA99" s="1"/>
+      <c r="BBG99" s="1"/>
+      <c r="BBM99" s="1"/>
+      <c r="BBS99" s="1"/>
+      <c r="BBY99" s="1"/>
+      <c r="BCE99" s="1"/>
+      <c r="BCK99" s="1"/>
+      <c r="BCQ99" s="1"/>
+      <c r="BCW99" s="1"/>
+      <c r="BDC99" s="1"/>
+      <c r="BDI99" s="1"/>
+      <c r="BDO99" s="1"/>
+      <c r="BDU99" s="1"/>
+      <c r="BEA99" s="1"/>
+      <c r="BEG99" s="1"/>
+      <c r="BEM99" s="1"/>
+      <c r="BES99" s="1"/>
+      <c r="BEY99" s="1"/>
+      <c r="BFE99" s="1"/>
+      <c r="BFK99" s="1"/>
+      <c r="BFQ99" s="1"/>
+      <c r="BFW99" s="1"/>
+      <c r="BGC99" s="1"/>
+      <c r="BGI99" s="1"/>
+      <c r="BGO99" s="1"/>
+      <c r="BGU99" s="1"/>
+      <c r="BHA99" s="1"/>
+      <c r="BHG99" s="1"/>
+      <c r="BHM99" s="1"/>
+      <c r="BHS99" s="1"/>
+      <c r="BHY99" s="1"/>
+      <c r="BIE99" s="1"/>
+      <c r="BIK99" s="1"/>
+      <c r="BIQ99" s="1"/>
+      <c r="BIW99" s="1"/>
+      <c r="BJC99" s="1"/>
+      <c r="BJI99" s="1"/>
+      <c r="BJO99" s="1"/>
+      <c r="BJU99" s="1"/>
+      <c r="BKA99" s="1"/>
+      <c r="BKG99" s="1"/>
+      <c r="BKM99" s="1"/>
+      <c r="BKS99" s="1"/>
+      <c r="BKY99" s="1"/>
+      <c r="BLE99" s="1"/>
+      <c r="BLK99" s="1"/>
+      <c r="BLQ99" s="1"/>
+      <c r="BLW99" s="1"/>
+      <c r="BMC99" s="1"/>
+      <c r="BMI99" s="1"/>
+      <c r="BMO99" s="1"/>
+      <c r="BMU99" s="1"/>
+      <c r="BNA99" s="1"/>
+      <c r="BNG99" s="1"/>
+      <c r="BNM99" s="1"/>
+      <c r="BNS99" s="1"/>
+      <c r="BNY99" s="1"/>
+      <c r="BOE99" s="1"/>
+      <c r="BOK99" s="1"/>
+      <c r="BOQ99" s="1"/>
+      <c r="BOW99" s="1"/>
+      <c r="BPC99" s="1"/>
+      <c r="BPI99" s="1"/>
+      <c r="BPO99" s="1"/>
+      <c r="BPU99" s="1"/>
+      <c r="BQA99" s="1"/>
+      <c r="BQG99" s="1"/>
+      <c r="BQM99" s="1"/>
+      <c r="BQS99" s="1"/>
+      <c r="BQY99" s="1"/>
+      <c r="BRE99" s="1"/>
+      <c r="BRK99" s="1"/>
+      <c r="BRQ99" s="1"/>
+      <c r="BRW99" s="1"/>
+      <c r="BSC99" s="1"/>
+      <c r="BSI99" s="1"/>
+      <c r="BSO99" s="1"/>
+      <c r="BSU99" s="1"/>
+      <c r="BTA99" s="1"/>
+      <c r="BTG99" s="1"/>
+      <c r="BTM99" s="1"/>
+      <c r="BTS99" s="1"/>
+      <c r="BTY99" s="1"/>
+      <c r="BUE99" s="1"/>
+      <c r="BUK99" s="1"/>
+      <c r="BUQ99" s="1"/>
+      <c r="BUW99" s="1"/>
+      <c r="BVC99" s="1"/>
+      <c r="BVI99" s="1"/>
+      <c r="BVO99" s="1"/>
+      <c r="BVU99" s="1"/>
+      <c r="BWA99" s="1"/>
+      <c r="BWG99" s="1"/>
+      <c r="BWM99" s="1"/>
+      <c r="BWS99" s="1"/>
+      <c r="BWY99" s="1"/>
+      <c r="BXE99" s="1"/>
+      <c r="BXK99" s="1"/>
+      <c r="BXQ99" s="1"/>
+      <c r="BXW99" s="1"/>
+      <c r="BYC99" s="1"/>
+      <c r="BYI99" s="1"/>
+      <c r="BYO99" s="1"/>
+      <c r="BYU99" s="1"/>
+      <c r="BZA99" s="1"/>
+      <c r="BZG99" s="1"/>
+      <c r="BZM99" s="1"/>
+      <c r="BZS99" s="1"/>
+      <c r="BZY99" s="1"/>
+      <c r="CAE99" s="1"/>
+      <c r="CAK99" s="1"/>
+      <c r="CAQ99" s="1"/>
+      <c r="CAW99" s="1"/>
+      <c r="CBC99" s="1"/>
+      <c r="CBI99" s="1"/>
+      <c r="CBO99" s="1"/>
+      <c r="CBU99" s="1"/>
+      <c r="CCA99" s="1"/>
+      <c r="CCG99" s="1"/>
+      <c r="CCM99" s="1"/>
+      <c r="CCS99" s="1"/>
+      <c r="CCY99" s="1"/>
+      <c r="CDE99" s="1"/>
+      <c r="CDK99" s="1"/>
+      <c r="CDQ99" s="1"/>
+      <c r="CDW99" s="1"/>
+      <c r="CEC99" s="1"/>
+      <c r="CEI99" s="1"/>
+      <c r="CEO99" s="1"/>
+      <c r="CEU99" s="1"/>
+      <c r="CFA99" s="1"/>
+      <c r="CFG99" s="1"/>
+      <c r="CFM99" s="1"/>
+      <c r="CFS99" s="1"/>
+      <c r="CFY99" s="1"/>
+      <c r="CGE99" s="1"/>
+      <c r="CGK99" s="1"/>
+      <c r="CGQ99" s="1"/>
+      <c r="CGW99" s="1"/>
+      <c r="CHC99" s="1"/>
+      <c r="CHI99" s="1"/>
+      <c r="CHO99" s="1"/>
+      <c r="CHU99" s="1"/>
+      <c r="CIA99" s="1"/>
+      <c r="CIG99" s="1"/>
+      <c r="CIM99" s="1"/>
+      <c r="CIS99" s="1"/>
+      <c r="CIY99" s="1"/>
+      <c r="CJE99" s="1"/>
+      <c r="CJK99" s="1"/>
+      <c r="CJQ99" s="1"/>
+      <c r="CJW99" s="1"/>
+      <c r="CKC99" s="1"/>
+      <c r="CKI99" s="1"/>
+      <c r="CKO99" s="1"/>
+      <c r="CKU99" s="1"/>
+      <c r="CLA99" s="1"/>
+      <c r="CLG99" s="1"/>
+      <c r="CLM99" s="1"/>
+      <c r="CLS99" s="1"/>
+      <c r="CLY99" s="1"/>
+      <c r="CME99" s="1"/>
+      <c r="CMK99" s="1"/>
+      <c r="CMQ99" s="1"/>
+      <c r="CMW99" s="1"/>
+      <c r="CNC99" s="1"/>
+      <c r="CNI99" s="1"/>
+      <c r="CNO99" s="1"/>
+      <c r="CNU99" s="1"/>
+      <c r="COA99" s="1"/>
+      <c r="COG99" s="1"/>
+      <c r="COM99" s="1"/>
+      <c r="COS99" s="1"/>
+      <c r="COY99" s="1"/>
+      <c r="CPE99" s="1"/>
+      <c r="CPK99" s="1"/>
+      <c r="CPQ99" s="1"/>
+      <c r="CPW99" s="1"/>
+      <c r="CQC99" s="1"/>
+      <c r="CQI99" s="1"/>
+      <c r="CQO99" s="1"/>
+      <c r="CQU99" s="1"/>
+      <c r="CRA99" s="1"/>
+      <c r="CRG99" s="1"/>
+      <c r="CRM99" s="1"/>
+      <c r="CRS99" s="1"/>
+      <c r="CRY99" s="1"/>
+      <c r="CSE99" s="1"/>
+      <c r="CSK99" s="1"/>
+      <c r="CSQ99" s="1"/>
+      <c r="CSW99" s="1"/>
+      <c r="CTC99" s="1"/>
+      <c r="CTI99" s="1"/>
+      <c r="CTO99" s="1"/>
+      <c r="CTU99" s="1"/>
+      <c r="CUA99" s="1"/>
+      <c r="CUG99" s="1"/>
+      <c r="CUM99" s="1"/>
+      <c r="CUS99" s="1"/>
+      <c r="CUY99" s="1"/>
+      <c r="CVE99" s="1"/>
+      <c r="CVK99" s="1"/>
+      <c r="CVQ99" s="1"/>
+      <c r="CVW99" s="1"/>
+      <c r="CWC99" s="1"/>
+      <c r="CWI99" s="1"/>
+      <c r="CWO99" s="1"/>
+      <c r="CWU99" s="1"/>
+      <c r="CXA99" s="1"/>
+      <c r="CXG99" s="1"/>
+      <c r="CXM99" s="1"/>
+      <c r="CXS99" s="1"/>
+      <c r="CXY99" s="1"/>
+      <c r="CYE99" s="1"/>
+      <c r="CYK99" s="1"/>
+      <c r="CYQ99" s="1"/>
+      <c r="CYW99" s="1"/>
+      <c r="CZC99" s="1"/>
+      <c r="CZI99" s="1"/>
+      <c r="CZO99" s="1"/>
+      <c r="CZU99" s="1"/>
+      <c r="DAA99" s="1"/>
+      <c r="DAG99" s="1"/>
+      <c r="DAM99" s="1"/>
+      <c r="DAS99" s="1"/>
+      <c r="DAY99" s="1"/>
+      <c r="DBE99" s="1"/>
+      <c r="DBK99" s="1"/>
+      <c r="DBQ99" s="1"/>
+      <c r="DBW99" s="1"/>
+      <c r="DCC99" s="1"/>
+      <c r="DCI99" s="1"/>
+      <c r="DCO99" s="1"/>
+      <c r="DCU99" s="1"/>
+      <c r="DDA99" s="1"/>
+      <c r="DDG99" s="1"/>
+      <c r="DDM99" s="1"/>
+      <c r="DDS99" s="1"/>
+      <c r="DDY99" s="1"/>
+      <c r="DEE99" s="1"/>
+      <c r="DEK99" s="1"/>
+      <c r="DEQ99" s="1"/>
+      <c r="DEW99" s="1"/>
+      <c r="DFC99" s="1"/>
+      <c r="DFI99" s="1"/>
+      <c r="DFO99" s="1"/>
+      <c r="DFU99" s="1"/>
+      <c r="DGA99" s="1"/>
+      <c r="DGG99" s="1"/>
+      <c r="DGM99" s="1"/>
+      <c r="DGS99" s="1"/>
+      <c r="DGY99" s="1"/>
+      <c r="DHE99" s="1"/>
+      <c r="DHK99" s="1"/>
+      <c r="DHQ99" s="1"/>
+      <c r="DHW99" s="1"/>
+      <c r="DIC99" s="1"/>
+      <c r="DII99" s="1"/>
+      <c r="DIO99" s="1"/>
+      <c r="DIU99" s="1"/>
+      <c r="DJA99" s="1"/>
+      <c r="DJG99" s="1"/>
+      <c r="DJM99" s="1"/>
+      <c r="DJS99" s="1"/>
+      <c r="DJY99" s="1"/>
+      <c r="DKE99" s="1"/>
+      <c r="DKK99" s="1"/>
+      <c r="DKQ99" s="1"/>
+      <c r="DKW99" s="1"/>
+      <c r="DLC99" s="1"/>
+      <c r="DLI99" s="1"/>
+      <c r="DLO99" s="1"/>
+      <c r="DLU99" s="1"/>
+      <c r="DMA99" s="1"/>
+      <c r="DMG99" s="1"/>
+      <c r="DMM99" s="1"/>
+      <c r="DMS99" s="1"/>
+      <c r="DMY99" s="1"/>
+      <c r="DNE99" s="1"/>
+      <c r="DNK99" s="1"/>
+      <c r="DNQ99" s="1"/>
+      <c r="DNW99" s="1"/>
+      <c r="DOC99" s="1"/>
+      <c r="DOI99" s="1"/>
+      <c r="DOO99" s="1"/>
+      <c r="DOU99" s="1"/>
+      <c r="DPA99" s="1"/>
+      <c r="DPG99" s="1"/>
+      <c r="DPM99" s="1"/>
+      <c r="DPS99" s="1"/>
+      <c r="DPY99" s="1"/>
+      <c r="DQE99" s="1"/>
+      <c r="DQK99" s="1"/>
+      <c r="DQQ99" s="1"/>
+      <c r="DQW99" s="1"/>
+      <c r="DRC99" s="1"/>
+      <c r="DRI99" s="1"/>
+      <c r="DRO99" s="1"/>
+      <c r="DRU99" s="1"/>
+      <c r="DSA99" s="1"/>
+      <c r="DSG99" s="1"/>
+      <c r="DSM99" s="1"/>
+      <c r="DSS99" s="1"/>
+      <c r="DSY99" s="1"/>
+      <c r="DTE99" s="1"/>
+      <c r="DTK99" s="1"/>
+      <c r="DTQ99" s="1"/>
+      <c r="DTW99" s="1"/>
+      <c r="DUC99" s="1"/>
+      <c r="DUI99" s="1"/>
+      <c r="DUO99" s="1"/>
+      <c r="DUU99" s="1"/>
+      <c r="DVA99" s="1"/>
+      <c r="DVG99" s="1"/>
+      <c r="DVM99" s="1"/>
+      <c r="DVS99" s="1"/>
+      <c r="DVY99" s="1"/>
+      <c r="DWE99" s="1"/>
+      <c r="DWK99" s="1"/>
+      <c r="DWQ99" s="1"/>
+      <c r="DWW99" s="1"/>
+      <c r="DXC99" s="1"/>
+      <c r="DXI99" s="1"/>
+      <c r="DXO99" s="1"/>
+      <c r="DXU99" s="1"/>
+      <c r="DYA99" s="1"/>
+      <c r="DYG99" s="1"/>
+      <c r="DYM99" s="1"/>
+      <c r="DYS99" s="1"/>
+      <c r="DYY99" s="1"/>
+      <c r="DZE99" s="1"/>
+      <c r="DZK99" s="1"/>
+      <c r="DZQ99" s="1"/>
+      <c r="DZW99" s="1"/>
+      <c r="EAC99" s="1"/>
+      <c r="EAI99" s="1"/>
+      <c r="EAO99" s="1"/>
+      <c r="EAU99" s="1"/>
+      <c r="EBA99" s="1"/>
+      <c r="EBG99" s="1"/>
+      <c r="EBM99" s="1"/>
+      <c r="EBS99" s="1"/>
+      <c r="EBY99" s="1"/>
+      <c r="ECE99" s="1"/>
+      <c r="ECK99" s="1"/>
+      <c r="ECQ99" s="1"/>
+      <c r="ECW99" s="1"/>
+      <c r="EDC99" s="1"/>
+      <c r="EDI99" s="1"/>
+      <c r="EDO99" s="1"/>
+      <c r="EDU99" s="1"/>
+      <c r="EEA99" s="1"/>
+      <c r="EEG99" s="1"/>
+      <c r="EEM99" s="1"/>
+      <c r="EES99" s="1"/>
+      <c r="EEY99" s="1"/>
+      <c r="EFE99" s="1"/>
+      <c r="EFK99" s="1"/>
+      <c r="EFQ99" s="1"/>
+      <c r="EFW99" s="1"/>
+      <c r="EGC99" s="1"/>
+      <c r="EGI99" s="1"/>
+      <c r="EGO99" s="1"/>
+      <c r="EGU99" s="1"/>
+      <c r="EHA99" s="1"/>
+      <c r="EHG99" s="1"/>
+      <c r="EHM99" s="1"/>
+      <c r="EHS99" s="1"/>
+      <c r="EHY99" s="1"/>
+      <c r="EIE99" s="1"/>
+      <c r="EIK99" s="1"/>
+      <c r="EIQ99" s="1"/>
+      <c r="EIW99" s="1"/>
+      <c r="EJC99" s="1"/>
+      <c r="EJI99" s="1"/>
+      <c r="EJO99" s="1"/>
+      <c r="EJU99" s="1"/>
+      <c r="EKA99" s="1"/>
+      <c r="EKG99" s="1"/>
+      <c r="EKM99" s="1"/>
+      <c r="EKS99" s="1"/>
+      <c r="EKY99" s="1"/>
+      <c r="ELE99" s="1"/>
+      <c r="ELK99" s="1"/>
+      <c r="ELQ99" s="1"/>
+      <c r="ELW99" s="1"/>
+      <c r="EMC99" s="1"/>
+      <c r="EMI99" s="1"/>
+      <c r="EMO99" s="1"/>
+      <c r="EMU99" s="1"/>
+      <c r="ENA99" s="1"/>
+      <c r="ENG99" s="1"/>
+      <c r="ENM99" s="1"/>
+      <c r="ENS99" s="1"/>
+      <c r="ENY99" s="1"/>
+      <c r="EOE99" s="1"/>
+      <c r="EOK99" s="1"/>
+      <c r="EOQ99" s="1"/>
+      <c r="EOW99" s="1"/>
+      <c r="EPC99" s="1"/>
+      <c r="EPI99" s="1"/>
+      <c r="EPO99" s="1"/>
+      <c r="EPU99" s="1"/>
+      <c r="EQA99" s="1"/>
+      <c r="EQG99" s="1"/>
+      <c r="EQM99" s="1"/>
+      <c r="EQS99" s="1"/>
+      <c r="EQY99" s="1"/>
+      <c r="ERE99" s="1"/>
+      <c r="ERK99" s="1"/>
+      <c r="ERQ99" s="1"/>
+      <c r="ERW99" s="1"/>
+      <c r="ESC99" s="1"/>
+      <c r="ESI99" s="1"/>
+      <c r="ESO99" s="1"/>
+      <c r="ESU99" s="1"/>
+      <c r="ETA99" s="1"/>
+      <c r="ETG99" s="1"/>
+      <c r="ETM99" s="1"/>
+      <c r="ETS99" s="1"/>
+      <c r="ETY99" s="1"/>
+      <c r="EUE99" s="1"/>
+      <c r="EUK99" s="1"/>
+      <c r="EUQ99" s="1"/>
+      <c r="EUW99" s="1"/>
+      <c r="EVC99" s="1"/>
+      <c r="EVI99" s="1"/>
+      <c r="EVO99" s="1"/>
+      <c r="EVU99" s="1"/>
+      <c r="EWA99" s="1"/>
+      <c r="EWG99" s="1"/>
+      <c r="EWM99" s="1"/>
+      <c r="EWS99" s="1"/>
+      <c r="EWY99" s="1"/>
+      <c r="EXE99" s="1"/>
+      <c r="EXK99" s="1"/>
+      <c r="EXQ99" s="1"/>
+      <c r="EXW99" s="1"/>
+      <c r="EYC99" s="1"/>
+      <c r="EYI99" s="1"/>
+      <c r="EYO99" s="1"/>
+      <c r="EYU99" s="1"/>
+      <c r="EZA99" s="1"/>
+      <c r="EZG99" s="1"/>
+      <c r="EZM99" s="1"/>
+      <c r="EZS99" s="1"/>
+      <c r="EZY99" s="1"/>
+      <c r="FAE99" s="1"/>
+      <c r="FAK99" s="1"/>
+      <c r="FAQ99" s="1"/>
+      <c r="FAW99" s="1"/>
+      <c r="FBC99" s="1"/>
+      <c r="FBI99" s="1"/>
+      <c r="FBO99" s="1"/>
+      <c r="FBU99" s="1"/>
+      <c r="FCA99" s="1"/>
+      <c r="FCG99" s="1"/>
+      <c r="FCM99" s="1"/>
+      <c r="FCS99" s="1"/>
+      <c r="FCY99" s="1"/>
+      <c r="FDE99" s="1"/>
+      <c r="FDK99" s="1"/>
+      <c r="FDQ99" s="1"/>
+      <c r="FDW99" s="1"/>
+      <c r="FEC99" s="1"/>
+      <c r="FEI99" s="1"/>
+      <c r="FEO99" s="1"/>
+      <c r="FEU99" s="1"/>
+      <c r="FFA99" s="1"/>
+      <c r="FFG99" s="1"/>
+      <c r="FFM99" s="1"/>
+      <c r="FFS99" s="1"/>
+      <c r="FFY99" s="1"/>
+      <c r="FGE99" s="1"/>
+      <c r="FGK99" s="1"/>
+      <c r="FGQ99" s="1"/>
+      <c r="FGW99" s="1"/>
+      <c r="FHC99" s="1"/>
+      <c r="FHI99" s="1"/>
+      <c r="FHO99" s="1"/>
+      <c r="FHU99" s="1"/>
+      <c r="FIA99" s="1"/>
+      <c r="FIG99" s="1"/>
+      <c r="FIM99" s="1"/>
+      <c r="FIS99" s="1"/>
+      <c r="FIY99" s="1"/>
+      <c r="FJE99" s="1"/>
+      <c r="FJK99" s="1"/>
+      <c r="FJQ99" s="1"/>
+      <c r="FJW99" s="1"/>
+      <c r="FKC99" s="1"/>
+      <c r="FKI99" s="1"/>
+      <c r="FKO99" s="1"/>
+      <c r="FKU99" s="1"/>
+      <c r="FLA99" s="1"/>
+      <c r="FLG99" s="1"/>
+      <c r="FLM99" s="1"/>
+      <c r="FLS99" s="1"/>
+      <c r="FLY99" s="1"/>
+      <c r="FME99" s="1"/>
+      <c r="FMK99" s="1"/>
+      <c r="FMQ99" s="1"/>
+      <c r="FMW99" s="1"/>
+      <c r="FNC99" s="1"/>
+      <c r="FNI99" s="1"/>
+      <c r="FNO99" s="1"/>
+      <c r="FNU99" s="1"/>
+      <c r="FOA99" s="1"/>
+      <c r="FOG99" s="1"/>
+      <c r="FOM99" s="1"/>
+      <c r="FOS99" s="1"/>
+      <c r="FOY99" s="1"/>
+      <c r="FPE99" s="1"/>
+      <c r="FPK99" s="1"/>
+      <c r="FPQ99" s="1"/>
+      <c r="FPW99" s="1"/>
+      <c r="FQC99" s="1"/>
+      <c r="FQI99" s="1"/>
+      <c r="FQO99" s="1"/>
+      <c r="FQU99" s="1"/>
+      <c r="FRA99" s="1"/>
+      <c r="FRG99" s="1"/>
+      <c r="FRM99" s="1"/>
+      <c r="FRS99" s="1"/>
+      <c r="FRY99" s="1"/>
+      <c r="FSE99" s="1"/>
+      <c r="FSK99" s="1"/>
+      <c r="FSQ99" s="1"/>
+      <c r="FSW99" s="1"/>
+      <c r="FTC99" s="1"/>
+      <c r="FTI99" s="1"/>
+      <c r="FTO99" s="1"/>
+      <c r="FTU99" s="1"/>
+      <c r="FUA99" s="1"/>
+      <c r="FUG99" s="1"/>
+      <c r="FUM99" s="1"/>
+      <c r="FUS99" s="1"/>
+      <c r="FUY99" s="1"/>
+      <c r="FVE99" s="1"/>
+      <c r="FVK99" s="1"/>
+      <c r="FVQ99" s="1"/>
+      <c r="FVW99" s="1"/>
+      <c r="FWC99" s="1"/>
+      <c r="FWI99" s="1"/>
+      <c r="FWO99" s="1"/>
+      <c r="FWU99" s="1"/>
+      <c r="FXA99" s="1"/>
+      <c r="FXG99" s="1"/>
+      <c r="FXM99" s="1"/>
+      <c r="FXS99" s="1"/>
+      <c r="FXY99" s="1"/>
+      <c r="FYE99" s="1"/>
+      <c r="FYK99" s="1"/>
+      <c r="FYQ99" s="1"/>
+      <c r="FYW99" s="1"/>
+      <c r="FZC99" s="1"/>
+      <c r="FZI99" s="1"/>
+      <c r="FZO99" s="1"/>
+      <c r="FZU99" s="1"/>
+      <c r="GAA99" s="1"/>
+      <c r="GAG99" s="1"/>
+      <c r="GAM99" s="1"/>
+      <c r="GAS99" s="1"/>
+      <c r="GAY99" s="1"/>
+      <c r="GBE99" s="1"/>
+      <c r="GBK99" s="1"/>
+      <c r="GBQ99" s="1"/>
+      <c r="GBW99" s="1"/>
+      <c r="GCC99" s="1"/>
+      <c r="GCI99" s="1"/>
+      <c r="GCO99" s="1"/>
+      <c r="GCU99" s="1"/>
+      <c r="GDA99" s="1"/>
+      <c r="GDG99" s="1"/>
+      <c r="GDM99" s="1"/>
+      <c r="GDS99" s="1"/>
+      <c r="GDY99" s="1"/>
+      <c r="GEE99" s="1"/>
+      <c r="GEK99" s="1"/>
+      <c r="GEQ99" s="1"/>
+      <c r="GEW99" s="1"/>
+      <c r="GFC99" s="1"/>
+      <c r="GFI99" s="1"/>
+      <c r="GFO99" s="1"/>
+      <c r="GFU99" s="1"/>
+      <c r="GGA99" s="1"/>
+      <c r="GGG99" s="1"/>
+      <c r="GGM99" s="1"/>
+      <c r="GGS99" s="1"/>
+      <c r="GGY99" s="1"/>
+      <c r="GHE99" s="1"/>
+      <c r="GHK99" s="1"/>
+      <c r="GHQ99" s="1"/>
+      <c r="GHW99" s="1"/>
+      <c r="GIC99" s="1"/>
+      <c r="GII99" s="1"/>
+      <c r="GIO99" s="1"/>
+      <c r="GIU99" s="1"/>
+      <c r="GJA99" s="1"/>
+      <c r="GJG99" s="1"/>
+      <c r="GJM99" s="1"/>
+      <c r="GJS99" s="1"/>
+      <c r="GJY99" s="1"/>
+      <c r="GKE99" s="1"/>
+      <c r="GKK99" s="1"/>
+      <c r="GKQ99" s="1"/>
+      <c r="GKW99" s="1"/>
+      <c r="GLC99" s="1"/>
+      <c r="GLI99" s="1"/>
+      <c r="GLO99" s="1"/>
+      <c r="GLU99" s="1"/>
+      <c r="GMA99" s="1"/>
+      <c r="GMG99" s="1"/>
+      <c r="GMM99" s="1"/>
+      <c r="GMS99" s="1"/>
+      <c r="GMY99" s="1"/>
+      <c r="GNE99" s="1"/>
+      <c r="GNK99" s="1"/>
+      <c r="GNQ99" s="1"/>
+      <c r="GNW99" s="1"/>
+      <c r="GOC99" s="1"/>
+      <c r="GOI99" s="1"/>
+      <c r="GOO99" s="1"/>
+      <c r="GOU99" s="1"/>
+      <c r="GPA99" s="1"/>
+      <c r="GPG99" s="1"/>
+      <c r="GPM99" s="1"/>
+      <c r="GPS99" s="1"/>
+      <c r="GPY99" s="1"/>
+      <c r="GQE99" s="1"/>
+      <c r="GQK99" s="1"/>
+      <c r="GQQ99" s="1"/>
+      <c r="GQW99" s="1"/>
+      <c r="GRC99" s="1"/>
+      <c r="GRI99" s="1"/>
+      <c r="GRO99" s="1"/>
+      <c r="GRU99" s="1"/>
+      <c r="GSA99" s="1"/>
+      <c r="GSG99" s="1"/>
+      <c r="GSM99" s="1"/>
+      <c r="GSS99" s="1"/>
+      <c r="GSY99" s="1"/>
+      <c r="GTE99" s="1"/>
+      <c r="GTK99" s="1"/>
+      <c r="GTQ99" s="1"/>
+      <c r="GTW99" s="1"/>
+      <c r="GUC99" s="1"/>
+      <c r="GUI99" s="1"/>
+      <c r="GUO99" s="1"/>
+      <c r="GUU99" s="1"/>
+      <c r="GVA99" s="1"/>
+      <c r="GVG99" s="1"/>
+      <c r="GVM99" s="1"/>
+      <c r="GVS99" s="1"/>
+      <c r="GVY99" s="1"/>
+      <c r="GWE99" s="1"/>
+      <c r="GWK99" s="1"/>
+      <c r="GWQ99" s="1"/>
+      <c r="GWW99" s="1"/>
+      <c r="GXC99" s="1"/>
+      <c r="GXI99" s="1"/>
+      <c r="GXO99" s="1"/>
+      <c r="GXU99" s="1"/>
+      <c r="GYA99" s="1"/>
+      <c r="GYG99" s="1"/>
+      <c r="GYM99" s="1"/>
+      <c r="GYS99" s="1"/>
+      <c r="GYY99" s="1"/>
+      <c r="GZE99" s="1"/>
+      <c r="GZK99" s="1"/>
+      <c r="GZQ99" s="1"/>
+      <c r="GZW99" s="1"/>
+      <c r="HAC99" s="1"/>
+      <c r="HAI99" s="1"/>
+      <c r="HAO99" s="1"/>
+      <c r="HAU99" s="1"/>
+      <c r="HBA99" s="1"/>
+      <c r="HBG99" s="1"/>
+      <c r="HBM99" s="1"/>
+      <c r="HBS99" s="1"/>
+      <c r="HBY99" s="1"/>
+      <c r="HCE99" s="1"/>
+      <c r="HCK99" s="1"/>
+      <c r="HCQ99" s="1"/>
+      <c r="HCW99" s="1"/>
+      <c r="HDC99" s="1"/>
+      <c r="HDI99" s="1"/>
+      <c r="HDO99" s="1"/>
+      <c r="HDU99" s="1"/>
+      <c r="HEA99" s="1"/>
+      <c r="HEG99" s="1"/>
+      <c r="HEM99" s="1"/>
+      <c r="HES99" s="1"/>
+      <c r="HEY99" s="1"/>
+      <c r="HFE99" s="1"/>
+      <c r="HFK99" s="1"/>
+      <c r="HFQ99" s="1"/>
+      <c r="HFW99" s="1"/>
+      <c r="HGC99" s="1"/>
+      <c r="HGI99" s="1"/>
+      <c r="HGO99" s="1"/>
+      <c r="HGU99" s="1"/>
+      <c r="HHA99" s="1"/>
+      <c r="HHG99" s="1"/>
+      <c r="HHM99" s="1"/>
+      <c r="HHS99" s="1"/>
+      <c r="HHY99" s="1"/>
+      <c r="HIE99" s="1"/>
+      <c r="HIK99" s="1"/>
+      <c r="HIQ99" s="1"/>
+      <c r="HIW99" s="1"/>
+      <c r="HJC99" s="1"/>
+      <c r="HJI99" s="1"/>
+      <c r="HJO99" s="1"/>
+      <c r="HJU99" s="1"/>
+      <c r="HKA99" s="1"/>
+      <c r="HKG99" s="1"/>
+      <c r="HKM99" s="1"/>
+      <c r="HKS99" s="1"/>
+      <c r="HKY99" s="1"/>
+      <c r="HLE99" s="1"/>
+      <c r="HLK99" s="1"/>
+      <c r="HLQ99" s="1"/>
+      <c r="HLW99" s="1"/>
+      <c r="HMC99" s="1"/>
+      <c r="HMI99" s="1"/>
+      <c r="HMO99" s="1"/>
+      <c r="HMU99" s="1"/>
+      <c r="HNA99" s="1"/>
+      <c r="HNG99" s="1"/>
+      <c r="HNM99" s="1"/>
+      <c r="HNS99" s="1"/>
+      <c r="HNY99" s="1"/>
+      <c r="HOE99" s="1"/>
+      <c r="HOK99" s="1"/>
+      <c r="HOQ99" s="1"/>
+      <c r="HOW99" s="1"/>
+      <c r="HPC99" s="1"/>
+      <c r="HPI99" s="1"/>
+      <c r="HPO99" s="1"/>
+      <c r="HPU99" s="1"/>
+      <c r="HQA99" s="1"/>
+      <c r="HQG99" s="1"/>
+      <c r="HQM99" s="1"/>
+      <c r="HQS99" s="1"/>
+      <c r="HQY99" s="1"/>
+      <c r="HRE99" s="1"/>
+      <c r="HRK99" s="1"/>
+      <c r="HRQ99" s="1"/>
+      <c r="HRW99" s="1"/>
+      <c r="HSC99" s="1"/>
+      <c r="HSI99" s="1"/>
+      <c r="HSO99" s="1"/>
+      <c r="HSU99" s="1"/>
+      <c r="HTA99" s="1"/>
+      <c r="HTG99" s="1"/>
+      <c r="HTM99" s="1"/>
+      <c r="HTS99" s="1"/>
+      <c r="HTY99" s="1"/>
+      <c r="HUE99" s="1"/>
+      <c r="HUK99" s="1"/>
+      <c r="HUQ99" s="1"/>
+      <c r="HUW99" s="1"/>
+      <c r="HVC99" s="1"/>
+      <c r="HVI99" s="1"/>
+      <c r="HVO99" s="1"/>
+      <c r="HVU99" s="1"/>
+      <c r="HWA99" s="1"/>
+      <c r="HWG99" s="1"/>
+      <c r="HWM99" s="1"/>
+      <c r="HWS99" s="1"/>
+      <c r="HWY99" s="1"/>
+      <c r="HXE99" s="1"/>
+      <c r="HXK99" s="1"/>
+      <c r="HXQ99" s="1"/>
+      <c r="HXW99" s="1"/>
+      <c r="HYC99" s="1"/>
+      <c r="HYI99" s="1"/>
+      <c r="HYO99" s="1"/>
+      <c r="HYU99" s="1"/>
+      <c r="HZA99" s="1"/>
+      <c r="HZG99" s="1"/>
+      <c r="HZM99" s="1"/>
+      <c r="HZS99" s="1"/>
+      <c r="HZY99" s="1"/>
+      <c r="IAE99" s="1"/>
+      <c r="IAK99" s="1"/>
+      <c r="IAQ99" s="1"/>
+      <c r="IAW99" s="1"/>
+      <c r="IBC99" s="1"/>
+      <c r="IBI99" s="1"/>
+      <c r="IBO99" s="1"/>
+      <c r="IBU99" s="1"/>
+      <c r="ICA99" s="1"/>
+      <c r="ICG99" s="1"/>
+      <c r="ICM99" s="1"/>
+      <c r="ICS99" s="1"/>
+      <c r="ICY99" s="1"/>
+      <c r="IDE99" s="1"/>
+      <c r="IDK99" s="1"/>
+      <c r="IDQ99" s="1"/>
+      <c r="IDW99" s="1"/>
+      <c r="IEC99" s="1"/>
+      <c r="IEI99" s="1"/>
+      <c r="IEO99" s="1"/>
+      <c r="IEU99" s="1"/>
+      <c r="IFA99" s="1"/>
+      <c r="IFG99" s="1"/>
+      <c r="IFM99" s="1"/>
+      <c r="IFS99" s="1"/>
+      <c r="IFY99" s="1"/>
+      <c r="IGE99" s="1"/>
+      <c r="IGK99" s="1"/>
+      <c r="IGQ99" s="1"/>
+      <c r="IGW99" s="1"/>
+      <c r="IHC99" s="1"/>
+      <c r="IHI99" s="1"/>
+      <c r="IHO99" s="1"/>
+      <c r="IHU99" s="1"/>
+      <c r="IIA99" s="1"/>
+      <c r="IIG99" s="1"/>
+      <c r="IIM99" s="1"/>
+      <c r="IIS99" s="1"/>
+      <c r="IIY99" s="1"/>
+      <c r="IJE99" s="1"/>
+      <c r="IJK99" s="1"/>
+      <c r="IJQ99" s="1"/>
+      <c r="IJW99" s="1"/>
+      <c r="IKC99" s="1"/>
+      <c r="IKI99" s="1"/>
+      <c r="IKO99" s="1"/>
+      <c r="IKU99" s="1"/>
+      <c r="ILA99" s="1"/>
+      <c r="ILG99" s="1"/>
+      <c r="ILM99" s="1"/>
+      <c r="ILS99" s="1"/>
+      <c r="ILY99" s="1"/>
+      <c r="IME99" s="1"/>
+      <c r="IMK99" s="1"/>
+      <c r="IMQ99" s="1"/>
+      <c r="IMW99" s="1"/>
+      <c r="INC99" s="1"/>
+      <c r="INI99" s="1"/>
+      <c r="INO99" s="1"/>
+      <c r="INU99" s="1"/>
+      <c r="IOA99" s="1"/>
+      <c r="IOG99" s="1"/>
+      <c r="IOM99" s="1"/>
+      <c r="IOS99" s="1"/>
+      <c r="IOY99" s="1"/>
+      <c r="IPE99" s="1"/>
+      <c r="IPK99" s="1"/>
+      <c r="IPQ99" s="1"/>
+      <c r="IPW99" s="1"/>
+      <c r="IQC99" s="1"/>
+      <c r="IQI99" s="1"/>
+      <c r="IQO99" s="1"/>
+      <c r="IQU99" s="1"/>
+      <c r="IRA99" s="1"/>
+      <c r="IRG99" s="1"/>
+      <c r="IRM99" s="1"/>
+      <c r="IRS99" s="1"/>
+      <c r="IRY99" s="1"/>
+      <c r="ISE99" s="1"/>
+      <c r="ISK99" s="1"/>
+      <c r="ISQ99" s="1"/>
+      <c r="ISW99" s="1"/>
+      <c r="ITC99" s="1"/>
+      <c r="ITI99" s="1"/>
+      <c r="ITO99" s="1"/>
+      <c r="ITU99" s="1"/>
+      <c r="IUA99" s="1"/>
+      <c r="IUG99" s="1"/>
+      <c r="IUM99" s="1"/>
+      <c r="IUS99" s="1"/>
+      <c r="IUY99" s="1"/>
+      <c r="IVE99" s="1"/>
+      <c r="IVK99" s="1"/>
+      <c r="IVQ99" s="1"/>
+      <c r="IVW99" s="1"/>
+      <c r="IWC99" s="1"/>
+      <c r="IWI99" s="1"/>
+      <c r="IWO99" s="1"/>
+      <c r="IWU99" s="1"/>
+      <c r="IXA99" s="1"/>
+      <c r="IXG99" s="1"/>
+      <c r="IXM99" s="1"/>
+      <c r="IXS99" s="1"/>
+      <c r="IXY99" s="1"/>
+      <c r="IYE99" s="1"/>
+      <c r="IYK99" s="1"/>
+      <c r="IYQ99" s="1"/>
+      <c r="IYW99" s="1"/>
+      <c r="IZC99" s="1"/>
+      <c r="IZI99" s="1"/>
+      <c r="IZO99" s="1"/>
+      <c r="IZU99" s="1"/>
+      <c r="JAA99" s="1"/>
+      <c r="JAG99" s="1"/>
+      <c r="JAM99" s="1"/>
+      <c r="JAS99" s="1"/>
+      <c r="JAY99" s="1"/>
+      <c r="JBE99" s="1"/>
+      <c r="JBK99" s="1"/>
+      <c r="JBQ99" s="1"/>
+      <c r="JBW99" s="1"/>
+      <c r="JCC99" s="1"/>
+      <c r="JCI99" s="1"/>
+      <c r="JCO99" s="1"/>
+      <c r="JCU99" s="1"/>
+      <c r="JDA99" s="1"/>
+      <c r="JDG99" s="1"/>
+      <c r="JDM99" s="1"/>
+      <c r="JDS99" s="1"/>
+      <c r="JDY99" s="1"/>
+      <c r="JEE99" s="1"/>
+      <c r="JEK99" s="1"/>
+      <c r="JEQ99" s="1"/>
+      <c r="JEW99" s="1"/>
+      <c r="JFC99" s="1"/>
+      <c r="JFI99" s="1"/>
+      <c r="JFO99" s="1"/>
+      <c r="JFU99" s="1"/>
+      <c r="JGA99" s="1"/>
+      <c r="JGG99" s="1"/>
+      <c r="JGM99" s="1"/>
+      <c r="JGS99" s="1"/>
+      <c r="JGY99" s="1"/>
+      <c r="JHE99" s="1"/>
+      <c r="JHK99" s="1"/>
+      <c r="JHQ99" s="1"/>
+      <c r="JHW99" s="1"/>
+      <c r="JIC99" s="1"/>
+      <c r="JII99" s="1"/>
+      <c r="JIO99" s="1"/>
+      <c r="JIU99" s="1"/>
+      <c r="JJA99" s="1"/>
+      <c r="JJG99" s="1"/>
+      <c r="JJM99" s="1"/>
+      <c r="JJS99" s="1"/>
+      <c r="JJY99" s="1"/>
+      <c r="JKE99" s="1"/>
+      <c r="JKK99" s="1"/>
+      <c r="JKQ99" s="1"/>
+      <c r="JKW99" s="1"/>
+      <c r="JLC99" s="1"/>
+      <c r="JLI99" s="1"/>
+      <c r="JLO99" s="1"/>
+      <c r="JLU99" s="1"/>
+      <c r="JMA99" s="1"/>
+      <c r="JMG99" s="1"/>
+      <c r="JMM99" s="1"/>
+      <c r="JMS99" s="1"/>
+      <c r="JMY99" s="1"/>
+      <c r="JNE99" s="1"/>
+      <c r="JNK99" s="1"/>
+      <c r="JNQ99" s="1"/>
+      <c r="JNW99" s="1"/>
+      <c r="JOC99" s="1"/>
+      <c r="JOI99" s="1"/>
+      <c r="JOO99" s="1"/>
+      <c r="JOU99" s="1"/>
+      <c r="JPA99" s="1"/>
+      <c r="JPG99" s="1"/>
+      <c r="JPM99" s="1"/>
+      <c r="JPS99" s="1"/>
+      <c r="JPY99" s="1"/>
+      <c r="JQE99" s="1"/>
+      <c r="JQK99" s="1"/>
+      <c r="JQQ99" s="1"/>
+      <c r="JQW99" s="1"/>
+      <c r="JRC99" s="1"/>
+      <c r="JRI99" s="1"/>
+      <c r="JRO99" s="1"/>
+      <c r="JRU99" s="1"/>
+      <c r="JSA99" s="1"/>
+      <c r="JSG99" s="1"/>
+      <c r="JSM99" s="1"/>
+      <c r="JSS99" s="1"/>
+      <c r="JSY99" s="1"/>
+      <c r="JTE99" s="1"/>
+      <c r="JTK99" s="1"/>
+      <c r="JTQ99" s="1"/>
+      <c r="JTW99" s="1"/>
+      <c r="JUC99" s="1"/>
+      <c r="JUI99" s="1"/>
+      <c r="JUO99" s="1"/>
+      <c r="JUU99" s="1"/>
+      <c r="JVA99" s="1"/>
+      <c r="JVG99" s="1"/>
+      <c r="JVM99" s="1"/>
+      <c r="JVS99" s="1"/>
+      <c r="JVY99" s="1"/>
+      <c r="JWE99" s="1"/>
+      <c r="JWK99" s="1"/>
+      <c r="JWQ99" s="1"/>
+      <c r="JWW99" s="1"/>
+      <c r="JXC99" s="1"/>
+      <c r="JXI99" s="1"/>
+      <c r="JXO99" s="1"/>
+      <c r="JXU99" s="1"/>
+      <c r="JYA99" s="1"/>
+      <c r="JYG99" s="1"/>
+      <c r="JYM99" s="1"/>
+      <c r="JYS99" s="1"/>
+      <c r="JYY99" s="1"/>
+      <c r="JZE99" s="1"/>
+      <c r="JZK99" s="1"/>
+      <c r="JZQ99" s="1"/>
+      <c r="JZW99" s="1"/>
+      <c r="KAC99" s="1"/>
+      <c r="KAI99" s="1"/>
+      <c r="KAO99" s="1"/>
+      <c r="KAU99" s="1"/>
+      <c r="KBA99" s="1"/>
+      <c r="KBG99" s="1"/>
+      <c r="KBM99" s="1"/>
+      <c r="KBS99" s="1"/>
+      <c r="KBY99" s="1"/>
+      <c r="KCE99" s="1"/>
+      <c r="KCK99" s="1"/>
+      <c r="KCQ99" s="1"/>
+      <c r="KCW99" s="1"/>
+      <c r="KDC99" s="1"/>
+      <c r="KDI99" s="1"/>
+      <c r="KDO99" s="1"/>
+      <c r="KDU99" s="1"/>
+      <c r="KEA99" s="1"/>
+      <c r="KEG99" s="1"/>
+      <c r="KEM99" s="1"/>
+      <c r="KES99" s="1"/>
+      <c r="KEY99" s="1"/>
+      <c r="KFE99" s="1"/>
+      <c r="KFK99" s="1"/>
+      <c r="KFQ99" s="1"/>
+      <c r="KFW99" s="1"/>
+      <c r="KGC99" s="1"/>
+      <c r="KGI99" s="1"/>
+      <c r="KGO99" s="1"/>
+      <c r="KGU99" s="1"/>
+      <c r="KHA99" s="1"/>
+      <c r="KHG99" s="1"/>
+      <c r="KHM99" s="1"/>
+      <c r="KHS99" s="1"/>
+      <c r="KHY99" s="1"/>
+      <c r="KIE99" s="1"/>
+      <c r="KIK99" s="1"/>
+      <c r="KIQ99" s="1"/>
+      <c r="KIW99" s="1"/>
+      <c r="KJC99" s="1"/>
+      <c r="KJI99" s="1"/>
+      <c r="KJO99" s="1"/>
+      <c r="KJU99" s="1"/>
+      <c r="KKA99" s="1"/>
+      <c r="KKG99" s="1"/>
+      <c r="KKM99" s="1"/>
+      <c r="KKS99" s="1"/>
+      <c r="KKY99" s="1"/>
+      <c r="KLE99" s="1"/>
+      <c r="KLK99" s="1"/>
+      <c r="KLQ99" s="1"/>
+      <c r="KLW99" s="1"/>
+      <c r="KMC99" s="1"/>
+      <c r="KMI99" s="1"/>
+      <c r="KMO99" s="1"/>
+      <c r="KMU99" s="1"/>
+      <c r="KNA99" s="1"/>
+      <c r="KNG99" s="1"/>
+      <c r="KNM99" s="1"/>
+      <c r="KNS99" s="1"/>
+      <c r="KNY99" s="1"/>
+      <c r="KOE99" s="1"/>
+      <c r="KOK99" s="1"/>
+      <c r="KOQ99" s="1"/>
+      <c r="KOW99" s="1"/>
+      <c r="KPC99" s="1"/>
+      <c r="KPI99" s="1"/>
+      <c r="KPO99" s="1"/>
+      <c r="KPU99" s="1"/>
+      <c r="KQA99" s="1"/>
+      <c r="KQG99" s="1"/>
+      <c r="KQM99" s="1"/>
+      <c r="KQS99" s="1"/>
+      <c r="KQY99" s="1"/>
+      <c r="KRE99" s="1"/>
+      <c r="KRK99" s="1"/>
+      <c r="KRQ99" s="1"/>
+      <c r="KRW99" s="1"/>
+      <c r="KSC99" s="1"/>
+      <c r="KSI99" s="1"/>
+      <c r="KSO99" s="1"/>
+      <c r="KSU99" s="1"/>
+      <c r="KTA99" s="1"/>
+      <c r="KTG99" s="1"/>
+      <c r="KTM99" s="1"/>
+      <c r="KTS99" s="1"/>
+      <c r="KTY99" s="1"/>
+      <c r="KUE99" s="1"/>
+      <c r="KUK99" s="1"/>
+      <c r="KUQ99" s="1"/>
+      <c r="KUW99" s="1"/>
+      <c r="KVC99" s="1"/>
+      <c r="KVI99" s="1"/>
+      <c r="KVO99" s="1"/>
+      <c r="KVU99" s="1"/>
+      <c r="KWA99" s="1"/>
+      <c r="KWG99" s="1"/>
+      <c r="KWM99" s="1"/>
+      <c r="KWS99" s="1"/>
+      <c r="KWY99" s="1"/>
+      <c r="KXE99" s="1"/>
+      <c r="KXK99" s="1"/>
+      <c r="KXQ99" s="1"/>
+      <c r="KXW99" s="1"/>
+      <c r="KYC99" s="1"/>
+      <c r="KYI99" s="1"/>
+      <c r="KYO99" s="1"/>
+      <c r="KYU99" s="1"/>
+      <c r="KZA99" s="1"/>
+      <c r="KZG99" s="1"/>
+      <c r="KZM99" s="1"/>
+      <c r="KZS99" s="1"/>
+      <c r="KZY99" s="1"/>
+      <c r="LAE99" s="1"/>
+      <c r="LAK99" s="1"/>
+      <c r="LAQ99" s="1"/>
+      <c r="LAW99" s="1"/>
+      <c r="LBC99" s="1"/>
+      <c r="LBI99" s="1"/>
+      <c r="LBO99" s="1"/>
+      <c r="LBU99" s="1"/>
+      <c r="LCA99" s="1"/>
+      <c r="LCG99" s="1"/>
+      <c r="LCM99" s="1"/>
+      <c r="LCS99" s="1"/>
+      <c r="LCY99" s="1"/>
+      <c r="LDE99" s="1"/>
+      <c r="LDK99" s="1"/>
+      <c r="LDQ99" s="1"/>
+      <c r="LDW99" s="1"/>
+      <c r="LEC99" s="1"/>
+      <c r="LEI99" s="1"/>
+      <c r="LEO99" s="1"/>
+      <c r="LEU99" s="1"/>
+      <c r="LFA99" s="1"/>
+      <c r="LFG99" s="1"/>
+      <c r="LFM99" s="1"/>
+      <c r="LFS99" s="1"/>
+      <c r="LFY99" s="1"/>
+      <c r="LGE99" s="1"/>
+      <c r="LGK99" s="1"/>
+      <c r="LGQ99" s="1"/>
+      <c r="LGW99" s="1"/>
+      <c r="LHC99" s="1"/>
+      <c r="LHI99" s="1"/>
+      <c r="LHO99" s="1"/>
+      <c r="LHU99" s="1"/>
+      <c r="LIA99" s="1"/>
+      <c r="LIG99" s="1"/>
+      <c r="LIM99" s="1"/>
+      <c r="LIS99" s="1"/>
+      <c r="LIY99" s="1"/>
+      <c r="LJE99" s="1"/>
+      <c r="LJK99" s="1"/>
+      <c r="LJQ99" s="1"/>
+      <c r="LJW99" s="1"/>
+      <c r="LKC99" s="1"/>
+      <c r="LKI99" s="1"/>
+      <c r="LKO99" s="1"/>
+      <c r="LKU99" s="1"/>
+      <c r="LLA99" s="1"/>
+      <c r="LLG99" s="1"/>
+      <c r="LLM99" s="1"/>
+      <c r="LLS99" s="1"/>
+      <c r="LLY99" s="1"/>
+      <c r="LME99" s="1"/>
+      <c r="LMK99" s="1"/>
+      <c r="LMQ99" s="1"/>
+      <c r="LMW99" s="1"/>
+      <c r="LNC99" s="1"/>
+      <c r="LNI99" s="1"/>
+      <c r="LNO99" s="1"/>
+      <c r="LNU99" s="1"/>
+      <c r="LOA99" s="1"/>
+      <c r="LOG99" s="1"/>
+      <c r="LOM99" s="1"/>
+      <c r="LOS99" s="1"/>
+      <c r="LOY99" s="1"/>
+      <c r="LPE99" s="1"/>
+      <c r="LPK99" s="1"/>
+      <c r="LPQ99" s="1"/>
+      <c r="LPW99" s="1"/>
+      <c r="LQC99" s="1"/>
+      <c r="LQI99" s="1"/>
+      <c r="LQO99" s="1"/>
+      <c r="LQU99" s="1"/>
+      <c r="LRA99" s="1"/>
+      <c r="LRG99" s="1"/>
+      <c r="LRM99" s="1"/>
+      <c r="LRS99" s="1"/>
+      <c r="LRY99" s="1"/>
+      <c r="LSE99" s="1"/>
+      <c r="LSK99" s="1"/>
+      <c r="LSQ99" s="1"/>
+      <c r="LSW99" s="1"/>
+      <c r="LTC99" s="1"/>
+      <c r="LTI99" s="1"/>
+      <c r="LTO99" s="1"/>
+      <c r="LTU99" s="1"/>
+      <c r="LUA99" s="1"/>
+      <c r="LUG99" s="1"/>
+      <c r="LUM99" s="1"/>
+      <c r="LUS99" s="1"/>
+      <c r="LUY99" s="1"/>
+      <c r="LVE99" s="1"/>
+      <c r="LVK99" s="1"/>
+      <c r="LVQ99" s="1"/>
+      <c r="LVW99" s="1"/>
+      <c r="LWC99" s="1"/>
+      <c r="LWI99" s="1"/>
+      <c r="LWO99" s="1"/>
+      <c r="LWU99" s="1"/>
+      <c r="LXA99" s="1"/>
+      <c r="LXG99" s="1"/>
+      <c r="LXM99" s="1"/>
+      <c r="LXS99" s="1"/>
+      <c r="LXY99" s="1"/>
+      <c r="LYE99" s="1"/>
+      <c r="LYK99" s="1"/>
+      <c r="LYQ99" s="1"/>
+      <c r="LYW99" s="1"/>
+      <c r="LZC99" s="1"/>
+      <c r="LZI99" s="1"/>
+      <c r="LZO99" s="1"/>
+      <c r="LZU99" s="1"/>
+      <c r="MAA99" s="1"/>
+      <c r="MAG99" s="1"/>
+      <c r="MAM99" s="1"/>
+      <c r="MAS99" s="1"/>
+      <c r="MAY99" s="1"/>
+      <c r="MBE99" s="1"/>
+      <c r="MBK99" s="1"/>
+      <c r="MBQ99" s="1"/>
+      <c r="MBW99" s="1"/>
+      <c r="MCC99" s="1"/>
+      <c r="MCI99" s="1"/>
+      <c r="MCO99" s="1"/>
+      <c r="MCU99" s="1"/>
+      <c r="MDA99" s="1"/>
+      <c r="MDG99" s="1"/>
+      <c r="MDM99" s="1"/>
+      <c r="MDS99" s="1"/>
+      <c r="MDY99" s="1"/>
+      <c r="MEE99" s="1"/>
+      <c r="MEK99" s="1"/>
+      <c r="MEQ99" s="1"/>
+      <c r="MEW99" s="1"/>
+      <c r="MFC99" s="1"/>
+      <c r="MFI99" s="1"/>
+      <c r="MFO99" s="1"/>
+      <c r="MFU99" s="1"/>
+      <c r="MGA99" s="1"/>
+      <c r="MGG99" s="1"/>
+      <c r="MGM99" s="1"/>
+      <c r="MGS99" s="1"/>
+      <c r="MGY99" s="1"/>
+      <c r="MHE99" s="1"/>
+      <c r="MHK99" s="1"/>
+      <c r="MHQ99" s="1"/>
+      <c r="MHW99" s="1"/>
+      <c r="MIC99" s="1"/>
+      <c r="MII99" s="1"/>
+      <c r="MIO99" s="1"/>
+      <c r="MIU99" s="1"/>
+      <c r="MJA99" s="1"/>
+      <c r="MJG99" s="1"/>
+      <c r="MJM99" s="1"/>
+      <c r="MJS99" s="1"/>
+      <c r="MJY99" s="1"/>
+      <c r="MKE99" s="1"/>
+      <c r="MKK99" s="1"/>
+      <c r="MKQ99" s="1"/>
+      <c r="MKW99" s="1"/>
+      <c r="MLC99" s="1"/>
+      <c r="MLI99" s="1"/>
+      <c r="MLO99" s="1"/>
+      <c r="MLU99" s="1"/>
+      <c r="MMA99" s="1"/>
+      <c r="MMG99" s="1"/>
+      <c r="MMM99" s="1"/>
+      <c r="MMS99" s="1"/>
+      <c r="MMY99" s="1"/>
+      <c r="MNE99" s="1"/>
+      <c r="MNK99" s="1"/>
+      <c r="MNQ99" s="1"/>
+      <c r="MNW99" s="1"/>
+      <c r="MOC99" s="1"/>
+      <c r="MOI99" s="1"/>
+      <c r="MOO99" s="1"/>
+      <c r="MOU99" s="1"/>
+      <c r="MPA99" s="1"/>
+      <c r="MPG99" s="1"/>
+      <c r="MPM99" s="1"/>
+      <c r="MPS99" s="1"/>
+      <c r="MPY99" s="1"/>
+      <c r="MQE99" s="1"/>
+      <c r="MQK99" s="1"/>
+      <c r="MQQ99" s="1"/>
+      <c r="MQW99" s="1"/>
+      <c r="MRC99" s="1"/>
+      <c r="MRI99" s="1"/>
+      <c r="MRO99" s="1"/>
+      <c r="MRU99" s="1"/>
+      <c r="MSA99" s="1"/>
+      <c r="MSG99" s="1"/>
+      <c r="MSM99" s="1"/>
+      <c r="MSS99" s="1"/>
+      <c r="MSY99" s="1"/>
+      <c r="MTE99" s="1"/>
+      <c r="MTK99" s="1"/>
+      <c r="MTQ99" s="1"/>
+      <c r="MTW99" s="1"/>
+      <c r="MUC99" s="1"/>
+      <c r="MUI99" s="1"/>
+      <c r="MUO99" s="1"/>
+      <c r="MUU99" s="1"/>
+      <c r="MVA99" s="1"/>
+      <c r="MVG99" s="1"/>
+      <c r="MVM99" s="1"/>
+      <c r="MVS99" s="1"/>
+      <c r="MVY99" s="1"/>
+      <c r="MWE99" s="1"/>
+      <c r="MWK99" s="1"/>
+      <c r="MWQ99" s="1"/>
+      <c r="MWW99" s="1"/>
+      <c r="MXC99" s="1"/>
+      <c r="MXI99" s="1"/>
+      <c r="MXO99" s="1"/>
+      <c r="MXU99" s="1"/>
+      <c r="MYA99" s="1"/>
+      <c r="MYG99" s="1"/>
+      <c r="MYM99" s="1"/>
+      <c r="MYS99" s="1"/>
+      <c r="MYY99" s="1"/>
+      <c r="MZE99" s="1"/>
+      <c r="MZK99" s="1"/>
+      <c r="MZQ99" s="1"/>
+      <c r="MZW99" s="1"/>
+      <c r="NAC99" s="1"/>
+      <c r="NAI99" s="1"/>
+      <c r="NAO99" s="1"/>
+      <c r="NAU99" s="1"/>
+      <c r="NBA99" s="1"/>
+      <c r="NBG99" s="1"/>
+      <c r="NBM99" s="1"/>
+      <c r="NBS99" s="1"/>
+      <c r="NBY99" s="1"/>
+      <c r="NCE99" s="1"/>
+      <c r="NCK99" s="1"/>
+      <c r="NCQ99" s="1"/>
+      <c r="NCW99" s="1"/>
+      <c r="NDC99" s="1"/>
+      <c r="NDI99" s="1"/>
+      <c r="NDO99" s="1"/>
+      <c r="NDU99" s="1"/>
+      <c r="NEA99" s="1"/>
+      <c r="NEG99" s="1"/>
+      <c r="NEM99" s="1"/>
+      <c r="NES99" s="1"/>
+      <c r="NEY99" s="1"/>
+      <c r="NFE99" s="1"/>
+      <c r="NFK99" s="1"/>
+      <c r="NFQ99" s="1"/>
+      <c r="NFW99" s="1"/>
+      <c r="NGC99" s="1"/>
+      <c r="NGI99" s="1"/>
+      <c r="NGO99" s="1"/>
+      <c r="NGU99" s="1"/>
+      <c r="NHA99" s="1"/>
+      <c r="NHG99" s="1"/>
+      <c r="NHM99" s="1"/>
+      <c r="NHS99" s="1"/>
+      <c r="NHY99" s="1"/>
+      <c r="NIE99" s="1"/>
+      <c r="NIK99" s="1"/>
+      <c r="NIQ99" s="1"/>
+      <c r="NIW99" s="1"/>
+      <c r="NJC99" s="1"/>
+      <c r="NJI99" s="1"/>
+      <c r="NJO99" s="1"/>
+      <c r="NJU99" s="1"/>
+      <c r="NKA99" s="1"/>
+      <c r="NKG99" s="1"/>
+      <c r="NKM99" s="1"/>
+      <c r="NKS99" s="1"/>
+      <c r="NKY99" s="1"/>
+      <c r="NLE99" s="1"/>
+      <c r="NLK99" s="1"/>
+      <c r="NLQ99" s="1"/>
+      <c r="NLW99" s="1"/>
+      <c r="NMC99" s="1"/>
+      <c r="NMI99" s="1"/>
+      <c r="NMO99" s="1"/>
+      <c r="NMU99" s="1"/>
+      <c r="NNA99" s="1"/>
+      <c r="NNG99" s="1"/>
+      <c r="NNM99" s="1"/>
+      <c r="NNS99" s="1"/>
+      <c r="NNY99" s="1"/>
+      <c r="NOE99" s="1"/>
+      <c r="NOK99" s="1"/>
+      <c r="NOQ99" s="1"/>
+      <c r="NOW99" s="1"/>
+      <c r="NPC99" s="1"/>
+      <c r="NPI99" s="1"/>
+      <c r="NPO99" s="1"/>
+      <c r="NPU99" s="1"/>
+      <c r="NQA99" s="1"/>
+      <c r="NQG99" s="1"/>
+      <c r="NQM99" s="1"/>
+      <c r="NQS99" s="1"/>
+      <c r="NQY99" s="1"/>
+      <c r="NRE99" s="1"/>
+      <c r="NRK99" s="1"/>
+      <c r="NRQ99" s="1"/>
+      <c r="NRW99" s="1"/>
+      <c r="NSC99" s="1"/>
+      <c r="NSI99" s="1"/>
+      <c r="NSO99" s="1"/>
+      <c r="NSU99" s="1"/>
+      <c r="NTA99" s="1"/>
+      <c r="NTG99" s="1"/>
+      <c r="NTM99" s="1"/>
+      <c r="NTS99" s="1"/>
+      <c r="NTY99" s="1"/>
+      <c r="NUE99" s="1"/>
+      <c r="NUK99" s="1"/>
+      <c r="NUQ99" s="1"/>
+      <c r="NUW99" s="1"/>
+      <c r="NVC99" s="1"/>
+      <c r="NVI99" s="1"/>
+      <c r="NVO99" s="1"/>
+      <c r="NVU99" s="1"/>
+      <c r="NWA99" s="1"/>
+      <c r="NWG99" s="1"/>
+      <c r="NWM99" s="1"/>
+      <c r="NWS99" s="1"/>
+      <c r="NWY99" s="1"/>
+      <c r="NXE99" s="1"/>
+      <c r="NXK99" s="1"/>
+      <c r="NXQ99" s="1"/>
+      <c r="NXW99" s="1"/>
+      <c r="NYC99" s="1"/>
+      <c r="NYI99" s="1"/>
+      <c r="NYO99" s="1"/>
+      <c r="NYU99" s="1"/>
+      <c r="NZA99" s="1"/>
+      <c r="NZG99" s="1"/>
+      <c r="NZM99" s="1"/>
+      <c r="NZS99" s="1"/>
+      <c r="NZY99" s="1"/>
+      <c r="OAE99" s="1"/>
+      <c r="OAK99" s="1"/>
+      <c r="OAQ99" s="1"/>
+      <c r="OAW99" s="1"/>
+      <c r="OBC99" s="1"/>
+      <c r="OBI99" s="1"/>
+      <c r="OBO99" s="1"/>
+      <c r="OBU99" s="1"/>
+      <c r="OCA99" s="1"/>
+      <c r="OCG99" s="1"/>
+      <c r="OCM99" s="1"/>
+      <c r="OCS99" s="1"/>
+      <c r="OCY99" s="1"/>
+      <c r="ODE99" s="1"/>
+      <c r="ODK99" s="1"/>
+      <c r="ODQ99" s="1"/>
+      <c r="ODW99" s="1"/>
+      <c r="OEC99" s="1"/>
+      <c r="OEI99" s="1"/>
+      <c r="OEO99" s="1"/>
+      <c r="OEU99" s="1"/>
+      <c r="OFA99" s="1"/>
+      <c r="OFG99" s="1"/>
+      <c r="OFM99" s="1"/>
+      <c r="OFS99" s="1"/>
+      <c r="OFY99" s="1"/>
+      <c r="OGE99" s="1"/>
+      <c r="OGK99" s="1"/>
+      <c r="OGQ99" s="1"/>
+      <c r="OGW99" s="1"/>
+      <c r="OHC99" s="1"/>
+      <c r="OHI99" s="1"/>
+      <c r="OHO99" s="1"/>
+      <c r="OHU99" s="1"/>
+      <c r="OIA99" s="1"/>
+      <c r="OIG99" s="1"/>
+      <c r="OIM99" s="1"/>
+      <c r="OIS99" s="1"/>
+      <c r="OIY99" s="1"/>
+      <c r="OJE99" s="1"/>
+      <c r="OJK99" s="1"/>
+      <c r="OJQ99" s="1"/>
+      <c r="OJW99" s="1"/>
+      <c r="OKC99" s="1"/>
+      <c r="OKI99" s="1"/>
+      <c r="OKO99" s="1"/>
+      <c r="OKU99" s="1"/>
+      <c r="OLA99" s="1"/>
+      <c r="OLG99" s="1"/>
+      <c r="OLM99" s="1"/>
+      <c r="OLS99" s="1"/>
+      <c r="OLY99" s="1"/>
+      <c r="OME99" s="1"/>
+      <c r="OMK99" s="1"/>
+      <c r="OMQ99" s="1"/>
+      <c r="OMW99" s="1"/>
+      <c r="ONC99" s="1"/>
+      <c r="ONI99" s="1"/>
+      <c r="ONO99" s="1"/>
+      <c r="ONU99" s="1"/>
+      <c r="OOA99" s="1"/>
+      <c r="OOG99" s="1"/>
+      <c r="OOM99" s="1"/>
+      <c r="OOS99" s="1"/>
+      <c r="OOY99" s="1"/>
+      <c r="OPE99" s="1"/>
+      <c r="OPK99" s="1"/>
+      <c r="OPQ99" s="1"/>
+      <c r="OPW99" s="1"/>
+      <c r="OQC99" s="1"/>
+      <c r="OQI99" s="1"/>
+      <c r="OQO99" s="1"/>
+      <c r="OQU99" s="1"/>
+      <c r="ORA99" s="1"/>
+      <c r="ORG99" s="1"/>
+      <c r="ORM99" s="1"/>
+      <c r="ORS99" s="1"/>
+      <c r="ORY99" s="1"/>
+      <c r="OSE99" s="1"/>
+      <c r="OSK99" s="1"/>
+      <c r="OSQ99" s="1"/>
+      <c r="OSW99" s="1"/>
+      <c r="OTC99" s="1"/>
+      <c r="OTI99" s="1"/>
+      <c r="OTO99" s="1"/>
+      <c r="OTU99" s="1"/>
+      <c r="OUA99" s="1"/>
+      <c r="OUG99" s="1"/>
+      <c r="OUM99" s="1"/>
+      <c r="OUS99" s="1"/>
+      <c r="OUY99" s="1"/>
+      <c r="OVE99" s="1"/>
+      <c r="OVK99" s="1"/>
+      <c r="OVQ99" s="1"/>
+      <c r="OVW99" s="1"/>
+      <c r="OWC99" s="1"/>
+      <c r="OWI99" s="1"/>
+      <c r="OWO99" s="1"/>
+      <c r="OWU99" s="1"/>
+      <c r="OXA99" s="1"/>
+      <c r="OXG99" s="1"/>
+      <c r="OXM99" s="1"/>
+      <c r="OXS99" s="1"/>
+      <c r="OXY99" s="1"/>
+      <c r="OYE99" s="1"/>
+      <c r="OYK99" s="1"/>
+      <c r="OYQ99" s="1"/>
+      <c r="OYW99" s="1"/>
+      <c r="OZC99" s="1"/>
+      <c r="OZI99" s="1"/>
+      <c r="OZO99" s="1"/>
+      <c r="OZU99" s="1"/>
+      <c r="PAA99" s="1"/>
+      <c r="PAG99" s="1"/>
+      <c r="PAM99" s="1"/>
+      <c r="PAS99" s="1"/>
+      <c r="PAY99" s="1"/>
+      <c r="PBE99" s="1"/>
+      <c r="PBK99" s="1"/>
+      <c r="PBQ99" s="1"/>
+      <c r="PBW99" s="1"/>
+      <c r="PCC99" s="1"/>
+      <c r="PCI99" s="1"/>
+      <c r="PCO99" s="1"/>
+      <c r="PCU99" s="1"/>
+      <c r="PDA99" s="1"/>
+      <c r="PDG99" s="1"/>
+      <c r="PDM99" s="1"/>
+      <c r="PDS99" s="1"/>
+      <c r="PDY99" s="1"/>
+      <c r="PEE99" s="1"/>
+      <c r="PEK99" s="1"/>
+      <c r="PEQ99" s="1"/>
+      <c r="PEW99" s="1"/>
+      <c r="PFC99" s="1"/>
+      <c r="PFI99" s="1"/>
+      <c r="PFO99" s="1"/>
+      <c r="PFU99" s="1"/>
+      <c r="PGA99" s="1"/>
+      <c r="PGG99" s="1"/>
+      <c r="PGM99" s="1"/>
+      <c r="PGS99" s="1"/>
+      <c r="PGY99" s="1"/>
+      <c r="PHE99" s="1"/>
+      <c r="PHK99" s="1"/>
+      <c r="PHQ99" s="1"/>
+      <c r="PHW99" s="1"/>
+      <c r="PIC99" s="1"/>
+      <c r="PII99" s="1"/>
+      <c r="PIO99" s="1"/>
+      <c r="PIU99" s="1"/>
+      <c r="PJA99" s="1"/>
+      <c r="PJG99" s="1"/>
+      <c r="PJM99" s="1"/>
+      <c r="PJS99" s="1"/>
+      <c r="PJY99" s="1"/>
+      <c r="PKE99" s="1"/>
+      <c r="PKK99" s="1"/>
+      <c r="PKQ99" s="1"/>
+      <c r="PKW99" s="1"/>
+      <c r="PLC99" s="1"/>
+      <c r="PLI99" s="1"/>
+      <c r="PLO99" s="1"/>
+      <c r="PLU99" s="1"/>
+      <c r="PMA99" s="1"/>
+      <c r="PMG99" s="1"/>
+      <c r="PMM99" s="1"/>
+      <c r="PMS99" s="1"/>
+      <c r="PMY99" s="1"/>
+      <c r="PNE99" s="1"/>
+      <c r="PNK99" s="1"/>
+      <c r="PNQ99" s="1"/>
+      <c r="PNW99" s="1"/>
+      <c r="POC99" s="1"/>
+      <c r="POI99" s="1"/>
+      <c r="POO99" s="1"/>
+      <c r="POU99" s="1"/>
+      <c r="PPA99" s="1"/>
+      <c r="PPG99" s="1"/>
+      <c r="PPM99" s="1"/>
+      <c r="PPS99" s="1"/>
+      <c r="PPY99" s="1"/>
+      <c r="PQE99" s="1"/>
+      <c r="PQK99" s="1"/>
+      <c r="PQQ99" s="1"/>
+      <c r="PQW99" s="1"/>
+      <c r="PRC99" s="1"/>
+      <c r="PRI99" s="1"/>
+      <c r="PRO99" s="1"/>
+      <c r="PRU99" s="1"/>
+      <c r="PSA99" s="1"/>
+      <c r="PSG99" s="1"/>
+      <c r="PSM99" s="1"/>
+      <c r="PSS99" s="1"/>
+      <c r="PSY99" s="1"/>
+      <c r="PTE99" s="1"/>
+      <c r="PTK99" s="1"/>
+      <c r="PTQ99" s="1"/>
+      <c r="PTW99" s="1"/>
+      <c r="PUC99" s="1"/>
+      <c r="PUI99" s="1"/>
+      <c r="PUO99" s="1"/>
+      <c r="PUU99" s="1"/>
+      <c r="PVA99" s="1"/>
+      <c r="PVG99" s="1"/>
+      <c r="PVM99" s="1"/>
+      <c r="PVS99" s="1"/>
+      <c r="PVY99" s="1"/>
+      <c r="PWE99" s="1"/>
+      <c r="PWK99" s="1"/>
+      <c r="PWQ99" s="1"/>
+      <c r="PWW99" s="1"/>
+      <c r="PXC99" s="1"/>
+      <c r="PXI99" s="1"/>
+      <c r="PXO99" s="1"/>
+      <c r="PXU99" s="1"/>
+      <c r="PYA99" s="1"/>
+      <c r="PYG99" s="1"/>
+      <c r="PYM99" s="1"/>
+      <c r="PYS99" s="1"/>
+      <c r="PYY99" s="1"/>
+      <c r="PZE99" s="1"/>
+      <c r="PZK99" s="1"/>
+      <c r="PZQ99" s="1"/>
+      <c r="PZW99" s="1"/>
+      <c r="QAC99" s="1"/>
+      <c r="QAI99" s="1"/>
+      <c r="QAO99" s="1"/>
+      <c r="QAU99" s="1"/>
+      <c r="QBA99" s="1"/>
+      <c r="QBG99" s="1"/>
+      <c r="QBM99" s="1"/>
+      <c r="QBS99" s="1"/>
+      <c r="QBY99" s="1"/>
+      <c r="QCE99" s="1"/>
+      <c r="QCK99" s="1"/>
+      <c r="QCQ99" s="1"/>
+      <c r="QCW99" s="1"/>
+      <c r="QDC99" s="1"/>
+      <c r="QDI99" s="1"/>
+      <c r="QDO99" s="1"/>
+      <c r="QDU99" s="1"/>
+      <c r="QEA99" s="1"/>
+      <c r="QEG99" s="1"/>
+      <c r="QEM99" s="1"/>
+      <c r="QES99" s="1"/>
+      <c r="QEY99" s="1"/>
+      <c r="QFE99" s="1"/>
+      <c r="QFK99" s="1"/>
+      <c r="QFQ99" s="1"/>
+      <c r="QFW99" s="1"/>
+      <c r="QGC99" s="1"/>
+      <c r="QGI99" s="1"/>
+      <c r="QGO99" s="1"/>
+      <c r="QGU99" s="1"/>
+      <c r="QHA99" s="1"/>
+      <c r="QHG99" s="1"/>
+      <c r="QHM99" s="1"/>
+      <c r="QHS99" s="1"/>
+      <c r="QHY99" s="1"/>
+      <c r="QIE99" s="1"/>
+      <c r="QIK99" s="1"/>
+      <c r="QIQ99" s="1"/>
+      <c r="QIW99" s="1"/>
+      <c r="QJC99" s="1"/>
+      <c r="QJI99" s="1"/>
+      <c r="QJO99" s="1"/>
+      <c r="QJU99" s="1"/>
+      <c r="QKA99" s="1"/>
+      <c r="QKG99" s="1"/>
+      <c r="QKM99" s="1"/>
+      <c r="QKS99" s="1"/>
+      <c r="QKY99" s="1"/>
+      <c r="QLE99" s="1"/>
+      <c r="QLK99" s="1"/>
+      <c r="QLQ99" s="1"/>
+      <c r="QLW99" s="1"/>
+      <c r="QMC99" s="1"/>
+      <c r="QMI99" s="1"/>
+      <c r="QMO99" s="1"/>
+      <c r="QMU99" s="1"/>
+      <c r="QNA99" s="1"/>
+      <c r="QNG99" s="1"/>
+      <c r="QNM99" s="1"/>
+      <c r="QNS99" s="1"/>
+      <c r="QNY99" s="1"/>
+      <c r="QOE99" s="1"/>
+      <c r="QOK99" s="1"/>
+      <c r="QOQ99" s="1"/>
+      <c r="QOW99" s="1"/>
+      <c r="QPC99" s="1"/>
+      <c r="QPI99" s="1"/>
+      <c r="QPO99" s="1"/>
+      <c r="QPU99" s="1"/>
+      <c r="QQA99" s="1"/>
+      <c r="QQG99" s="1"/>
+      <c r="QQM99" s="1"/>
+      <c r="QQS99" s="1"/>
+      <c r="QQY99" s="1"/>
+      <c r="QRE99" s="1"/>
+      <c r="QRK99" s="1"/>
+      <c r="QRQ99" s="1"/>
+      <c r="QRW99" s="1"/>
+      <c r="QSC99" s="1"/>
+      <c r="QSI99" s="1"/>
+      <c r="QSO99" s="1"/>
+      <c r="QSU99" s="1"/>
+      <c r="QTA99" s="1"/>
+      <c r="QTG99" s="1"/>
+      <c r="QTM99" s="1"/>
+      <c r="QTS99" s="1"/>
+      <c r="QTY99" s="1"/>
+      <c r="QUE99" s="1"/>
+      <c r="QUK99" s="1"/>
+      <c r="QUQ99" s="1"/>
+      <c r="QUW99" s="1"/>
+      <c r="QVC99" s="1"/>
+      <c r="QVI99" s="1"/>
+      <c r="QVO99" s="1"/>
+      <c r="QVU99" s="1"/>
+      <c r="QWA99" s="1"/>
+      <c r="QWG99" s="1"/>
+      <c r="QWM99" s="1"/>
+      <c r="QWS99" s="1"/>
+      <c r="QWY99" s="1"/>
+      <c r="QXE99" s="1"/>
+      <c r="QXK99" s="1"/>
+      <c r="QXQ99" s="1"/>
+      <c r="QXW99" s="1"/>
+      <c r="QYC99" s="1"/>
+      <c r="QYI99" s="1"/>
+      <c r="QYO99" s="1"/>
+      <c r="QYU99" s="1"/>
+      <c r="QZA99" s="1"/>
+      <c r="QZG99" s="1"/>
+      <c r="QZM99" s="1"/>
+      <c r="QZS99" s="1"/>
+      <c r="QZY99" s="1"/>
+      <c r="RAE99" s="1"/>
+      <c r="RAK99" s="1"/>
+      <c r="RAQ99" s="1"/>
+      <c r="RAW99" s="1"/>
+      <c r="RBC99" s="1"/>
+      <c r="RBI99" s="1"/>
+      <c r="RBO99" s="1"/>
+      <c r="RBU99" s="1"/>
+      <c r="RCA99" s="1"/>
+      <c r="RCG99" s="1"/>
+      <c r="RCM99" s="1"/>
+      <c r="RCS99" s="1"/>
+      <c r="RCY99" s="1"/>
+      <c r="RDE99" s="1"/>
+      <c r="RDK99" s="1"/>
+      <c r="RDQ99" s="1"/>
+      <c r="RDW99" s="1"/>
+      <c r="REC99" s="1"/>
+      <c r="REI99" s="1"/>
+      <c r="REO99" s="1"/>
+      <c r="REU99" s="1"/>
+      <c r="RFA99" s="1"/>
+      <c r="RFG99" s="1"/>
+      <c r="RFM99" s="1"/>
+      <c r="RFS99" s="1"/>
+      <c r="RFY99" s="1"/>
+      <c r="RGE99" s="1"/>
+      <c r="RGK99" s="1"/>
+      <c r="RGQ99" s="1"/>
+      <c r="RGW99" s="1"/>
+      <c r="RHC99" s="1"/>
+      <c r="RHI99" s="1"/>
+      <c r="RHO99" s="1"/>
+      <c r="RHU99" s="1"/>
+      <c r="RIA99" s="1"/>
+      <c r="RIG99" s="1"/>
+      <c r="RIM99" s="1"/>
+      <c r="RIS99" s="1"/>
+      <c r="RIY99" s="1"/>
+      <c r="RJE99" s="1"/>
+      <c r="RJK99" s="1"/>
+      <c r="RJQ99" s="1"/>
+      <c r="RJW99" s="1"/>
+      <c r="RKC99" s="1"/>
+      <c r="RKI99" s="1"/>
+      <c r="RKO99" s="1"/>
+      <c r="RKU99" s="1"/>
+      <c r="RLA99" s="1"/>
+      <c r="RLG99" s="1"/>
+      <c r="RLM99" s="1"/>
+      <c r="RLS99" s="1"/>
+      <c r="RLY99" s="1"/>
+      <c r="RME99" s="1"/>
+      <c r="RMK99" s="1"/>
+      <c r="RMQ99" s="1"/>
+      <c r="RMW99" s="1"/>
+      <c r="RNC99" s="1"/>
+      <c r="RNI99" s="1"/>
+      <c r="RNO99" s="1"/>
+      <c r="RNU99" s="1"/>
+      <c r="ROA99" s="1"/>
+      <c r="ROG99" s="1"/>
+      <c r="ROM99" s="1"/>
+      <c r="ROS99" s="1"/>
+      <c r="ROY99" s="1"/>
+      <c r="RPE99" s="1"/>
+      <c r="RPK99" s="1"/>
+      <c r="RPQ99" s="1"/>
+      <c r="RPW99" s="1"/>
+      <c r="RQC99" s="1"/>
+      <c r="RQI99" s="1"/>
+      <c r="RQO99" s="1"/>
+      <c r="RQU99" s="1"/>
+      <c r="RRA99" s="1"/>
+      <c r="RRG99" s="1"/>
+      <c r="RRM99" s="1"/>
+      <c r="RRS99" s="1"/>
+      <c r="RRY99" s="1"/>
+      <c r="RSE99" s="1"/>
+      <c r="RSK99" s="1"/>
+      <c r="RSQ99" s="1"/>
+      <c r="RSW99" s="1"/>
+      <c r="RTC99" s="1"/>
+      <c r="RTI99" s="1"/>
+      <c r="RTO99" s="1"/>
+      <c r="RTU99" s="1"/>
+      <c r="RUA99" s="1"/>
+      <c r="RUG99" s="1"/>
+      <c r="RUM99" s="1"/>
+      <c r="RUS99" s="1"/>
+      <c r="RUY99" s="1"/>
+      <c r="RVE99" s="1"/>
+      <c r="RVK99" s="1"/>
+      <c r="RVQ99" s="1"/>
+      <c r="RVW99" s="1"/>
+      <c r="RWC99" s="1"/>
+      <c r="RWI99" s="1"/>
+      <c r="RWO99" s="1"/>
+      <c r="RWU99" s="1"/>
+      <c r="RXA99" s="1"/>
+      <c r="RXG99" s="1"/>
+      <c r="RXM99" s="1"/>
+      <c r="RXS99" s="1"/>
+      <c r="RXY99" s="1"/>
+      <c r="RYE99" s="1"/>
+      <c r="RYK99" s="1"/>
+      <c r="RYQ99" s="1"/>
+      <c r="RYW99" s="1"/>
+      <c r="RZC99" s="1"/>
+      <c r="RZI99" s="1"/>
+      <c r="RZO99" s="1"/>
+      <c r="RZU99" s="1"/>
+      <c r="SAA99" s="1"/>
+      <c r="SAG99" s="1"/>
+      <c r="SAM99" s="1"/>
+      <c r="SAS99" s="1"/>
+      <c r="SAY99" s="1"/>
+      <c r="SBE99" s="1"/>
+      <c r="SBK99" s="1"/>
+      <c r="SBQ99" s="1"/>
+      <c r="SBW99" s="1"/>
+      <c r="SCC99" s="1"/>
+      <c r="SCI99" s="1"/>
+      <c r="SCO99" s="1"/>
+      <c r="SCU99" s="1"/>
+      <c r="SDA99" s="1"/>
+      <c r="SDG99" s="1"/>
+      <c r="SDM99" s="1"/>
+      <c r="SDS99" s="1"/>
+      <c r="SDY99" s="1"/>
+      <c r="SEE99" s="1"/>
+      <c r="SEK99" s="1"/>
+      <c r="SEQ99" s="1"/>
+      <c r="SEW99" s="1"/>
+      <c r="SFC99" s="1"/>
+      <c r="SFI99" s="1"/>
+      <c r="SFO99" s="1"/>
+      <c r="SFU99" s="1"/>
+      <c r="SGA99" s="1"/>
+      <c r="SGG99" s="1"/>
+      <c r="SGM99" s="1"/>
+      <c r="SGS99" s="1"/>
+      <c r="SGY99" s="1"/>
+      <c r="SHE99" s="1"/>
+      <c r="SHK99" s="1"/>
+      <c r="SHQ99" s="1"/>
+      <c r="SHW99" s="1"/>
+      <c r="SIC99" s="1"/>
+      <c r="SII99" s="1"/>
+      <c r="SIO99" s="1"/>
+      <c r="SIU99" s="1"/>
+      <c r="SJA99" s="1"/>
+      <c r="SJG99" s="1"/>
+      <c r="SJM99" s="1"/>
+      <c r="SJS99" s="1"/>
+      <c r="SJY99" s="1"/>
+      <c r="SKE99" s="1"/>
+      <c r="SKK99" s="1"/>
+      <c r="SKQ99" s="1"/>
+      <c r="SKW99" s="1"/>
+      <c r="SLC99" s="1"/>
+      <c r="SLI99" s="1"/>
+      <c r="SLO99" s="1"/>
+      <c r="SLU99" s="1"/>
+      <c r="SMA99" s="1"/>
+      <c r="SMG99" s="1"/>
+      <c r="SMM99" s="1"/>
+      <c r="SMS99" s="1"/>
+      <c r="SMY99" s="1"/>
+      <c r="SNE99" s="1"/>
+      <c r="SNK99" s="1"/>
+      <c r="SNQ99" s="1"/>
+      <c r="SNW99" s="1"/>
+      <c r="SOC99" s="1"/>
+      <c r="SOI99" s="1"/>
+      <c r="SOO99" s="1"/>
+      <c r="SOU99" s="1"/>
+      <c r="SPA99" s="1"/>
+      <c r="SPG99" s="1"/>
+      <c r="SPM99" s="1"/>
+      <c r="SPS99" s="1"/>
+      <c r="SPY99" s="1"/>
+      <c r="SQE99" s="1"/>
+      <c r="SQK99" s="1"/>
+      <c r="SQQ99" s="1"/>
+      <c r="SQW99" s="1"/>
+      <c r="SRC99" s="1"/>
+      <c r="SRI99" s="1"/>
+      <c r="SRO99" s="1"/>
+      <c r="SRU99" s="1"/>
+      <c r="SSA99" s="1"/>
+      <c r="SSG99" s="1"/>
+      <c r="SSM99" s="1"/>
+      <c r="SSS99" s="1"/>
+      <c r="SSY99" s="1"/>
+      <c r="STE99" s="1"/>
+      <c r="STK99" s="1"/>
+      <c r="STQ99" s="1"/>
+      <c r="STW99" s="1"/>
+      <c r="SUC99" s="1"/>
+      <c r="SUI99" s="1"/>
+      <c r="SUO99" s="1"/>
+      <c r="SUU99" s="1"/>
+      <c r="SVA99" s="1"/>
+      <c r="SVG99" s="1"/>
+      <c r="SVM99" s="1"/>
+      <c r="SVS99" s="1"/>
+      <c r="SVY99" s="1"/>
+      <c r="SWE99" s="1"/>
+      <c r="SWK99" s="1"/>
+      <c r="SWQ99" s="1"/>
+      <c r="SWW99" s="1"/>
+      <c r="SXC99" s="1"/>
+      <c r="SXI99" s="1"/>
+      <c r="SXO99" s="1"/>
+      <c r="SXU99" s="1"/>
+      <c r="SYA99" s="1"/>
+      <c r="SYG99" s="1"/>
+      <c r="SYM99" s="1"/>
+      <c r="SYS99" s="1"/>
+      <c r="SYY99" s="1"/>
+      <c r="SZE99" s="1"/>
+      <c r="SZK99" s="1"/>
+      <c r="SZQ99" s="1"/>
+      <c r="SZW99" s="1"/>
+      <c r="TAC99" s="1"/>
+      <c r="TAI99" s="1"/>
+      <c r="TAO99" s="1"/>
+      <c r="TAU99" s="1"/>
+      <c r="TBA99" s="1"/>
+      <c r="TBG99" s="1"/>
+      <c r="TBM99" s="1"/>
+      <c r="TBS99" s="1"/>
+      <c r="TBY99" s="1"/>
+      <c r="TCE99" s="1"/>
+      <c r="TCK99" s="1"/>
+      <c r="TCQ99" s="1"/>
+      <c r="TCW99" s="1"/>
+      <c r="TDC99" s="1"/>
+      <c r="TDI99" s="1"/>
+      <c r="TDO99" s="1"/>
+      <c r="TDU99" s="1"/>
+      <c r="TEA99" s="1"/>
+      <c r="TEG99" s="1"/>
+      <c r="TEM99" s="1"/>
+      <c r="TES99" s="1"/>
+      <c r="TEY99" s="1"/>
+      <c r="TFE99" s="1"/>
+      <c r="TFK99" s="1"/>
+      <c r="TFQ99" s="1"/>
+      <c r="TFW99" s="1"/>
+      <c r="TGC99" s="1"/>
+      <c r="TGI99" s="1"/>
+      <c r="TGO99" s="1"/>
+      <c r="TGU99" s="1"/>
+      <c r="THA99" s="1"/>
+      <c r="THG99" s="1"/>
+      <c r="THM99" s="1"/>
+      <c r="THS99" s="1"/>
+      <c r="THY99" s="1"/>
+      <c r="TIE99" s="1"/>
+      <c r="TIK99" s="1"/>
+      <c r="TIQ99" s="1"/>
+      <c r="TIW99" s="1"/>
+      <c r="TJC99" s="1"/>
+      <c r="TJI99" s="1"/>
+      <c r="TJO99" s="1"/>
+      <c r="TJU99" s="1"/>
+      <c r="TKA99" s="1"/>
+      <c r="TKG99" s="1"/>
+      <c r="TKM99" s="1"/>
+      <c r="TKS99" s="1"/>
+      <c r="TKY99" s="1"/>
+      <c r="TLE99" s="1"/>
+      <c r="TLK99" s="1"/>
+      <c r="TLQ99" s="1"/>
+      <c r="TLW99" s="1"/>
+      <c r="TMC99" s="1"/>
+      <c r="TMI99" s="1"/>
+      <c r="TMO99" s="1"/>
+      <c r="TMU99" s="1"/>
+      <c r="TNA99" s="1"/>
+      <c r="TNG99" s="1"/>
+      <c r="TNM99" s="1"/>
+      <c r="TNS99" s="1"/>
+      <c r="TNY99" s="1"/>
+      <c r="TOE99" s="1"/>
+      <c r="TOK99" s="1"/>
+      <c r="TOQ99" s="1"/>
+      <c r="TOW99" s="1"/>
+      <c r="TPC99" s="1"/>
+      <c r="TPI99" s="1"/>
+      <c r="TPO99" s="1"/>
+      <c r="TPU99" s="1"/>
+      <c r="TQA99" s="1"/>
+      <c r="TQG99" s="1"/>
+      <c r="TQM99" s="1"/>
+      <c r="TQS99" s="1"/>
+      <c r="TQY99" s="1"/>
+      <c r="TRE99" s="1"/>
+      <c r="TRK99" s="1"/>
+      <c r="TRQ99" s="1"/>
+      <c r="TRW99" s="1"/>
+      <c r="TSC99" s="1"/>
+      <c r="TSI99" s="1"/>
+      <c r="TSO99" s="1"/>
+      <c r="TSU99" s="1"/>
+      <c r="TTA99" s="1"/>
+      <c r="TTG99" s="1"/>
+      <c r="TTM99" s="1"/>
+      <c r="TTS99" s="1"/>
+      <c r="TTY99" s="1"/>
+      <c r="TUE99" s="1"/>
+      <c r="TUK99" s="1"/>
+      <c r="TUQ99" s="1"/>
+      <c r="TUW99" s="1"/>
+      <c r="TVC99" s="1"/>
+      <c r="TVI99" s="1"/>
+      <c r="TVO99" s="1"/>
+      <c r="TVU99" s="1"/>
+      <c r="TWA99" s="1"/>
+      <c r="TWG99" s="1"/>
+      <c r="TWM99" s="1"/>
+      <c r="TWS99" s="1"/>
+      <c r="TWY99" s="1"/>
+      <c r="TXE99" s="1"/>
+      <c r="TXK99" s="1"/>
+      <c r="TXQ99" s="1"/>
+      <c r="TXW99" s="1"/>
+      <c r="TYC99" s="1"/>
+      <c r="TYI99" s="1"/>
+      <c r="TYO99" s="1"/>
+      <c r="TYU99" s="1"/>
+      <c r="TZA99" s="1"/>
+      <c r="TZG99" s="1"/>
+      <c r="TZM99" s="1"/>
+      <c r="TZS99" s="1"/>
+      <c r="TZY99" s="1"/>
+      <c r="UAE99" s="1"/>
+      <c r="UAK99" s="1"/>
+      <c r="UAQ99" s="1"/>
+      <c r="UAW99" s="1"/>
+      <c r="UBC99" s="1"/>
+      <c r="UBI99" s="1"/>
+      <c r="UBO99" s="1"/>
+      <c r="UBU99" s="1"/>
+      <c r="UCA99" s="1"/>
+      <c r="UCG99" s="1"/>
+      <c r="UCM99" s="1"/>
+      <c r="UCS99" s="1"/>
+      <c r="UCY99" s="1"/>
+      <c r="UDE99" s="1"/>
+      <c r="UDK99" s="1"/>
+      <c r="UDQ99" s="1"/>
+      <c r="UDW99" s="1"/>
+      <c r="UEC99" s="1"/>
+      <c r="UEI99" s="1"/>
+      <c r="UEO99" s="1"/>
+      <c r="UEU99" s="1"/>
+      <c r="UFA99" s="1"/>
+      <c r="UFG99" s="1"/>
+      <c r="UFM99" s="1"/>
+      <c r="UFS99" s="1"/>
+      <c r="UFY99" s="1"/>
+      <c r="UGE99" s="1"/>
+      <c r="UGK99" s="1"/>
+      <c r="UGQ99" s="1"/>
+      <c r="UGW99" s="1"/>
+      <c r="UHC99" s="1"/>
+      <c r="UHI99" s="1"/>
+      <c r="UHO99" s="1"/>
+      <c r="UHU99" s="1"/>
+      <c r="UIA99" s="1"/>
+      <c r="UIG99" s="1"/>
+      <c r="UIM99" s="1"/>
+      <c r="UIS99" s="1"/>
+      <c r="UIY99" s="1"/>
+      <c r="UJE99" s="1"/>
+      <c r="UJK99" s="1"/>
+      <c r="UJQ99" s="1"/>
+      <c r="UJW99" s="1"/>
+      <c r="UKC99" s="1"/>
+      <c r="UKI99" s="1"/>
+      <c r="UKO99" s="1"/>
+      <c r="UKU99" s="1"/>
+      <c r="ULA99" s="1"/>
+      <c r="ULG99" s="1"/>
+      <c r="ULM99" s="1"/>
+      <c r="ULS99" s="1"/>
+      <c r="ULY99" s="1"/>
+      <c r="UME99" s="1"/>
+      <c r="UMK99" s="1"/>
+      <c r="UMQ99" s="1"/>
+      <c r="UMW99" s="1"/>
+      <c r="UNC99" s="1"/>
+      <c r="UNI99" s="1"/>
+      <c r="UNO99" s="1"/>
+      <c r="UNU99" s="1"/>
+      <c r="UOA99" s="1"/>
+      <c r="UOG99" s="1"/>
+      <c r="UOM99" s="1"/>
+      <c r="UOS99" s="1"/>
+      <c r="UOY99" s="1"/>
+      <c r="UPE99" s="1"/>
+      <c r="UPK99" s="1"/>
+      <c r="UPQ99" s="1"/>
+      <c r="UPW99" s="1"/>
+      <c r="UQC99" s="1"/>
+      <c r="UQI99" s="1"/>
+      <c r="UQO99" s="1"/>
+      <c r="UQU99" s="1"/>
+      <c r="URA99" s="1"/>
+      <c r="URG99" s="1"/>
+      <c r="URM99" s="1"/>
+      <c r="URS99" s="1"/>
+      <c r="URY99" s="1"/>
+      <c r="USE99" s="1"/>
+      <c r="USK99" s="1"/>
+      <c r="USQ99" s="1"/>
+      <c r="USW99" s="1"/>
+      <c r="UTC99" s="1"/>
+      <c r="UTI99" s="1"/>
+      <c r="UTO99" s="1"/>
+      <c r="UTU99" s="1"/>
+      <c r="UUA99" s="1"/>
+      <c r="UUG99" s="1"/>
+      <c r="UUM99" s="1"/>
+      <c r="UUS99" s="1"/>
+      <c r="UUY99" s="1"/>
+      <c r="UVE99" s="1"/>
+      <c r="UVK99" s="1"/>
+      <c r="UVQ99" s="1"/>
+      <c r="UVW99" s="1"/>
+      <c r="UWC99" s="1"/>
+      <c r="UWI99" s="1"/>
+      <c r="UWO99" s="1"/>
+      <c r="UWU99" s="1"/>
+      <c r="UXA99" s="1"/>
+      <c r="UXG99" s="1"/>
+      <c r="UXM99" s="1"/>
+      <c r="UXS99" s="1"/>
+      <c r="UXY99" s="1"/>
+      <c r="UYE99" s="1"/>
+      <c r="UYK99" s="1"/>
+      <c r="UYQ99" s="1"/>
+      <c r="UYW99" s="1"/>
+      <c r="UZC99" s="1"/>
+      <c r="UZI99" s="1"/>
+      <c r="UZO99" s="1"/>
+      <c r="UZU99" s="1"/>
+      <c r="VAA99" s="1"/>
+      <c r="VAG99" s="1"/>
+      <c r="VAM99" s="1"/>
+      <c r="VAS99" s="1"/>
+      <c r="VAY99" s="1"/>
+      <c r="VBE99" s="1"/>
+      <c r="VBK99" s="1"/>
+      <c r="VBQ99" s="1"/>
+      <c r="VBW99" s="1"/>
+      <c r="VCC99" s="1"/>
+      <c r="VCI99" s="1"/>
+      <c r="VCO99" s="1"/>
+      <c r="VCU99" s="1"/>
+      <c r="VDA99" s="1"/>
+      <c r="VDG99" s="1"/>
+      <c r="VDM99" s="1"/>
+      <c r="VDS99" s="1"/>
+      <c r="VDY99" s="1"/>
+      <c r="VEE99" s="1"/>
+      <c r="VEK99" s="1"/>
+      <c r="VEQ99" s="1"/>
+      <c r="VEW99" s="1"/>
+      <c r="VFC99" s="1"/>
+      <c r="VFI99" s="1"/>
+      <c r="VFO99" s="1"/>
+      <c r="VFU99" s="1"/>
+      <c r="VGA99" s="1"/>
+      <c r="VGG99" s="1"/>
+      <c r="VGM99" s="1"/>
+      <c r="VGS99" s="1"/>
+      <c r="VGY99" s="1"/>
+      <c r="VHE99" s="1"/>
+      <c r="VHK99" s="1"/>
+      <c r="VHQ99" s="1"/>
+      <c r="VHW99" s="1"/>
+      <c r="VIC99" s="1"/>
+      <c r="VII99" s="1"/>
+      <c r="VIO99" s="1"/>
+      <c r="VIU99" s="1"/>
+      <c r="VJA99" s="1"/>
+      <c r="VJG99" s="1"/>
+      <c r="VJM99" s="1"/>
+      <c r="VJS99" s="1"/>
+      <c r="VJY99" s="1"/>
+      <c r="VKE99" s="1"/>
+      <c r="VKK99" s="1"/>
+      <c r="VKQ99" s="1"/>
+      <c r="VKW99" s="1"/>
+      <c r="VLC99" s="1"/>
+      <c r="VLI99" s="1"/>
+      <c r="VLO99" s="1"/>
+      <c r="VLU99" s="1"/>
+      <c r="VMA99" s="1"/>
+      <c r="VMG99" s="1"/>
+      <c r="VMM99" s="1"/>
+      <c r="VMS99" s="1"/>
+      <c r="VMY99" s="1"/>
+      <c r="VNE99" s="1"/>
+      <c r="VNK99" s="1"/>
+      <c r="VNQ99" s="1"/>
+      <c r="VNW99" s="1"/>
+      <c r="VOC99" s="1"/>
+      <c r="VOI99" s="1"/>
+      <c r="VOO99" s="1"/>
+      <c r="VOU99" s="1"/>
+      <c r="VPA99" s="1"/>
+      <c r="VPG99" s="1"/>
+      <c r="VPM99" s="1"/>
+      <c r="VPS99" s="1"/>
+      <c r="VPY99" s="1"/>
+      <c r="VQE99" s="1"/>
+      <c r="VQK99" s="1"/>
+      <c r="VQQ99" s="1"/>
+      <c r="VQW99" s="1"/>
+      <c r="VRC99" s="1"/>
+      <c r="VRI99" s="1"/>
+      <c r="VRO99" s="1"/>
+      <c r="VRU99" s="1"/>
+      <c r="VSA99" s="1"/>
+      <c r="VSG99" s="1"/>
+      <c r="VSM99" s="1"/>
+      <c r="VSS99" s="1"/>
+      <c r="VSY99" s="1"/>
+      <c r="VTE99" s="1"/>
+      <c r="VTK99" s="1"/>
+      <c r="VTQ99" s="1"/>
+      <c r="VTW99" s="1"/>
+      <c r="VUC99" s="1"/>
+      <c r="VUI99" s="1"/>
+      <c r="VUO99" s="1"/>
+      <c r="VUU99" s="1"/>
+      <c r="VVA99" s="1"/>
+      <c r="VVG99" s="1"/>
+      <c r="VVM99" s="1"/>
+      <c r="VVS99" s="1"/>
+      <c r="VVY99" s="1"/>
+      <c r="VWE99" s="1"/>
+      <c r="VWK99" s="1"/>
+      <c r="VWQ99" s="1"/>
+      <c r="VWW99" s="1"/>
+      <c r="VXC99" s="1"/>
+      <c r="VXI99" s="1"/>
+      <c r="VXO99" s="1"/>
+      <c r="VXU99" s="1"/>
+      <c r="VYA99" s="1"/>
+      <c r="VYG99" s="1"/>
+      <c r="VYM99" s="1"/>
+      <c r="VYS99" s="1"/>
+      <c r="VYY99" s="1"/>
+      <c r="VZE99" s="1"/>
+      <c r="VZK99" s="1"/>
+      <c r="VZQ99" s="1"/>
+      <c r="VZW99" s="1"/>
+      <c r="WAC99" s="1"/>
+      <c r="WAI99" s="1"/>
+      <c r="WAO99" s="1"/>
+      <c r="WAU99" s="1"/>
+      <c r="WBA99" s="1"/>
+      <c r="WBG99" s="1"/>
+      <c r="WBM99" s="1"/>
+      <c r="WBS99" s="1"/>
+      <c r="WBY99" s="1"/>
+      <c r="WCE99" s="1"/>
+      <c r="WCK99" s="1"/>
+      <c r="WCQ99" s="1"/>
+      <c r="WCW99" s="1"/>
+      <c r="WDC99" s="1"/>
+      <c r="WDI99" s="1"/>
+      <c r="WDO99" s="1"/>
+      <c r="WDU99" s="1"/>
+      <c r="WEA99" s="1"/>
+      <c r="WEG99" s="1"/>
+      <c r="WEM99" s="1"/>
+      <c r="WES99" s="1"/>
+      <c r="WEY99" s="1"/>
+      <c r="WFE99" s="1"/>
+      <c r="WFK99" s="1"/>
+      <c r="WFQ99" s="1"/>
+      <c r="WFW99" s="1"/>
+      <c r="WGC99" s="1"/>
+      <c r="WGI99" s="1"/>
+      <c r="WGO99" s="1"/>
+      <c r="WGU99" s="1"/>
+      <c r="WHA99" s="1"/>
+      <c r="WHG99" s="1"/>
+      <c r="WHM99" s="1"/>
+      <c r="WHS99" s="1"/>
+      <c r="WHY99" s="1"/>
+      <c r="WIE99" s="1"/>
+      <c r="WIK99" s="1"/>
+      <c r="WIQ99" s="1"/>
+      <c r="WIW99" s="1"/>
+      <c r="WJC99" s="1"/>
+      <c r="WJI99" s="1"/>
+      <c r="WJO99" s="1"/>
+      <c r="WJU99" s="1"/>
+      <c r="WKA99" s="1"/>
+      <c r="WKG99" s="1"/>
+      <c r="WKM99" s="1"/>
+      <c r="WKS99" s="1"/>
+      <c r="WKY99" s="1"/>
+      <c r="WLE99" s="1"/>
+      <c r="WLK99" s="1"/>
+      <c r="WLQ99" s="1"/>
+      <c r="WLW99" s="1"/>
+      <c r="WMC99" s="1"/>
+      <c r="WMI99" s="1"/>
+      <c r="WMO99" s="1"/>
+      <c r="WMU99" s="1"/>
+      <c r="WNA99" s="1"/>
+      <c r="WNG99" s="1"/>
+      <c r="WNM99" s="1"/>
+      <c r="WNS99" s="1"/>
+      <c r="WNY99" s="1"/>
+      <c r="WOE99" s="1"/>
+      <c r="WOK99" s="1"/>
+      <c r="WOQ99" s="1"/>
+      <c r="WOW99" s="1"/>
+      <c r="WPC99" s="1"/>
+      <c r="WPI99" s="1"/>
+      <c r="WPO99" s="1"/>
+      <c r="WPU99" s="1"/>
+      <c r="WQA99" s="1"/>
+      <c r="WQG99" s="1"/>
+      <c r="WQM99" s="1"/>
+      <c r="WQS99" s="1"/>
+      <c r="WQY99" s="1"/>
+      <c r="WRE99" s="1"/>
+      <c r="WRK99" s="1"/>
+      <c r="WRQ99" s="1"/>
+      <c r="WRW99" s="1"/>
+      <c r="WSC99" s="1"/>
+      <c r="WSI99" s="1"/>
+      <c r="WSO99" s="1"/>
+      <c r="WSU99" s="1"/>
+      <c r="WTA99" s="1"/>
+      <c r="WTG99" s="1"/>
+      <c r="WTM99" s="1"/>
+      <c r="WTS99" s="1"/>
+      <c r="WTY99" s="1"/>
+      <c r="WUE99" s="1"/>
+      <c r="WUK99" s="1"/>
+      <c r="WUQ99" s="1"/>
+      <c r="WUW99" s="1"/>
+      <c r="WVC99" s="1"/>
+      <c r="WVI99" s="1"/>
+      <c r="WVO99" s="1"/>
+      <c r="WVU99" s="1"/>
+      <c r="WWA99" s="1"/>
+      <c r="WWG99" s="1"/>
+      <c r="WWM99" s="1"/>
+      <c r="WWS99" s="1"/>
+      <c r="WWY99" s="1"/>
+      <c r="WXE99" s="1"/>
+      <c r="WXK99" s="1"/>
+      <c r="WXQ99" s="1"/>
+      <c r="WXW99" s="1"/>
+      <c r="WYC99" s="1"/>
+      <c r="WYI99" s="1"/>
+      <c r="WYO99" s="1"/>
+      <c r="WYU99" s="1"/>
+      <c r="WZA99" s="1"/>
+      <c r="WZG99" s="1"/>
+      <c r="WZM99" s="1"/>
+      <c r="WZS99" s="1"/>
+      <c r="WZY99" s="1"/>
+      <c r="XAE99" s="1"/>
+      <c r="XAK99" s="1"/>
+      <c r="XAQ99" s="1"/>
+      <c r="XAW99" s="1"/>
+      <c r="XBC99" s="1"/>
+      <c r="XBI99" s="1"/>
+      <c r="XBO99" s="1"/>
+      <c r="XBU99" s="1"/>
+      <c r="XCA99" s="1"/>
+      <c r="XCG99" s="1"/>
+      <c r="XCM99" s="1"/>
+      <c r="XCS99" s="1"/>
+      <c r="XCY99" s="1"/>
+      <c r="XDE99" s="1"/>
+      <c r="XDK99" s="1"/>
+      <c r="XDQ99" s="1"/>
+      <c r="XDW99" s="1"/>
+      <c r="XEC99" s="1"/>
+      <c r="XEI99" s="1"/>
+      <c r="XEO99" s="1"/>
+      <c r="XEU99" s="1"/>
+      <c r="XFA99" s="1"/>
+    </row>
+    <row r="100" spans="1:1021 1027:2047 2053:3067 3073:4093 4099:5119 5125:6139 6145:7165 7171:8191 8197:9211 9217:10237 10243:11263 11269:12283 12289:13309 13315:14335 14341:15355 15361:16381" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B100" t="s">
+        <v>248</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1243</v>
+      </c>
+      <c r="G100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="S100" s="1"/>
+      <c r="Y100" s="1"/>
+      <c r="AE100" s="1"/>
+      <c r="AK100" s="1"/>
+      <c r="AQ100" s="1"/>
+      <c r="AW100" s="1"/>
+      <c r="BC100" s="1"/>
+      <c r="BI100" s="1"/>
+      <c r="BO100" s="1"/>
+      <c r="BU100" s="1"/>
+      <c r="CA100" s="1"/>
+      <c r="CG100" s="1"/>
+      <c r="CM100" s="1"/>
+      <c r="CS100" s="1"/>
+      <c r="CY100" s="1"/>
+      <c r="DE100" s="1"/>
+      <c r="DK100" s="1"/>
+      <c r="DQ100" s="1"/>
+      <c r="DW100" s="1"/>
+      <c r="EC100" s="1"/>
+      <c r="EI100" s="1"/>
+      <c r="EO100" s="1"/>
+      <c r="EU100" s="1"/>
+      <c r="FA100" s="1"/>
+      <c r="FG100" s="1"/>
+      <c r="FM100" s="1"/>
+      <c r="FS100" s="1"/>
+      <c r="FY100" s="1"/>
+      <c r="GE100" s="1"/>
+      <c r="GK100" s="1"/>
+      <c r="GQ100" s="1"/>
+      <c r="GW100" s="1"/>
+      <c r="HC100" s="1"/>
+      <c r="HI100" s="1"/>
+      <c r="HO100" s="1"/>
+      <c r="HU100" s="1"/>
+      <c r="IA100" s="1"/>
+      <c r="IG100" s="1"/>
+      <c r="IM100" s="1"/>
+      <c r="IS100" s="1"/>
+      <c r="IY100" s="1"/>
+      <c r="JE100" s="1"/>
+      <c r="JK100" s="1"/>
+      <c r="JQ100" s="1"/>
+      <c r="JW100" s="1"/>
+      <c r="KC100" s="1"/>
+      <c r="KI100" s="1"/>
+      <c r="KO100" s="1"/>
+      <c r="KU100" s="1"/>
+      <c r="LA100" s="1"/>
+      <c r="LG100" s="1"/>
+      <c r="LM100" s="1"/>
+      <c r="LS100" s="1"/>
+      <c r="LY100" s="1"/>
+      <c r="ME100" s="1"/>
+      <c r="MK100" s="1"/>
+      <c r="MQ100" s="1"/>
+      <c r="MW100" s="1"/>
+      <c r="NC100" s="1"/>
+      <c r="NI100" s="1"/>
+      <c r="NO100" s="1"/>
+      <c r="NU100" s="1"/>
+      <c r="OA100" s="1"/>
+      <c r="OG100" s="1"/>
+      <c r="OM100" s="1"/>
+      <c r="OS100" s="1"/>
+      <c r="OY100" s="1"/>
+      <c r="PE100" s="1"/>
+      <c r="PK100" s="1"/>
+      <c r="PQ100" s="1"/>
+      <c r="PW100" s="1"/>
+      <c r="QC100" s="1"/>
+      <c r="QI100" s="1"/>
+      <c r="QO100" s="1"/>
+      <c r="QU100" s="1"/>
+      <c r="RA100" s="1"/>
+      <c r="RG100" s="1"/>
+      <c r="RM100" s="1"/>
+      <c r="RS100" s="1"/>
+      <c r="RY100" s="1"/>
+      <c r="SE100" s="1"/>
+      <c r="SK100" s="1"/>
+      <c r="SQ100" s="1"/>
+      <c r="SW100" s="1"/>
+      <c r="TC100" s="1"/>
+      <c r="TI100" s="1"/>
+      <c r="TO100" s="1"/>
+      <c r="TU100" s="1"/>
+      <c r="UA100" s="1"/>
+      <c r="UG100" s="1"/>
+      <c r="UM100" s="1"/>
+      <c r="US100" s="1"/>
+      <c r="UY100" s="1"/>
+      <c r="VE100" s="1"/>
+      <c r="VK100" s="1"/>
+      <c r="VQ100" s="1"/>
+      <c r="VW100" s="1"/>
+      <c r="WC100" s="1"/>
+      <c r="WI100" s="1"/>
+      <c r="WO100" s="1"/>
+      <c r="WU100" s="1"/>
+      <c r="XA100" s="1"/>
+      <c r="XG100" s="1"/>
+      <c r="XM100" s="1"/>
+      <c r="XS100" s="1"/>
+      <c r="XY100" s="1"/>
+      <c r="YE100" s="1"/>
+      <c r="YK100" s="1"/>
+      <c r="YQ100" s="1"/>
+      <c r="YW100" s="1"/>
+      <c r="ZC100" s="1"/>
+      <c r="ZI100" s="1"/>
+      <c r="ZO100" s="1"/>
+      <c r="ZU100" s="1"/>
+      <c r="AAA100" s="1"/>
+      <c r="AAG100" s="1"/>
+      <c r="AAM100" s="1"/>
+      <c r="AAS100" s="1"/>
+      <c r="AAY100" s="1"/>
+      <c r="ABE100" s="1"/>
+      <c r="ABK100" s="1"/>
+      <c r="ABQ100" s="1"/>
+      <c r="ABW100" s="1"/>
+      <c r="ACC100" s="1"/>
+      <c r="ACI100" s="1"/>
+      <c r="ACO100" s="1"/>
+      <c r="ACU100" s="1"/>
+      <c r="ADA100" s="1"/>
+      <c r="ADG100" s="1"/>
+      <c r="ADM100" s="1"/>
+      <c r="ADS100" s="1"/>
+      <c r="ADY100" s="1"/>
+      <c r="AEE100" s="1"/>
+      <c r="AEK100" s="1"/>
+      <c r="AEQ100" s="1"/>
+      <c r="AEW100" s="1"/>
+      <c r="AFC100" s="1"/>
+      <c r="AFI100" s="1"/>
+      <c r="AFO100" s="1"/>
+      <c r="AFU100" s="1"/>
+      <c r="AGA100" s="1"/>
+      <c r="AGG100" s="1"/>
+      <c r="AGM100" s="1"/>
+      <c r="AGS100" s="1"/>
+      <c r="AGY100" s="1"/>
+      <c r="AHE100" s="1"/>
+      <c r="AHK100" s="1"/>
+      <c r="AHQ100" s="1"/>
+      <c r="AHW100" s="1"/>
+      <c r="AIC100" s="1"/>
+      <c r="AII100" s="1"/>
+      <c r="AIO100" s="1"/>
+      <c r="AIU100" s="1"/>
+      <c r="AJA100" s="1"/>
+      <c r="AJG100" s="1"/>
+      <c r="AJM100" s="1"/>
+      <c r="AJS100" s="1"/>
+      <c r="AJY100" s="1"/>
+      <c r="AKE100" s="1"/>
+      <c r="AKK100" s="1"/>
+      <c r="AKQ100" s="1"/>
+      <c r="AKW100" s="1"/>
+      <c r="ALC100" s="1"/>
+      <c r="ALI100" s="1"/>
+      <c r="ALO100" s="1"/>
+      <c r="ALU100" s="1"/>
+      <c r="AMA100" s="1"/>
+      <c r="AMG100" s="1"/>
+      <c r="AMM100" s="1"/>
+      <c r="AMS100" s="1"/>
+      <c r="AMY100" s="1"/>
+      <c r="ANE100" s="1"/>
+      <c r="ANK100" s="1"/>
+      <c r="ANQ100" s="1"/>
+      <c r="ANW100" s="1"/>
+      <c r="AOC100" s="1"/>
+      <c r="AOI100" s="1"/>
+      <c r="AOO100" s="1"/>
+      <c r="AOU100" s="1"/>
+      <c r="APA100" s="1"/>
+      <c r="APG100" s="1"/>
+      <c r="APM100" s="1"/>
+      <c r="APS100" s="1"/>
+      <c r="APY100" s="1"/>
+      <c r="AQE100" s="1"/>
+      <c r="AQK100" s="1"/>
+      <c r="AQQ100" s="1"/>
+      <c r="AQW100" s="1"/>
+      <c r="ARC100" s="1"/>
+      <c r="ARI100" s="1"/>
+      <c r="ARO100" s="1"/>
+      <c r="ARU100" s="1"/>
+      <c r="ASA100" s="1"/>
+      <c r="ASG100" s="1"/>
+      <c r="ASM100" s="1"/>
+      <c r="ASS100" s="1"/>
+      <c r="ASY100" s="1"/>
+      <c r="ATE100" s="1"/>
+      <c r="ATK100" s="1"/>
+      <c r="ATQ100" s="1"/>
+      <c r="ATW100" s="1"/>
+      <c r="AUC100" s="1"/>
+      <c r="AUI100" s="1"/>
+      <c r="AUO100" s="1"/>
+      <c r="AUU100" s="1"/>
+      <c r="AVA100" s="1"/>
+      <c r="AVG100" s="1"/>
+      <c r="AVM100" s="1"/>
+      <c r="AVS100" s="1"/>
+      <c r="AVY100" s="1"/>
+      <c r="AWE100" s="1"/>
+      <c r="AWK100" s="1"/>
+      <c r="AWQ100" s="1"/>
+      <c r="AWW100" s="1"/>
+      <c r="AXC100" s="1"/>
+      <c r="AXI100" s="1"/>
+      <c r="AXO100" s="1"/>
+      <c r="AXU100" s="1"/>
+      <c r="AYA100" s="1"/>
+      <c r="AYG100" s="1"/>
+      <c r="AYM100" s="1"/>
+      <c r="AYS100" s="1"/>
+      <c r="AYY100" s="1"/>
+      <c r="AZE100" s="1"/>
+      <c r="AZK100" s="1"/>
+      <c r="AZQ100" s="1"/>
+      <c r="AZW100" s="1"/>
+      <c r="BAC100" s="1"/>
+      <c r="BAI100" s="1"/>
+      <c r="BAO100" s="1"/>
+      <c r="BAU100" s="1"/>
+      <c r="BBA100" s="1"/>
+      <c r="BBG100" s="1"/>
+      <c r="BBM100" s="1"/>
+      <c r="BBS100" s="1"/>
+      <c r="BBY100" s="1"/>
+      <c r="BCE100" s="1"/>
+      <c r="BCK100" s="1"/>
+      <c r="BCQ100" s="1"/>
+      <c r="BCW100" s="1"/>
+      <c r="BDC100" s="1"/>
+      <c r="BDI100" s="1"/>
+      <c r="BDO100" s="1"/>
+      <c r="BDU100" s="1"/>
+      <c r="BEA100" s="1"/>
+      <c r="BEG100" s="1"/>
+      <c r="BEM100" s="1"/>
+      <c r="BES100" s="1"/>
+      <c r="BEY100" s="1"/>
+      <c r="BFE100" s="1"/>
+      <c r="BFK100" s="1"/>
+      <c r="BFQ100" s="1"/>
+      <c r="BFW100" s="1"/>
+      <c r="BGC100" s="1"/>
+      <c r="BGI100" s="1"/>
+      <c r="BGO100" s="1"/>
+      <c r="BGU100" s="1"/>
+      <c r="BHA100" s="1"/>
+      <c r="BHG100" s="1"/>
+      <c r="BHM100" s="1"/>
+      <c r="BHS100" s="1"/>
+      <c r="BHY100" s="1"/>
+      <c r="BIE100" s="1"/>
+      <c r="BIK100" s="1"/>
+      <c r="BIQ100" s="1"/>
+      <c r="BIW100" s="1"/>
+      <c r="BJC100" s="1"/>
+      <c r="BJI100" s="1"/>
+      <c r="BJO100" s="1"/>
+      <c r="BJU100" s="1"/>
+      <c r="BKA100" s="1"/>
+      <c r="BKG100" s="1"/>
+      <c r="BKM100" s="1"/>
+      <c r="BKS100" s="1"/>
+      <c r="BKY100" s="1"/>
+      <c r="BLE100" s="1"/>
+      <c r="BLK100" s="1"/>
+      <c r="BLQ100" s="1"/>
+      <c r="BLW100" s="1"/>
+      <c r="BMC100" s="1"/>
+      <c r="BMI100" s="1"/>
+      <c r="BMO100" s="1"/>
+      <c r="BMU100" s="1"/>
+      <c r="BNA100" s="1"/>
+      <c r="BNG100" s="1"/>
+      <c r="BNM100" s="1"/>
+      <c r="BNS100" s="1"/>
+      <c r="BNY100" s="1"/>
+      <c r="BOE100" s="1"/>
+      <c r="BOK100" s="1"/>
+      <c r="BOQ100" s="1"/>
+      <c r="BOW100" s="1"/>
+      <c r="BPC100" s="1"/>
+      <c r="BPI100" s="1"/>
+      <c r="BPO100" s="1"/>
+      <c r="BPU100" s="1"/>
+      <c r="BQA100" s="1"/>
+      <c r="BQG100" s="1"/>
+      <c r="BQM100" s="1"/>
+      <c r="BQS100" s="1"/>
+      <c r="BQY100" s="1"/>
+      <c r="BRE100" s="1"/>
+      <c r="BRK100" s="1"/>
+      <c r="BRQ100" s="1"/>
+      <c r="BRW100" s="1"/>
+      <c r="BSC100" s="1"/>
+      <c r="BSI100" s="1"/>
+      <c r="BSO100" s="1"/>
+      <c r="BSU100" s="1"/>
+      <c r="BTA100" s="1"/>
+      <c r="BTG100" s="1"/>
+      <c r="BTM100" s="1"/>
+      <c r="BTS100" s="1"/>
+      <c r="BTY100" s="1"/>
+      <c r="BUE100" s="1"/>
+      <c r="BUK100" s="1"/>
+      <c r="BUQ100" s="1"/>
+      <c r="BUW100" s="1"/>
+      <c r="BVC100" s="1"/>
+      <c r="BVI100" s="1"/>
+      <c r="BVO100" s="1"/>
+      <c r="BVU100" s="1"/>
+      <c r="BWA100" s="1"/>
+      <c r="BWG100" s="1"/>
+      <c r="BWM100" s="1"/>
+      <c r="BWS100" s="1"/>
+      <c r="BWY100" s="1"/>
+      <c r="BXE100" s="1"/>
+      <c r="BXK100" s="1"/>
+      <c r="BXQ100" s="1"/>
+      <c r="BXW100" s="1"/>
+      <c r="BYC100" s="1"/>
+      <c r="BYI100" s="1"/>
+      <c r="BYO100" s="1"/>
+      <c r="BYU100" s="1"/>
+      <c r="BZA100" s="1"/>
+      <c r="BZG100" s="1"/>
+      <c r="BZM100" s="1"/>
+      <c r="BZS100" s="1"/>
+      <c r="BZY100" s="1"/>
+      <c r="CAE100" s="1"/>
+      <c r="CAK100" s="1"/>
+      <c r="CAQ100" s="1"/>
+      <c r="CAW100" s="1"/>
+      <c r="CBC100" s="1"/>
+      <c r="CBI100" s="1"/>
+      <c r="CBO100" s="1"/>
+      <c r="CBU100" s="1"/>
+      <c r="CCA100" s="1"/>
+      <c r="CCG100" s="1"/>
+      <c r="CCM100" s="1"/>
+      <c r="CCS100" s="1"/>
+      <c r="CCY100" s="1"/>
+      <c r="CDE100" s="1"/>
+      <c r="CDK100" s="1"/>
+      <c r="CDQ100" s="1"/>
+      <c r="CDW100" s="1"/>
+      <c r="CEC100" s="1"/>
+      <c r="CEI100" s="1"/>
+      <c r="CEO100" s="1"/>
+      <c r="CEU100" s="1"/>
+      <c r="CFA100" s="1"/>
+      <c r="CFG100" s="1"/>
+      <c r="CFM100" s="1"/>
+      <c r="CFS100" s="1"/>
+      <c r="CFY100" s="1"/>
+      <c r="CGE100" s="1"/>
+      <c r="CGK100" s="1"/>
+      <c r="CGQ100" s="1"/>
+      <c r="CGW100" s="1"/>
+      <c r="CHC100" s="1"/>
+      <c r="CHI100" s="1"/>
+      <c r="CHO100" s="1"/>
+      <c r="CHU100" s="1"/>
+      <c r="CIA100" s="1"/>
+      <c r="CIG100" s="1"/>
+      <c r="CIM100" s="1"/>
+      <c r="CIS100" s="1"/>
+      <c r="CIY100" s="1"/>
+      <c r="CJE100" s="1"/>
+      <c r="CJK100" s="1"/>
+      <c r="CJQ100" s="1"/>
+      <c r="CJW100" s="1"/>
+      <c r="CKC100" s="1"/>
+      <c r="CKI100" s="1"/>
+      <c r="CKO100" s="1"/>
+      <c r="CKU100" s="1"/>
+      <c r="CLA100" s="1"/>
+      <c r="CLG100" s="1"/>
+      <c r="CLM100" s="1"/>
+      <c r="CLS100" s="1"/>
+      <c r="CLY100" s="1"/>
+      <c r="CME100" s="1"/>
+      <c r="CMK100" s="1"/>
+      <c r="CMQ100" s="1"/>
+      <c r="CMW100" s="1"/>
+      <c r="CNC100" s="1"/>
+      <c r="CNI100" s="1"/>
+      <c r="CNO100" s="1"/>
+      <c r="CNU100" s="1"/>
+      <c r="COA100" s="1"/>
+      <c r="COG100" s="1"/>
+      <c r="COM100" s="1"/>
+      <c r="COS100" s="1"/>
+      <c r="COY100" s="1"/>
+      <c r="CPE100" s="1"/>
+      <c r="CPK100" s="1"/>
+      <c r="CPQ100" s="1"/>
+      <c r="CPW100" s="1"/>
+      <c r="CQC100" s="1"/>
+      <c r="CQI100" s="1"/>
+      <c r="CQO100" s="1"/>
+      <c r="CQU100" s="1"/>
+      <c r="CRA100" s="1"/>
+      <c r="CRG100" s="1"/>
+      <c r="CRM100" s="1"/>
+      <c r="CRS100" s="1"/>
+      <c r="CRY100" s="1"/>
+      <c r="CSE100" s="1"/>
+      <c r="CSK100" s="1"/>
+      <c r="CSQ100" s="1"/>
+      <c r="CSW100" s="1"/>
+      <c r="CTC100" s="1"/>
+      <c r="CTI100" s="1"/>
+      <c r="CTO100" s="1"/>
+      <c r="CTU100" s="1"/>
+      <c r="CUA100" s="1"/>
+      <c r="CUG100" s="1"/>
+      <c r="CUM100" s="1"/>
+      <c r="CUS100" s="1"/>
+      <c r="CUY100" s="1"/>
+      <c r="CVE100" s="1"/>
+      <c r="CVK100" s="1"/>
+      <c r="CVQ100" s="1"/>
+      <c r="CVW100" s="1"/>
+      <c r="CWC100" s="1"/>
+      <c r="CWI100" s="1"/>
+      <c r="CWO100" s="1"/>
+      <c r="CWU100" s="1"/>
+      <c r="CXA100" s="1"/>
+      <c r="CXG100" s="1"/>
+      <c r="CXM100" s="1"/>
+      <c r="CXS100" s="1"/>
+      <c r="CXY100" s="1"/>
+      <c r="CYE100" s="1"/>
+      <c r="CYK100" s="1"/>
+      <c r="CYQ100" s="1"/>
+      <c r="CYW100" s="1"/>
+      <c r="CZC100" s="1"/>
+      <c r="CZI100" s="1"/>
+      <c r="CZO100" s="1"/>
+      <c r="CZU100" s="1"/>
+      <c r="DAA100" s="1"/>
+      <c r="DAG100" s="1"/>
+      <c r="DAM100" s="1"/>
+      <c r="DAS100" s="1"/>
+      <c r="DAY100" s="1"/>
+      <c r="DBE100" s="1"/>
+      <c r="DBK100" s="1"/>
+      <c r="DBQ100" s="1"/>
+      <c r="DBW100" s="1"/>
+      <c r="DCC100" s="1"/>
+      <c r="DCI100" s="1"/>
+      <c r="DCO100" s="1"/>
+      <c r="DCU100" s="1"/>
+      <c r="DDA100" s="1"/>
+      <c r="DDG100" s="1"/>
+      <c r="DDM100" s="1"/>
+      <c r="DDS100" s="1"/>
+      <c r="DDY100" s="1"/>
+      <c r="DEE100" s="1"/>
+      <c r="DEK100" s="1"/>
+      <c r="DEQ100" s="1"/>
+      <c r="DEW100" s="1"/>
+      <c r="DFC100" s="1"/>
+      <c r="DFI100" s="1"/>
+      <c r="DFO100" s="1"/>
+      <c r="DFU100" s="1"/>
+      <c r="DGA100" s="1"/>
+      <c r="DGG100" s="1"/>
+      <c r="DGM100" s="1"/>
+      <c r="DGS100" s="1"/>
+      <c r="DGY100" s="1"/>
+      <c r="DHE100" s="1"/>
+      <c r="DHK100" s="1"/>
+      <c r="DHQ100" s="1"/>
+      <c r="DHW100" s="1"/>
+      <c r="DIC100" s="1"/>
+      <c r="DII100" s="1"/>
+      <c r="DIO100" s="1"/>
+      <c r="DIU100" s="1"/>
+      <c r="DJA100" s="1"/>
+      <c r="DJG100" s="1"/>
+      <c r="DJM100" s="1"/>
+      <c r="DJS100" s="1"/>
+      <c r="DJY100" s="1"/>
+      <c r="DKE100" s="1"/>
+      <c r="DKK100" s="1"/>
+      <c r="DKQ100" s="1"/>
+      <c r="DKW100" s="1"/>
+      <c r="DLC100" s="1"/>
+      <c r="DLI100" s="1"/>
+      <c r="DLO100" s="1"/>
+      <c r="DLU100" s="1"/>
+      <c r="DMA100" s="1"/>
+      <c r="DMG100" s="1"/>
+      <c r="DMM100" s="1"/>
+      <c r="DMS100" s="1"/>
+      <c r="DMY100" s="1"/>
+      <c r="DNE100" s="1"/>
+      <c r="DNK100" s="1"/>
+      <c r="DNQ100" s="1"/>
+      <c r="DNW100" s="1"/>
+      <c r="DOC100" s="1"/>
+      <c r="DOI100" s="1"/>
+      <c r="DOO100" s="1"/>
+      <c r="DOU100" s="1"/>
+      <c r="DPA100" s="1"/>
+      <c r="DPG100" s="1"/>
+      <c r="DPM100" s="1"/>
+      <c r="DPS100" s="1"/>
+      <c r="DPY100" s="1"/>
+      <c r="DQE100" s="1"/>
+      <c r="DQK100" s="1"/>
+      <c r="DQQ100" s="1"/>
+      <c r="DQW100" s="1"/>
+      <c r="DRC100" s="1"/>
+      <c r="DRI100" s="1"/>
+      <c r="DRO100" s="1"/>
+      <c r="DRU100" s="1"/>
+      <c r="DSA100" s="1"/>
+      <c r="DSG100" s="1"/>
+      <c r="DSM100" s="1"/>
+      <c r="DSS100" s="1"/>
+      <c r="DSY100" s="1"/>
+      <c r="DTE100" s="1"/>
+      <c r="DTK100" s="1"/>
+      <c r="DTQ100" s="1"/>
+      <c r="DTW100" s="1"/>
+      <c r="DUC100" s="1"/>
+      <c r="DUI100" s="1"/>
+      <c r="DUO100" s="1"/>
+      <c r="DUU100" s="1"/>
+      <c r="DVA100" s="1"/>
+      <c r="DVG100" s="1"/>
+      <c r="DVM100" s="1"/>
+      <c r="DVS100" s="1"/>
+      <c r="DVY100" s="1"/>
+      <c r="DWE100" s="1"/>
+      <c r="DWK100" s="1"/>
+      <c r="DWQ100" s="1"/>
+      <c r="DWW100" s="1"/>
+      <c r="DXC100" s="1"/>
+      <c r="DXI100" s="1"/>
+      <c r="DXO100" s="1"/>
+      <c r="DXU100" s="1"/>
+      <c r="DYA100" s="1"/>
+      <c r="DYG100" s="1"/>
+      <c r="DYM100" s="1"/>
+      <c r="DYS100" s="1"/>
+      <c r="DYY100" s="1"/>
+      <c r="DZE100" s="1"/>
+      <c r="DZK100" s="1"/>
+      <c r="DZQ100" s="1"/>
+      <c r="DZW100" s="1"/>
+      <c r="EAC100" s="1"/>
+      <c r="EAI100" s="1"/>
+      <c r="EAO100" s="1"/>
+      <c r="EAU100" s="1"/>
+      <c r="EBA100" s="1"/>
+      <c r="EBG100" s="1"/>
+      <c r="EBM100" s="1"/>
+      <c r="EBS100" s="1"/>
+      <c r="EBY100" s="1"/>
+      <c r="ECE100" s="1"/>
+      <c r="ECK100" s="1"/>
+      <c r="ECQ100" s="1"/>
+      <c r="ECW100" s="1"/>
+      <c r="EDC100" s="1"/>
+      <c r="EDI100" s="1"/>
+      <c r="EDO100" s="1"/>
+      <c r="EDU100" s="1"/>
+      <c r="EEA100" s="1"/>
+      <c r="EEG100" s="1"/>
+      <c r="EEM100" s="1"/>
+      <c r="EES100" s="1"/>
+      <c r="EEY100" s="1"/>
+      <c r="EFE100" s="1"/>
+      <c r="EFK100" s="1"/>
+      <c r="EFQ100" s="1"/>
+      <c r="EFW100" s="1"/>
+      <c r="EGC100" s="1"/>
+      <c r="EGI100" s="1"/>
+      <c r="EGO100" s="1"/>
+      <c r="EGU100" s="1"/>
+      <c r="EHA100" s="1"/>
+      <c r="EHG100" s="1"/>
+      <c r="EHM100" s="1"/>
+      <c r="EHS100" s="1"/>
+      <c r="EHY100" s="1"/>
+      <c r="EIE100" s="1"/>
+      <c r="EIK100" s="1"/>
+      <c r="EIQ100" s="1"/>
+      <c r="EIW100" s="1"/>
+      <c r="EJC100" s="1"/>
+      <c r="EJI100" s="1"/>
+      <c r="EJO100" s="1"/>
+      <c r="EJU100" s="1"/>
+      <c r="EKA100" s="1"/>
+      <c r="EKG100" s="1"/>
+      <c r="EKM100" s="1"/>
+      <c r="EKS100" s="1"/>
+      <c r="EKY100" s="1"/>
+      <c r="ELE100" s="1"/>
+      <c r="ELK100" s="1"/>
+      <c r="ELQ100" s="1"/>
+      <c r="ELW100" s="1"/>
+      <c r="EMC100" s="1"/>
+      <c r="EMI100" s="1"/>
+      <c r="EMO100" s="1"/>
+      <c r="EMU100" s="1"/>
+      <c r="ENA100" s="1"/>
+      <c r="ENG100" s="1"/>
+      <c r="ENM100" s="1"/>
+      <c r="ENS100" s="1"/>
+      <c r="ENY100" s="1"/>
+      <c r="EOE100" s="1"/>
+      <c r="EOK100" s="1"/>
+      <c r="EOQ100" s="1"/>
+      <c r="EOW100" s="1"/>
+      <c r="EPC100" s="1"/>
+      <c r="EPI100" s="1"/>
+      <c r="EPO100" s="1"/>
+      <c r="EPU100" s="1"/>
+      <c r="EQA100" s="1"/>
+      <c r="EQG100" s="1"/>
+      <c r="EQM100" s="1"/>
+      <c r="EQS100" s="1"/>
+      <c r="EQY100" s="1"/>
+      <c r="ERE100" s="1"/>
+      <c r="ERK100" s="1"/>
+      <c r="ERQ100" s="1"/>
+      <c r="ERW100" s="1"/>
+      <c r="ESC100" s="1"/>
+      <c r="ESI100" s="1"/>
+      <c r="ESO100" s="1"/>
+      <c r="ESU100" s="1"/>
+      <c r="ETA100" s="1"/>
+      <c r="ETG100" s="1"/>
+      <c r="ETM100" s="1"/>
+      <c r="ETS100" s="1"/>
+      <c r="ETY100" s="1"/>
+      <c r="EUE100" s="1"/>
+      <c r="EUK100" s="1"/>
+      <c r="EUQ100" s="1"/>
+      <c r="EUW100" s="1"/>
+      <c r="EVC100" s="1"/>
+      <c r="EVI100" s="1"/>
+      <c r="EVO100" s="1"/>
+      <c r="EVU100" s="1"/>
+      <c r="EWA100" s="1"/>
+      <c r="EWG100" s="1"/>
+      <c r="EWM100" s="1"/>
+      <c r="EWS100" s="1"/>
+      <c r="EWY100" s="1"/>
+      <c r="EXE100" s="1"/>
+      <c r="EXK100" s="1"/>
+      <c r="EXQ100" s="1"/>
+      <c r="EXW100" s="1"/>
+      <c r="EYC100" s="1"/>
+      <c r="EYI100" s="1"/>
+      <c r="EYO100" s="1"/>
+      <c r="EYU100" s="1"/>
+      <c r="EZA100" s="1"/>
+      <c r="EZG100" s="1"/>
+      <c r="EZM100" s="1"/>
+      <c r="EZS100" s="1"/>
+      <c r="EZY100" s="1"/>
+      <c r="FAE100" s="1"/>
+      <c r="FAK100" s="1"/>
+      <c r="FAQ100" s="1"/>
+      <c r="FAW100" s="1"/>
+      <c r="FBC100" s="1"/>
+      <c r="FBI100" s="1"/>
+      <c r="FBO100" s="1"/>
+      <c r="FBU100" s="1"/>
+      <c r="FCA100" s="1"/>
+      <c r="FCG100" s="1"/>
+      <c r="FCM100" s="1"/>
+      <c r="FCS100" s="1"/>
+      <c r="FCY100" s="1"/>
+      <c r="FDE100" s="1"/>
+      <c r="FDK100" s="1"/>
+      <c r="FDQ100" s="1"/>
+      <c r="FDW100" s="1"/>
+      <c r="FEC100" s="1"/>
+      <c r="FEI100" s="1"/>
+      <c r="FEO100" s="1"/>
+      <c r="FEU100" s="1"/>
+      <c r="FFA100" s="1"/>
+      <c r="FFG100" s="1"/>
+      <c r="FFM100" s="1"/>
+      <c r="FFS100" s="1"/>
+      <c r="FFY100" s="1"/>
+      <c r="FGE100" s="1"/>
+      <c r="FGK100" s="1"/>
+      <c r="FGQ100" s="1"/>
+      <c r="FGW100" s="1"/>
+      <c r="FHC100" s="1"/>
+      <c r="FHI100" s="1"/>
+      <c r="FHO100" s="1"/>
+      <c r="FHU100" s="1"/>
+      <c r="FIA100" s="1"/>
+      <c r="FIG100" s="1"/>
+      <c r="FIM100" s="1"/>
+      <c r="FIS100" s="1"/>
+      <c r="FIY100" s="1"/>
+      <c r="FJE100" s="1"/>
+      <c r="FJK100" s="1"/>
+      <c r="FJQ100" s="1"/>
+      <c r="FJW100" s="1"/>
+      <c r="FKC100" s="1"/>
+      <c r="FKI100" s="1"/>
+      <c r="FKO100" s="1"/>
+      <c r="FKU100" s="1"/>
+      <c r="FLA100" s="1"/>
+      <c r="FLG100" s="1"/>
+      <c r="FLM100" s="1"/>
+      <c r="FLS100" s="1"/>
+      <c r="FLY100" s="1"/>
+      <c r="FME100" s="1"/>
+      <c r="FMK100" s="1"/>
+      <c r="FMQ100" s="1"/>
+      <c r="FMW100" s="1"/>
+      <c r="FNC100" s="1"/>
+      <c r="FNI100" s="1"/>
+      <c r="FNO100" s="1"/>
+      <c r="FNU100" s="1"/>
+      <c r="FOA100" s="1"/>
+      <c r="FOG100" s="1"/>
+      <c r="FOM100" s="1"/>
+      <c r="FOS100" s="1"/>
+      <c r="FOY100" s="1"/>
+      <c r="FPE100" s="1"/>
+      <c r="FPK100" s="1"/>
+      <c r="FPQ100" s="1"/>
+      <c r="FPW100" s="1"/>
+      <c r="FQC100" s="1"/>
+      <c r="FQI100" s="1"/>
+      <c r="FQO100" s="1"/>
+      <c r="FQU100" s="1"/>
+      <c r="FRA100" s="1"/>
+      <c r="FRG100" s="1"/>
+      <c r="FRM100" s="1"/>
+      <c r="FRS100" s="1"/>
+      <c r="FRY100" s="1"/>
+      <c r="FSE100" s="1"/>
+      <c r="FSK100" s="1"/>
+      <c r="FSQ100" s="1"/>
+      <c r="FSW100" s="1"/>
+      <c r="FTC100" s="1"/>
+      <c r="FTI100" s="1"/>
+      <c r="FTO100" s="1"/>
+      <c r="FTU100" s="1"/>
+      <c r="FUA100" s="1"/>
+      <c r="FUG100" s="1"/>
+      <c r="FUM100" s="1"/>
+      <c r="FUS100" s="1"/>
+      <c r="FUY100" s="1"/>
+      <c r="FVE100" s="1"/>
+      <c r="FVK100" s="1"/>
+      <c r="FVQ100" s="1"/>
+      <c r="FVW100" s="1"/>
+      <c r="FWC100" s="1"/>
+      <c r="FWI100" s="1"/>
+      <c r="FWO100" s="1"/>
+      <c r="FWU100" s="1"/>
+      <c r="FXA100" s="1"/>
+      <c r="FXG100" s="1"/>
+      <c r="FXM100" s="1"/>
+      <c r="FXS100" s="1"/>
+      <c r="FXY100" s="1"/>
+      <c r="FYE100" s="1"/>
+      <c r="FYK100" s="1"/>
+      <c r="FYQ100" s="1"/>
+      <c r="FYW100" s="1"/>
+      <c r="FZC100" s="1"/>
+      <c r="FZI100" s="1"/>
+      <c r="FZO100" s="1"/>
+      <c r="FZU100" s="1"/>
+      <c r="GAA100" s="1"/>
+      <c r="GAG100" s="1"/>
+      <c r="GAM100" s="1"/>
+      <c r="GAS100" s="1"/>
+      <c r="GAY100" s="1"/>
+      <c r="GBE100" s="1"/>
+      <c r="GBK100" s="1"/>
+      <c r="GBQ100" s="1"/>
+      <c r="GBW100" s="1"/>
+      <c r="GCC100" s="1"/>
+      <c r="GCI100" s="1"/>
+      <c r="GCO100" s="1"/>
+      <c r="GCU100" s="1"/>
+      <c r="GDA100" s="1"/>
+      <c r="GDG100" s="1"/>
+      <c r="GDM100" s="1"/>
+      <c r="GDS100" s="1"/>
+      <c r="GDY100" s="1"/>
+      <c r="GEE100" s="1"/>
+      <c r="GEK100" s="1"/>
+      <c r="GEQ100" s="1"/>
+      <c r="GEW100" s="1"/>
+      <c r="GFC100" s="1"/>
+      <c r="GFI100" s="1"/>
+      <c r="GFO100" s="1"/>
+      <c r="GFU100" s="1"/>
+      <c r="GGA100" s="1"/>
+      <c r="GGG100" s="1"/>
+      <c r="GGM100" s="1"/>
+      <c r="GGS100" s="1"/>
+      <c r="GGY100" s="1"/>
+      <c r="GHE100" s="1"/>
+      <c r="GHK100" s="1"/>
+      <c r="GHQ100" s="1"/>
+      <c r="GHW100" s="1"/>
+      <c r="GIC100" s="1"/>
+      <c r="GII100" s="1"/>
+      <c r="GIO100" s="1"/>
+      <c r="GIU100" s="1"/>
+      <c r="GJA100" s="1"/>
+      <c r="GJG100" s="1"/>
+      <c r="GJM100" s="1"/>
+      <c r="GJS100" s="1"/>
+      <c r="GJY100" s="1"/>
+      <c r="GKE100" s="1"/>
+      <c r="GKK100" s="1"/>
+      <c r="GKQ100" s="1"/>
+      <c r="GKW100" s="1"/>
+      <c r="GLC100" s="1"/>
+      <c r="GLI100" s="1"/>
+      <c r="GLO100" s="1"/>
+      <c r="GLU100" s="1"/>
+      <c r="GMA100" s="1"/>
+      <c r="GMG100" s="1"/>
+      <c r="GMM100" s="1"/>
+      <c r="GMS100" s="1"/>
+      <c r="GMY100" s="1"/>
+      <c r="GNE100" s="1"/>
+      <c r="GNK100" s="1"/>
+      <c r="GNQ100" s="1"/>
+      <c r="GNW100" s="1"/>
+      <c r="GOC100" s="1"/>
+      <c r="GOI100" s="1"/>
+      <c r="GOO100" s="1"/>
+      <c r="GOU100" s="1"/>
+      <c r="GPA100" s="1"/>
+      <c r="GPG100" s="1"/>
+      <c r="GPM100" s="1"/>
+      <c r="GPS100" s="1"/>
+      <c r="GPY100" s="1"/>
+      <c r="GQE100" s="1"/>
+      <c r="GQK100" s="1"/>
+      <c r="GQQ100" s="1"/>
+      <c r="GQW100" s="1"/>
+      <c r="GRC100" s="1"/>
+      <c r="GRI100" s="1"/>
+      <c r="GRO100" s="1"/>
+      <c r="GRU100" s="1"/>
+      <c r="GSA100" s="1"/>
+      <c r="GSG100" s="1"/>
+      <c r="GSM100" s="1"/>
+      <c r="GSS100" s="1"/>
+      <c r="GSY100" s="1"/>
+      <c r="GTE100" s="1"/>
+      <c r="GTK100" s="1"/>
+      <c r="GTQ100" s="1"/>
+      <c r="GTW100" s="1"/>
+      <c r="GUC100" s="1"/>
+      <c r="GUI100" s="1"/>
+      <c r="GUO100" s="1"/>
+      <c r="GUU100" s="1"/>
+      <c r="GVA100" s="1"/>
+      <c r="GVG100" s="1"/>
+      <c r="GVM100" s="1"/>
+      <c r="GVS100" s="1"/>
+      <c r="GVY100" s="1"/>
+      <c r="GWE100" s="1"/>
+      <c r="GWK100" s="1"/>
+      <c r="GWQ100" s="1"/>
+      <c r="GWW100" s="1"/>
+      <c r="GXC100" s="1"/>
+      <c r="GXI100" s="1"/>
+      <c r="GXO100" s="1"/>
+      <c r="GXU100" s="1"/>
+      <c r="GYA100" s="1"/>
+      <c r="GYG100" s="1"/>
+      <c r="GYM100" s="1"/>
+      <c r="GYS100" s="1"/>
+      <c r="GYY100" s="1"/>
+      <c r="GZE100" s="1"/>
+      <c r="GZK100" s="1"/>
+      <c r="GZQ100" s="1"/>
+      <c r="GZW100" s="1"/>
+      <c r="HAC100" s="1"/>
+      <c r="HAI100" s="1"/>
+      <c r="HAO100" s="1"/>
+      <c r="HAU100" s="1"/>
+      <c r="HBA100" s="1"/>
+      <c r="HBG100" s="1"/>
+      <c r="HBM100" s="1"/>
+      <c r="HBS100" s="1"/>
+      <c r="HBY100" s="1"/>
+      <c r="HCE100" s="1"/>
+      <c r="HCK100" s="1"/>
+      <c r="HCQ100" s="1"/>
+      <c r="HCW100" s="1"/>
+      <c r="HDC100" s="1"/>
+      <c r="HDI100" s="1"/>
+      <c r="HDO100" s="1"/>
+      <c r="HDU100" s="1"/>
+      <c r="HEA100" s="1"/>
+      <c r="HEG100" s="1"/>
+      <c r="HEM100" s="1"/>
+      <c r="HES100" s="1"/>
+      <c r="HEY100" s="1"/>
+      <c r="HFE100" s="1"/>
+      <c r="HFK100" s="1"/>
+      <c r="HFQ100" s="1"/>
+      <c r="HFW100" s="1"/>
+      <c r="HGC100" s="1"/>
+      <c r="HGI100" s="1"/>
+      <c r="HGO100" s="1"/>
+      <c r="HGU100" s="1"/>
+      <c r="HHA100" s="1"/>
+      <c r="HHG100" s="1"/>
+      <c r="HHM100" s="1"/>
+      <c r="HHS100" s="1"/>
+      <c r="HHY100" s="1"/>
+      <c r="HIE100" s="1"/>
+      <c r="HIK100" s="1"/>
+      <c r="HIQ100" s="1"/>
+      <c r="HIW100" s="1"/>
+      <c r="HJC100" s="1"/>
+      <c r="HJI100" s="1"/>
+      <c r="HJO100" s="1"/>
+      <c r="HJU100" s="1"/>
+      <c r="HKA100" s="1"/>
+      <c r="HKG100" s="1"/>
+      <c r="HKM100" s="1"/>
+      <c r="HKS100" s="1"/>
+      <c r="HKY100" s="1"/>
+      <c r="HLE100" s="1"/>
+      <c r="HLK100" s="1"/>
+      <c r="HLQ100" s="1"/>
+      <c r="HLW100" s="1"/>
+      <c r="HMC100" s="1"/>
+      <c r="HMI100" s="1"/>
+      <c r="HMO100" s="1"/>
+      <c r="HMU100" s="1"/>
+      <c r="HNA100" s="1"/>
+      <c r="HNG100" s="1"/>
+      <c r="HNM100" s="1"/>
+      <c r="HNS100" s="1"/>
+      <c r="HNY100" s="1"/>
+      <c r="HOE100" s="1"/>
+      <c r="HOK100" s="1"/>
+      <c r="HOQ100" s="1"/>
+      <c r="HOW100" s="1"/>
+      <c r="HPC100" s="1"/>
+      <c r="HPI100" s="1"/>
+      <c r="HPO100" s="1"/>
+      <c r="HPU100" s="1"/>
+      <c r="HQA100" s="1"/>
+      <c r="HQG100" s="1"/>
+      <c r="HQM100" s="1"/>
+      <c r="HQS100" s="1"/>
+      <c r="HQY100" s="1"/>
+      <c r="HRE100" s="1"/>
+      <c r="HRK100" s="1"/>
+      <c r="HRQ100" s="1"/>
+      <c r="HRW100" s="1"/>
+      <c r="HSC100" s="1"/>
+      <c r="HSI100" s="1"/>
+      <c r="HSO100" s="1"/>
+      <c r="HSU100" s="1"/>
+      <c r="HTA100" s="1"/>
+      <c r="HTG100" s="1"/>
+      <c r="HTM100" s="1"/>
+      <c r="HTS100" s="1"/>
+      <c r="HTY100" s="1"/>
+      <c r="HUE100" s="1"/>
+      <c r="HUK100" s="1"/>
+      <c r="HUQ100" s="1"/>
+      <c r="HUW100" s="1"/>
+      <c r="HVC100" s="1"/>
+      <c r="HVI100" s="1"/>
+      <c r="HVO100" s="1"/>
+      <c r="HVU100" s="1"/>
+      <c r="HWA100" s="1"/>
+      <c r="HWG100" s="1"/>
+      <c r="HWM100" s="1"/>
+      <c r="HWS100" s="1"/>
+      <c r="HWY100" s="1"/>
+      <c r="HXE100" s="1"/>
+      <c r="HXK100" s="1"/>
+      <c r="HXQ100" s="1"/>
+      <c r="HXW100" s="1"/>
+      <c r="HYC100" s="1"/>
+      <c r="HYI100" s="1"/>
+      <c r="HYO100" s="1"/>
+      <c r="HYU100" s="1"/>
+      <c r="HZA100" s="1"/>
+      <c r="HZG100" s="1"/>
+      <c r="HZM100" s="1"/>
+      <c r="HZS100" s="1"/>
+      <c r="HZY100" s="1"/>
+      <c r="IAE100" s="1"/>
+      <c r="IAK100" s="1"/>
+      <c r="IAQ100" s="1"/>
+      <c r="IAW100" s="1"/>
+      <c r="IBC100" s="1"/>
+      <c r="IBI100" s="1"/>
+      <c r="IBO100" s="1"/>
+      <c r="IBU100" s="1"/>
+      <c r="ICA100" s="1"/>
+      <c r="ICG100" s="1"/>
+      <c r="ICM100" s="1"/>
+      <c r="ICS100" s="1"/>
+      <c r="ICY100" s="1"/>
+      <c r="IDE100" s="1"/>
+      <c r="IDK100" s="1"/>
+      <c r="IDQ100" s="1"/>
+      <c r="IDW100" s="1"/>
+      <c r="IEC100" s="1"/>
+      <c r="IEI100" s="1"/>
+      <c r="IEO100" s="1"/>
+      <c r="IEU100" s="1"/>
+      <c r="IFA100" s="1"/>
+      <c r="IFG100" s="1"/>
+      <c r="IFM100" s="1"/>
+      <c r="IFS100" s="1"/>
+      <c r="IFY100" s="1"/>
+      <c r="IGE100" s="1"/>
+      <c r="IGK100" s="1"/>
+      <c r="IGQ100" s="1"/>
+      <c r="IGW100" s="1"/>
+      <c r="IHC100" s="1"/>
+      <c r="IHI100" s="1"/>
+      <c r="IHO100" s="1"/>
+      <c r="IHU100" s="1"/>
+      <c r="IIA100" s="1"/>
+      <c r="IIG100" s="1"/>
+      <c r="IIM100" s="1"/>
+      <c r="IIS100" s="1"/>
+      <c r="IIY100" s="1"/>
+      <c r="IJE100" s="1"/>
+      <c r="IJK100" s="1"/>
+      <c r="IJQ100" s="1"/>
+      <c r="IJW100" s="1"/>
+      <c r="IKC100" s="1"/>
+      <c r="IKI100" s="1"/>
+      <c r="IKO100" s="1"/>
+      <c r="IKU100" s="1"/>
+      <c r="ILA100" s="1"/>
+      <c r="ILG100" s="1"/>
+      <c r="ILM100" s="1"/>
+      <c r="ILS100" s="1"/>
+      <c r="ILY100" s="1"/>
+      <c r="IME100" s="1"/>
+      <c r="IMK100" s="1"/>
+      <c r="IMQ100" s="1"/>
+      <c r="IMW100" s="1"/>
+      <c r="INC100" s="1"/>
+      <c r="INI100" s="1"/>
+      <c r="INO100" s="1"/>
+      <c r="INU100" s="1"/>
+      <c r="IOA100" s="1"/>
+      <c r="IOG100" s="1"/>
+      <c r="IOM100" s="1"/>
+      <c r="IOS100" s="1"/>
+      <c r="IOY100" s="1"/>
+      <c r="IPE100" s="1"/>
+      <c r="IPK100" s="1"/>
+      <c r="IPQ100" s="1"/>
+      <c r="IPW100" s="1"/>
+      <c r="IQC100" s="1"/>
+      <c r="IQI100" s="1"/>
+      <c r="IQO100" s="1"/>
+      <c r="IQU100" s="1"/>
+      <c r="IRA100" s="1"/>
+      <c r="IRG100" s="1"/>
+      <c r="IRM100" s="1"/>
+      <c r="IRS100" s="1"/>
+      <c r="IRY100" s="1"/>
+      <c r="ISE100" s="1"/>
+      <c r="ISK100" s="1"/>
+      <c r="ISQ100" s="1"/>
+      <c r="ISW100" s="1"/>
+      <c r="ITC100" s="1"/>
+      <c r="ITI100" s="1"/>
+      <c r="ITO100" s="1"/>
+      <c r="ITU100" s="1"/>
+      <c r="IUA100" s="1"/>
+      <c r="IUG100" s="1"/>
+      <c r="IUM100" s="1"/>
+      <c r="IUS100" s="1"/>
+      <c r="IUY100" s="1"/>
+      <c r="IVE100" s="1"/>
+      <c r="IVK100" s="1"/>
+      <c r="IVQ100" s="1"/>
+      <c r="IVW100" s="1"/>
+      <c r="IWC100" s="1"/>
+      <c r="IWI100" s="1"/>
+      <c r="IWO100" s="1"/>
+      <c r="IWU100" s="1"/>
+      <c r="IXA100" s="1"/>
+      <c r="IXG100" s="1"/>
+      <c r="IXM100" s="1"/>
+      <c r="IXS100" s="1"/>
+      <c r="IXY100" s="1"/>
+      <c r="IYE100" s="1"/>
+      <c r="IYK100" s="1"/>
+      <c r="IYQ100" s="1"/>
+      <c r="IYW100" s="1"/>
+      <c r="IZC100" s="1"/>
+      <c r="IZI100" s="1"/>
+      <c r="IZO100" s="1"/>
+      <c r="IZU100" s="1"/>
+      <c r="JAA100" s="1"/>
+      <c r="JAG100" s="1"/>
+      <c r="JAM100" s="1"/>
+      <c r="JAS100" s="1"/>
+      <c r="JAY100" s="1"/>
+      <c r="JBE100" s="1"/>
+      <c r="JBK100" s="1"/>
+      <c r="JBQ100" s="1"/>
+      <c r="JBW100" s="1"/>
+      <c r="JCC100" s="1"/>
+      <c r="JCI100" s="1"/>
+      <c r="JCO100" s="1"/>
+      <c r="JCU100" s="1"/>
+      <c r="JDA100" s="1"/>
+      <c r="JDG100" s="1"/>
+      <c r="JDM100" s="1"/>
+      <c r="JDS100" s="1"/>
+      <c r="JDY100" s="1"/>
+      <c r="JEE100" s="1"/>
+      <c r="JEK100" s="1"/>
+      <c r="JEQ100" s="1"/>
+      <c r="JEW100" s="1"/>
+      <c r="JFC100" s="1"/>
+      <c r="JFI100" s="1"/>
+      <c r="JFO100" s="1"/>
+      <c r="JFU100" s="1"/>
+      <c r="JGA100" s="1"/>
+      <c r="JGG100" s="1"/>
+      <c r="JGM100" s="1"/>
+      <c r="JGS100" s="1"/>
+      <c r="JGY100" s="1"/>
+      <c r="JHE100" s="1"/>
+      <c r="JHK100" s="1"/>
+      <c r="JHQ100" s="1"/>
+      <c r="JHW100" s="1"/>
+      <c r="JIC100" s="1"/>
+      <c r="JII100" s="1"/>
+      <c r="JIO100" s="1"/>
+      <c r="JIU100" s="1"/>
+      <c r="JJA100" s="1"/>
+      <c r="JJG100" s="1"/>
+      <c r="JJM100" s="1"/>
+      <c r="JJS100" s="1"/>
+      <c r="JJY100" s="1"/>
+      <c r="JKE100" s="1"/>
+      <c r="JKK100" s="1"/>
+      <c r="JKQ100" s="1"/>
+      <c r="JKW100" s="1"/>
+      <c r="JLC100" s="1"/>
+      <c r="JLI100" s="1"/>
+      <c r="JLO100" s="1"/>
+      <c r="JLU100" s="1"/>
+      <c r="JMA100" s="1"/>
+      <c r="JMG100" s="1"/>
+      <c r="JMM100" s="1"/>
+      <c r="JMS100" s="1"/>
+      <c r="JMY100" s="1"/>
+      <c r="JNE100" s="1"/>
+      <c r="JNK100" s="1"/>
+      <c r="JNQ100" s="1"/>
+      <c r="JNW100" s="1"/>
+      <c r="JOC100" s="1"/>
+      <c r="JOI100" s="1"/>
+      <c r="JOO100" s="1"/>
+      <c r="JOU100" s="1"/>
+      <c r="JPA100" s="1"/>
+      <c r="JPG100" s="1"/>
+      <c r="JPM100" s="1"/>
+      <c r="JPS100" s="1"/>
+      <c r="JPY100" s="1"/>
+      <c r="JQE100" s="1"/>
+      <c r="JQK100" s="1"/>
+      <c r="JQQ100" s="1"/>
+      <c r="JQW100" s="1"/>
+      <c r="JRC100" s="1"/>
+      <c r="JRI100" s="1"/>
+      <c r="JRO100" s="1"/>
+      <c r="JRU100" s="1"/>
+      <c r="JSA100" s="1"/>
+      <c r="JSG100" s="1"/>
+      <c r="JSM100" s="1"/>
+      <c r="JSS100" s="1"/>
+      <c r="JSY100" s="1"/>
+      <c r="JTE100" s="1"/>
+      <c r="JTK100" s="1"/>
+      <c r="JTQ100" s="1"/>
+      <c r="JTW100" s="1"/>
+      <c r="JUC100" s="1"/>
+      <c r="JUI100" s="1"/>
+      <c r="JUO100" s="1"/>
+      <c r="JUU100" s="1"/>
+      <c r="JVA100" s="1"/>
+      <c r="JVG100" s="1"/>
+      <c r="JVM100" s="1"/>
+      <c r="JVS100" s="1"/>
+      <c r="JVY100" s="1"/>
+      <c r="JWE100" s="1"/>
+      <c r="JWK100" s="1"/>
+      <c r="JWQ100" s="1"/>
+      <c r="JWW100" s="1"/>
+      <c r="JXC100" s="1"/>
+      <c r="JXI100" s="1"/>
+      <c r="JXO100" s="1"/>
+      <c r="JXU100" s="1"/>
+      <c r="JYA100" s="1"/>
+      <c r="JYG100" s="1"/>
+      <c r="JYM100" s="1"/>
+      <c r="JYS100" s="1"/>
+      <c r="JYY100" s="1"/>
+      <c r="JZE100" s="1"/>
+      <c r="JZK100" s="1"/>
+      <c r="JZQ100" s="1"/>
+      <c r="JZW100" s="1"/>
+      <c r="KAC100" s="1"/>
+      <c r="KAI100" s="1"/>
+      <c r="KAO100" s="1"/>
+      <c r="KAU100" s="1"/>
+      <c r="KBA100" s="1"/>
+      <c r="KBG100" s="1"/>
+      <c r="KBM100" s="1"/>
+      <c r="KBS100" s="1"/>
+      <c r="KBY100" s="1"/>
+      <c r="KCE100" s="1"/>
+      <c r="KCK100" s="1"/>
+      <c r="KCQ100" s="1"/>
+      <c r="KCW100" s="1"/>
+      <c r="KDC100" s="1"/>
+      <c r="KDI100" s="1"/>
+      <c r="KDO100" s="1"/>
+      <c r="KDU100" s="1"/>
+      <c r="KEA100" s="1"/>
+      <c r="KEG100" s="1"/>
+      <c r="KEM100" s="1"/>
+      <c r="KES100" s="1"/>
+      <c r="KEY100" s="1"/>
+      <c r="KFE100" s="1"/>
+      <c r="KFK100" s="1"/>
+      <c r="KFQ100" s="1"/>
+      <c r="KFW100" s="1"/>
+      <c r="KGC100" s="1"/>
+      <c r="KGI100" s="1"/>
+      <c r="KGO100" s="1"/>
+      <c r="KGU100" s="1"/>
+      <c r="KHA100" s="1"/>
+      <c r="KHG100" s="1"/>
+      <c r="KHM100" s="1"/>
+      <c r="KHS100" s="1"/>
+      <c r="KHY100" s="1"/>
+      <c r="KIE100" s="1"/>
+      <c r="KIK100" s="1"/>
+      <c r="KIQ100" s="1"/>
+      <c r="KIW100" s="1"/>
+      <c r="KJC100" s="1"/>
+      <c r="KJI100" s="1"/>
+      <c r="KJO100" s="1"/>
+      <c r="KJU100" s="1"/>
+      <c r="KKA100" s="1"/>
+      <c r="KKG100" s="1"/>
+      <c r="KKM100" s="1"/>
+      <c r="KKS100" s="1"/>
+      <c r="KKY100" s="1"/>
+      <c r="KLE100" s="1"/>
+      <c r="KLK100" s="1"/>
+      <c r="KLQ100" s="1"/>
+      <c r="KLW100" s="1"/>
+      <c r="KMC100" s="1"/>
+      <c r="KMI100" s="1"/>
+      <c r="KMO100" s="1"/>
+      <c r="KMU100" s="1"/>
+      <c r="KNA100" s="1"/>
+      <c r="KNG100" s="1"/>
+      <c r="KNM100" s="1"/>
+      <c r="KNS100" s="1"/>
+      <c r="KNY100" s="1"/>
+      <c r="KOE100" s="1"/>
+      <c r="KOK100" s="1"/>
+      <c r="KOQ100" s="1"/>
+      <c r="KOW100" s="1"/>
+      <c r="KPC100" s="1"/>
+      <c r="KPI100" s="1"/>
+      <c r="KPO100" s="1"/>
+      <c r="KPU100" s="1"/>
+      <c r="KQA100" s="1"/>
+      <c r="KQG100" s="1"/>
+      <c r="KQM100" s="1"/>
+      <c r="KQS100" s="1"/>
+      <c r="KQY100" s="1"/>
+      <c r="KRE100" s="1"/>
+      <c r="KRK100" s="1"/>
+      <c r="KRQ100" s="1"/>
+      <c r="KRW100" s="1"/>
+      <c r="KSC100" s="1"/>
+      <c r="KSI100" s="1"/>
+      <c r="KSO100" s="1"/>
+      <c r="KSU100" s="1"/>
+      <c r="KTA100" s="1"/>
+      <c r="KTG100" s="1"/>
+      <c r="KTM100" s="1"/>
+      <c r="KTS100" s="1"/>
+      <c r="KTY100" s="1"/>
+      <c r="KUE100" s="1"/>
+      <c r="KUK100" s="1"/>
+      <c r="KUQ100" s="1"/>
+      <c r="KUW100" s="1"/>
+      <c r="KVC100" s="1"/>
+      <c r="KVI100" s="1"/>
+      <c r="KVO100" s="1"/>
+      <c r="KVU100" s="1"/>
+      <c r="KWA100" s="1"/>
+      <c r="KWG100" s="1"/>
+      <c r="KWM100" s="1"/>
+      <c r="KWS100" s="1"/>
+      <c r="KWY100" s="1"/>
+      <c r="KXE100" s="1"/>
+      <c r="KXK100" s="1"/>
+      <c r="KXQ100" s="1"/>
+      <c r="KXW100" s="1"/>
+      <c r="KYC100" s="1"/>
+      <c r="KYI100" s="1"/>
+      <c r="KYO100" s="1"/>
+      <c r="KYU100" s="1"/>
+      <c r="KZA100" s="1"/>
+      <c r="KZG100" s="1"/>
+      <c r="KZM100" s="1"/>
+      <c r="KZS100" s="1"/>
+      <c r="KZY100" s="1"/>
+      <c r="LAE100" s="1"/>
+      <c r="LAK100" s="1"/>
+      <c r="LAQ100" s="1"/>
+      <c r="LAW100" s="1"/>
+      <c r="LBC100" s="1"/>
+      <c r="LBI100" s="1"/>
+      <c r="LBO100" s="1"/>
+      <c r="LBU100" s="1"/>
+      <c r="LCA100" s="1"/>
+      <c r="LCG100" s="1"/>
+      <c r="LCM100" s="1"/>
+      <c r="LCS100" s="1"/>
+      <c r="LCY100" s="1"/>
+      <c r="LDE100" s="1"/>
+      <c r="LDK100" s="1"/>
+      <c r="LDQ100" s="1"/>
+      <c r="LDW100" s="1"/>
+      <c r="LEC100" s="1"/>
+      <c r="LEI100" s="1"/>
+      <c r="LEO100" s="1"/>
+      <c r="LEU100" s="1"/>
+      <c r="LFA100" s="1"/>
+      <c r="LFG100" s="1"/>
+      <c r="LFM100" s="1"/>
+      <c r="LFS100" s="1"/>
+      <c r="LFY100" s="1"/>
+      <c r="LGE100" s="1"/>
+      <c r="LGK100" s="1"/>
+      <c r="LGQ100" s="1"/>
+      <c r="LGW100" s="1"/>
+      <c r="LHC100" s="1"/>
+      <c r="LHI100" s="1"/>
+      <c r="LHO100" s="1"/>
+      <c r="LHU100" s="1"/>
+      <c r="LIA100" s="1"/>
+      <c r="LIG100" s="1"/>
+      <c r="LIM100" s="1"/>
+      <c r="LIS100" s="1"/>
+      <c r="LIY100" s="1"/>
+      <c r="LJE100" s="1"/>
+      <c r="LJK100" s="1"/>
+      <c r="LJQ100" s="1"/>
+      <c r="LJW100" s="1"/>
+      <c r="LKC100" s="1"/>
+      <c r="LKI100" s="1"/>
+      <c r="LKO100" s="1"/>
+      <c r="LKU100" s="1"/>
+      <c r="LLA100" s="1"/>
+      <c r="LLG100" s="1"/>
+      <c r="LLM100" s="1"/>
+      <c r="LLS100" s="1"/>
+      <c r="LLY100" s="1"/>
+      <c r="LME100" s="1"/>
+      <c r="LMK100" s="1"/>
+      <c r="LMQ100" s="1"/>
+      <c r="LMW100" s="1"/>
+      <c r="LNC100" s="1"/>
+      <c r="LNI100" s="1"/>
+      <c r="LNO100" s="1"/>
+      <c r="LNU100" s="1"/>
+      <c r="LOA100" s="1"/>
+      <c r="LOG100" s="1"/>
+      <c r="LOM100" s="1"/>
+      <c r="LOS100" s="1"/>
+      <c r="LOY100" s="1"/>
+      <c r="LPE100" s="1"/>
+      <c r="LPK100" s="1"/>
+      <c r="LPQ100" s="1"/>
+      <c r="LPW100" s="1"/>
+      <c r="LQC100" s="1"/>
+      <c r="LQI100" s="1"/>
+      <c r="LQO100" s="1"/>
+      <c r="LQU100" s="1"/>
+      <c r="LRA100" s="1"/>
+      <c r="LRG100" s="1"/>
+      <c r="LRM100" s="1"/>
+      <c r="LRS100" s="1"/>
+      <c r="LRY100" s="1"/>
+      <c r="LSE100" s="1"/>
+      <c r="LSK100" s="1"/>
+      <c r="LSQ100" s="1"/>
+      <c r="LSW100" s="1"/>
+      <c r="LTC100" s="1"/>
+      <c r="LTI100" s="1"/>
+      <c r="LTO100" s="1"/>
+      <c r="LTU100" s="1"/>
+      <c r="LUA100" s="1"/>
+      <c r="LUG100" s="1"/>
+      <c r="LUM100" s="1"/>
+      <c r="LUS100" s="1"/>
+      <c r="LUY100" s="1"/>
+      <c r="LVE100" s="1"/>
+      <c r="LVK100" s="1"/>
+      <c r="LVQ100" s="1"/>
+      <c r="LVW100" s="1"/>
+      <c r="LWC100" s="1"/>
+      <c r="LWI100" s="1"/>
+      <c r="LWO100" s="1"/>
+      <c r="LWU100" s="1"/>
+      <c r="LXA100" s="1"/>
+      <c r="LXG100" s="1"/>
+      <c r="LXM100" s="1"/>
+      <c r="LXS100" s="1"/>
+      <c r="LXY100" s="1"/>
+      <c r="LYE100" s="1"/>
+      <c r="LYK100" s="1"/>
+      <c r="LYQ100" s="1"/>
+      <c r="LYW100" s="1"/>
+      <c r="LZC100" s="1"/>
+      <c r="LZI100" s="1"/>
+      <c r="LZO100" s="1"/>
+      <c r="LZU100" s="1"/>
+      <c r="MAA100" s="1"/>
+      <c r="MAG100" s="1"/>
+      <c r="MAM100" s="1"/>
+      <c r="MAS100" s="1"/>
+      <c r="MAY100" s="1"/>
+      <c r="MBE100" s="1"/>
+      <c r="MBK100" s="1"/>
+      <c r="MBQ100" s="1"/>
+      <c r="MBW100" s="1"/>
+      <c r="MCC100" s="1"/>
+      <c r="MCI100" s="1"/>
+      <c r="MCO100" s="1"/>
+      <c r="MCU100" s="1"/>
+      <c r="MDA100" s="1"/>
+      <c r="MDG100" s="1"/>
+      <c r="MDM100" s="1"/>
+      <c r="MDS100" s="1"/>
+      <c r="MDY100" s="1"/>
+      <c r="MEE100" s="1"/>
+      <c r="MEK100" s="1"/>
+      <c r="MEQ100" s="1"/>
+      <c r="MEW100" s="1"/>
+      <c r="MFC100" s="1"/>
+      <c r="MFI100" s="1"/>
+      <c r="MFO100" s="1"/>
+      <c r="MFU100" s="1"/>
+      <c r="MGA100" s="1"/>
+      <c r="MGG100" s="1"/>
+      <c r="MGM100" s="1"/>
+      <c r="MGS100" s="1"/>
+      <c r="MGY100" s="1"/>
+      <c r="MHE100" s="1"/>
+      <c r="MHK100" s="1"/>
+      <c r="MHQ100" s="1"/>
+      <c r="MHW100" s="1"/>
+      <c r="MIC100" s="1"/>
+      <c r="MII100" s="1"/>
+      <c r="MIO100" s="1"/>
+      <c r="MIU100" s="1"/>
+      <c r="MJA100" s="1"/>
+      <c r="MJG100" s="1"/>
+      <c r="MJM100" s="1"/>
+      <c r="MJS100" s="1"/>
+      <c r="MJY100" s="1"/>
+      <c r="MKE100" s="1"/>
+      <c r="MKK100" s="1"/>
+      <c r="MKQ100" s="1"/>
+      <c r="MKW100" s="1"/>
+      <c r="MLC100" s="1"/>
+      <c r="MLI100" s="1"/>
+      <c r="MLO100" s="1"/>
+      <c r="MLU100" s="1"/>
+      <c r="MMA100" s="1"/>
+      <c r="MMG100" s="1"/>
+      <c r="MMM100" s="1"/>
+      <c r="MMS100" s="1"/>
+      <c r="MMY100" s="1"/>
+      <c r="MNE100" s="1"/>
+      <c r="MNK100" s="1"/>
+      <c r="MNQ100" s="1"/>
+      <c r="MNW100" s="1"/>
+      <c r="MOC100" s="1"/>
+      <c r="MOI100" s="1"/>
+      <c r="MOO100" s="1"/>
+      <c r="MOU100" s="1"/>
+      <c r="MPA100" s="1"/>
+      <c r="MPG100" s="1"/>
+      <c r="MPM100" s="1"/>
+      <c r="MPS100" s="1"/>
+      <c r="MPY100" s="1"/>
+      <c r="MQE100" s="1"/>
+      <c r="MQK100" s="1"/>
+      <c r="MQQ100" s="1"/>
+      <c r="MQW100" s="1"/>
+      <c r="MRC100" s="1"/>
+      <c r="MRI100" s="1"/>
+      <c r="MRO100" s="1"/>
+      <c r="MRU100" s="1"/>
+      <c r="MSA100" s="1"/>
+      <c r="MSG100" s="1"/>
+      <c r="MSM100" s="1"/>
+      <c r="MSS100" s="1"/>
+      <c r="MSY100" s="1"/>
+      <c r="MTE100" s="1"/>
+      <c r="MTK100" s="1"/>
+      <c r="MTQ100" s="1"/>
+      <c r="MTW100" s="1"/>
+      <c r="MUC100" s="1"/>
+      <c r="MUI100" s="1"/>
+      <c r="MUO100" s="1"/>
+      <c r="MUU100" s="1"/>
+      <c r="MVA100" s="1"/>
+      <c r="MVG100" s="1"/>
+      <c r="MVM100" s="1"/>
+      <c r="MVS100" s="1"/>
+      <c r="MVY100" s="1"/>
+      <c r="MWE100" s="1"/>
+      <c r="MWK100" s="1"/>
+      <c r="MWQ100" s="1"/>
+      <c r="MWW100" s="1"/>
+      <c r="MXC100" s="1"/>
+      <c r="MXI100" s="1"/>
+      <c r="MXO100" s="1"/>
+      <c r="MXU100" s="1"/>
+      <c r="MYA100" s="1"/>
+      <c r="MYG100" s="1"/>
+      <c r="MYM100" s="1"/>
+      <c r="MYS100" s="1"/>
+      <c r="MYY100" s="1"/>
+      <c r="MZE100" s="1"/>
+      <c r="MZK100" s="1"/>
+      <c r="MZQ100" s="1"/>
+      <c r="MZW100" s="1"/>
+      <c r="NAC100" s="1"/>
+      <c r="NAI100" s="1"/>
+      <c r="NAO100" s="1"/>
+      <c r="NAU100" s="1"/>
+      <c r="NBA100" s="1"/>
+      <c r="NBG100" s="1"/>
+      <c r="NBM100" s="1"/>
+      <c r="NBS100" s="1"/>
+      <c r="NBY100" s="1"/>
+      <c r="NCE100" s="1"/>
+      <c r="NCK100" s="1"/>
+      <c r="NCQ100" s="1"/>
+      <c r="NCW100" s="1"/>
+      <c r="NDC100" s="1"/>
+      <c r="NDI100" s="1"/>
+      <c r="NDO100" s="1"/>
+      <c r="NDU100" s="1"/>
+      <c r="NEA100" s="1"/>
+      <c r="NEG100" s="1"/>
+      <c r="NEM100" s="1"/>
+      <c r="NES100" s="1"/>
+      <c r="NEY100" s="1"/>
+      <c r="NFE100" s="1"/>
+      <c r="NFK100" s="1"/>
+      <c r="NFQ100" s="1"/>
+      <c r="NFW100" s="1"/>
+      <c r="NGC100" s="1"/>
+      <c r="NGI100" s="1"/>
+      <c r="NGO100" s="1"/>
+      <c r="NGU100" s="1"/>
+      <c r="NHA100" s="1"/>
+      <c r="NHG100" s="1"/>
+      <c r="NHM100" s="1"/>
+      <c r="NHS100" s="1"/>
+      <c r="NHY100" s="1"/>
+      <c r="NIE100" s="1"/>
+      <c r="NIK100" s="1"/>
+      <c r="NIQ100" s="1"/>
+      <c r="NIW100" s="1"/>
+      <c r="NJC100" s="1"/>
+      <c r="NJI100" s="1"/>
+      <c r="NJO100" s="1"/>
+      <c r="NJU100" s="1"/>
+      <c r="NKA100" s="1"/>
+      <c r="NKG100" s="1"/>
+      <c r="NKM100" s="1"/>
+      <c r="NKS100" s="1"/>
+      <c r="NKY100" s="1"/>
+      <c r="NLE100" s="1"/>
+      <c r="NLK100" s="1"/>
+      <c r="NLQ100" s="1"/>
+      <c r="NLW100" s="1"/>
+      <c r="NMC100" s="1"/>
+      <c r="NMI100" s="1"/>
+      <c r="NMO100" s="1"/>
+      <c r="NMU100" s="1"/>
+      <c r="NNA100" s="1"/>
+      <c r="NNG100" s="1"/>
+      <c r="NNM100" s="1"/>
+      <c r="NNS100" s="1"/>
+      <c r="NNY100" s="1"/>
+      <c r="NOE100" s="1"/>
+      <c r="NOK100" s="1"/>
+      <c r="NOQ100" s="1"/>
+      <c r="NOW100" s="1"/>
+      <c r="NPC100" s="1"/>
+      <c r="NPI100" s="1"/>
+      <c r="NPO100" s="1"/>
+      <c r="NPU100" s="1"/>
+      <c r="NQA100" s="1"/>
+      <c r="NQG100" s="1"/>
+      <c r="NQM100" s="1"/>
+      <c r="NQS100" s="1"/>
+      <c r="NQY100" s="1"/>
+      <c r="NRE100" s="1"/>
+      <c r="NRK100" s="1"/>
+      <c r="NRQ100" s="1"/>
+      <c r="NRW100" s="1"/>
+      <c r="NSC100" s="1"/>
+      <c r="NSI100" s="1"/>
+      <c r="NSO100" s="1"/>
+      <c r="NSU100" s="1"/>
+      <c r="NTA100" s="1"/>
+      <c r="NTG100" s="1"/>
+      <c r="NTM100" s="1"/>
+      <c r="NTS100" s="1"/>
+      <c r="NTY100" s="1"/>
+      <c r="NUE100" s="1"/>
+      <c r="NUK100" s="1"/>
+      <c r="NUQ100" s="1"/>
+      <c r="NUW100" s="1"/>
+      <c r="NVC100" s="1"/>
+      <c r="NVI100" s="1"/>
+      <c r="NVO100" s="1"/>
+      <c r="NVU100" s="1"/>
+      <c r="NWA100" s="1"/>
+      <c r="NWG100" s="1"/>
+      <c r="NWM100" s="1"/>
+      <c r="NWS100" s="1"/>
+      <c r="NWY100" s="1"/>
+      <c r="NXE100" s="1"/>
+      <c r="NXK100" s="1"/>
+      <c r="NXQ100" s="1"/>
+      <c r="NXW100" s="1"/>
+      <c r="NYC100" s="1"/>
+      <c r="NYI100" s="1"/>
+      <c r="NYO100" s="1"/>
+      <c r="NYU100" s="1"/>
+      <c r="NZA100" s="1"/>
+      <c r="NZG100" s="1"/>
+      <c r="NZM100" s="1"/>
+      <c r="NZS100" s="1"/>
+      <c r="NZY100" s="1"/>
+      <c r="OAE100" s="1"/>
+      <c r="OAK100" s="1"/>
+      <c r="OAQ100" s="1"/>
+      <c r="OAW100" s="1"/>
+      <c r="OBC100" s="1"/>
+      <c r="OBI100" s="1"/>
+      <c r="OBO100" s="1"/>
+      <c r="OBU100" s="1"/>
+      <c r="OCA100" s="1"/>
+      <c r="OCG100" s="1"/>
+      <c r="OCM100" s="1"/>
+      <c r="OCS100" s="1"/>
+      <c r="OCY100" s="1"/>
+      <c r="ODE100" s="1"/>
+      <c r="ODK100" s="1"/>
+      <c r="ODQ100" s="1"/>
+      <c r="ODW100" s="1"/>
+      <c r="OEC100" s="1"/>
+      <c r="OEI100" s="1"/>
+      <c r="OEO100" s="1"/>
+      <c r="OEU100" s="1"/>
+      <c r="OFA100" s="1"/>
+      <c r="OFG100" s="1"/>
+      <c r="OFM100" s="1"/>
+      <c r="OFS100" s="1"/>
+      <c r="OFY100" s="1"/>
+      <c r="OGE100" s="1"/>
+      <c r="OGK100" s="1"/>
+      <c r="OGQ100" s="1"/>
+      <c r="OGW100" s="1"/>
+      <c r="OHC100" s="1"/>
+      <c r="OHI100" s="1"/>
+      <c r="OHO100" s="1"/>
+      <c r="OHU100" s="1"/>
+      <c r="OIA100" s="1"/>
+      <c r="OIG100" s="1"/>
+      <c r="OIM100" s="1"/>
+      <c r="OIS100" s="1"/>
+      <c r="OIY100" s="1"/>
+      <c r="OJE100" s="1"/>
+      <c r="OJK100" s="1"/>
+      <c r="OJQ100" s="1"/>
+      <c r="OJW100" s="1"/>
+      <c r="OKC100" s="1"/>
+      <c r="OKI100" s="1"/>
+      <c r="OKO100" s="1"/>
+      <c r="OKU100" s="1"/>
+      <c r="OLA100" s="1"/>
+      <c r="OLG100" s="1"/>
+      <c r="OLM100" s="1"/>
+      <c r="OLS100" s="1"/>
+      <c r="OLY100" s="1"/>
+      <c r="OME100" s="1"/>
+      <c r="OMK100" s="1"/>
+      <c r="OMQ100" s="1"/>
+      <c r="OMW100" s="1"/>
+      <c r="ONC100" s="1"/>
+      <c r="ONI100" s="1"/>
+      <c r="ONO100" s="1"/>
+      <c r="ONU100" s="1"/>
+      <c r="OOA100" s="1"/>
+      <c r="OOG100" s="1"/>
+      <c r="OOM100" s="1"/>
+      <c r="OOS100" s="1"/>
+      <c r="OOY100" s="1"/>
+      <c r="OPE100" s="1"/>
+      <c r="OPK100" s="1"/>
+      <c r="OPQ100" s="1"/>
+      <c r="OPW100" s="1"/>
+      <c r="OQC100" s="1"/>
+      <c r="OQI100" s="1"/>
+      <c r="OQO100" s="1"/>
+      <c r="OQU100" s="1"/>
+      <c r="ORA100" s="1"/>
+      <c r="ORG100" s="1"/>
+      <c r="ORM100" s="1"/>
+      <c r="ORS100" s="1"/>
+      <c r="ORY100" s="1"/>
+      <c r="OSE100" s="1"/>
+      <c r="OSK100" s="1"/>
+      <c r="OSQ100" s="1"/>
+      <c r="OSW100" s="1"/>
+      <c r="OTC100" s="1"/>
+      <c r="OTI100" s="1"/>
+      <c r="OTO100" s="1"/>
+      <c r="OTU100" s="1"/>
+      <c r="OUA100" s="1"/>
+      <c r="OUG100" s="1"/>
+      <c r="OUM100" s="1"/>
+      <c r="OUS100" s="1"/>
+      <c r="OUY100" s="1"/>
+      <c r="OVE100" s="1"/>
+      <c r="OVK100" s="1"/>
+      <c r="OVQ100" s="1"/>
+      <c r="OVW100" s="1"/>
+      <c r="OWC100" s="1"/>
+      <c r="OWI100" s="1"/>
+      <c r="OWO100" s="1"/>
+      <c r="OWU100" s="1"/>
+      <c r="OXA100" s="1"/>
+      <c r="OXG100" s="1"/>
+      <c r="OXM100" s="1"/>
+      <c r="OXS100" s="1"/>
+      <c r="OXY100" s="1"/>
+      <c r="OYE100" s="1"/>
+      <c r="OYK100" s="1"/>
+      <c r="OYQ100" s="1"/>
+      <c r="OYW100" s="1"/>
+      <c r="OZC100" s="1"/>
+      <c r="OZI100" s="1"/>
+      <c r="OZO100" s="1"/>
+      <c r="OZU100" s="1"/>
+      <c r="PAA100" s="1"/>
+      <c r="PAG100" s="1"/>
+      <c r="PAM100" s="1"/>
+      <c r="PAS100" s="1"/>
+      <c r="PAY100" s="1"/>
+      <c r="PBE100" s="1"/>
+      <c r="PBK100" s="1"/>
+      <c r="PBQ100" s="1"/>
+      <c r="PBW100" s="1"/>
+      <c r="PCC100" s="1"/>
+      <c r="PCI100" s="1"/>
+      <c r="PCO100" s="1"/>
+      <c r="PCU100" s="1"/>
+      <c r="PDA100" s="1"/>
+      <c r="PDG100" s="1"/>
+      <c r="PDM100" s="1"/>
+      <c r="PDS100" s="1"/>
+      <c r="PDY100" s="1"/>
+      <c r="PEE100" s="1"/>
+      <c r="PEK100" s="1"/>
+      <c r="PEQ100" s="1"/>
+      <c r="PEW100" s="1"/>
+      <c r="PFC100" s="1"/>
+      <c r="PFI100" s="1"/>
+      <c r="PFO100" s="1"/>
+      <c r="PFU100" s="1"/>
+      <c r="PGA100" s="1"/>
+      <c r="PGG100" s="1"/>
+      <c r="PGM100" s="1"/>
+      <c r="PGS100" s="1"/>
+      <c r="PGY100" s="1"/>
+      <c r="PHE100" s="1"/>
+      <c r="PHK100" s="1"/>
+      <c r="PHQ100" s="1"/>
+      <c r="PHW100" s="1"/>
+      <c r="PIC100" s="1"/>
+      <c r="PII100" s="1"/>
+      <c r="PIO100" s="1"/>
+      <c r="PIU100" s="1"/>
+      <c r="PJA100" s="1"/>
+      <c r="PJG100" s="1"/>
+      <c r="PJM100" s="1"/>
+      <c r="PJS100" s="1"/>
+      <c r="PJY100" s="1"/>
+      <c r="PKE100" s="1"/>
+      <c r="PKK100" s="1"/>
+      <c r="PKQ100" s="1"/>
+      <c r="PKW100" s="1"/>
+      <c r="PLC100" s="1"/>
+      <c r="PLI100" s="1"/>
+      <c r="PLO100" s="1"/>
+      <c r="PLU100" s="1"/>
+      <c r="PMA100" s="1"/>
+      <c r="PMG100" s="1"/>
+      <c r="PMM100" s="1"/>
+      <c r="PMS100" s="1"/>
+      <c r="PMY100" s="1"/>
+      <c r="PNE100" s="1"/>
+      <c r="PNK100" s="1"/>
+      <c r="PNQ100" s="1"/>
+      <c r="PNW100" s="1"/>
+      <c r="POC100" s="1"/>
+      <c r="POI100" s="1"/>
+      <c r="POO100" s="1"/>
+      <c r="POU100" s="1"/>
+      <c r="PPA100" s="1"/>
+      <c r="PPG100" s="1"/>
+      <c r="PPM100" s="1"/>
+      <c r="PPS100" s="1"/>
+      <c r="PPY100" s="1"/>
+      <c r="PQE100" s="1"/>
+      <c r="PQK100" s="1"/>
+      <c r="PQQ100" s="1"/>
+      <c r="PQW100" s="1"/>
+      <c r="PRC100" s="1"/>
+      <c r="PRI100" s="1"/>
+      <c r="PRO100" s="1"/>
+      <c r="PRU100" s="1"/>
+      <c r="PSA100" s="1"/>
+      <c r="PSG100" s="1"/>
+      <c r="PSM100" s="1"/>
+      <c r="PSS100" s="1"/>
+      <c r="PSY100" s="1"/>
+      <c r="PTE100" s="1"/>
+      <c r="PTK100" s="1"/>
+      <c r="PTQ100" s="1"/>
+      <c r="PTW100" s="1"/>
+      <c r="PUC100" s="1"/>
+      <c r="PUI100" s="1"/>
+      <c r="PUO100" s="1"/>
+      <c r="PUU100" s="1"/>
+      <c r="PVA100" s="1"/>
+      <c r="PVG100" s="1"/>
+      <c r="PVM100" s="1"/>
+      <c r="PVS100" s="1"/>
+      <c r="PVY100" s="1"/>
+      <c r="PWE100" s="1"/>
+      <c r="PWK100" s="1"/>
+      <c r="PWQ100" s="1"/>
+      <c r="PWW100" s="1"/>
+      <c r="PXC100" s="1"/>
+      <c r="PXI100" s="1"/>
+      <c r="PXO100" s="1"/>
+      <c r="PXU100" s="1"/>
+      <c r="PYA100" s="1"/>
+      <c r="PYG100" s="1"/>
+      <c r="PYM100" s="1"/>
+      <c r="PYS100" s="1"/>
+      <c r="PYY100" s="1"/>
+      <c r="PZE100" s="1"/>
+      <c r="PZK100" s="1"/>
+      <c r="PZQ100" s="1"/>
+      <c r="PZW100" s="1"/>
+      <c r="QAC100" s="1"/>
+      <c r="QAI100" s="1"/>
+      <c r="QAO100" s="1"/>
+      <c r="QAU100" s="1"/>
+      <c r="QBA100" s="1"/>
+      <c r="QBG100" s="1"/>
+      <c r="QBM100" s="1"/>
+      <c r="QBS100" s="1"/>
+      <c r="QBY100" s="1"/>
+      <c r="QCE100" s="1"/>
+      <c r="QCK100" s="1"/>
+      <c r="QCQ100" s="1"/>
+      <c r="QCW100" s="1"/>
+      <c r="QDC100" s="1"/>
+      <c r="QDI100" s="1"/>
+      <c r="QDO100" s="1"/>
+      <c r="QDU100" s="1"/>
+      <c r="QEA100" s="1"/>
+      <c r="QEG100" s="1"/>
+      <c r="QEM100" s="1"/>
+      <c r="QES100" s="1"/>
+      <c r="QEY100" s="1"/>
+      <c r="QFE100" s="1"/>
+      <c r="QFK100" s="1"/>
+      <c r="QFQ100" s="1"/>
+      <c r="QFW100" s="1"/>
+      <c r="QGC100" s="1"/>
+      <c r="QGI100" s="1"/>
+      <c r="QGO100" s="1"/>
+      <c r="QGU100" s="1"/>
+      <c r="QHA100" s="1"/>
+      <c r="QHG100" s="1"/>
+      <c r="QHM100" s="1"/>
+      <c r="QHS100" s="1"/>
+      <c r="QHY100" s="1"/>
+      <c r="QIE100" s="1"/>
+      <c r="QIK100" s="1"/>
+      <c r="QIQ100" s="1"/>
+      <c r="QIW100" s="1"/>
+      <c r="QJC100" s="1"/>
+      <c r="QJI100" s="1"/>
+      <c r="QJO100" s="1"/>
+      <c r="QJU100" s="1"/>
+      <c r="QKA100" s="1"/>
+      <c r="QKG100" s="1"/>
+      <c r="QKM100" s="1"/>
+      <c r="QKS100" s="1"/>
+      <c r="QKY100" s="1"/>
+      <c r="QLE100" s="1"/>
+      <c r="QLK100" s="1"/>
+      <c r="QLQ100" s="1"/>
+      <c r="QLW100" s="1"/>
+      <c r="QMC100" s="1"/>
+      <c r="QMI100" s="1"/>
+      <c r="QMO100" s="1"/>
+      <c r="QMU100" s="1"/>
+      <c r="QNA100" s="1"/>
+      <c r="QNG100" s="1"/>
+      <c r="QNM100" s="1"/>
+      <c r="QNS100" s="1"/>
+      <c r="QNY100" s="1"/>
+      <c r="QOE100" s="1"/>
+      <c r="QOK100" s="1"/>
+      <c r="QOQ100" s="1"/>
+      <c r="QOW100" s="1"/>
+      <c r="QPC100" s="1"/>
+      <c r="QPI100" s="1"/>
+      <c r="QPO100" s="1"/>
+      <c r="QPU100" s="1"/>
+      <c r="QQA100" s="1"/>
+      <c r="QQG100" s="1"/>
+      <c r="QQM100" s="1"/>
+      <c r="QQS100" s="1"/>
+      <c r="QQY100" s="1"/>
+      <c r="QRE100" s="1"/>
+      <c r="QRK100" s="1"/>
+      <c r="QRQ100" s="1"/>
+      <c r="QRW100" s="1"/>
+      <c r="QSC100" s="1"/>
+      <c r="QSI100" s="1"/>
+      <c r="QSO100" s="1"/>
+      <c r="QSU100" s="1"/>
+      <c r="QTA100" s="1"/>
+      <c r="QTG100" s="1"/>
+      <c r="QTM100" s="1"/>
+      <c r="QTS100" s="1"/>
+      <c r="QTY100" s="1"/>
+      <c r="QUE100" s="1"/>
+      <c r="QUK100" s="1"/>
+      <c r="QUQ100" s="1"/>
+      <c r="QUW100" s="1"/>
+      <c r="QVC100" s="1"/>
+      <c r="QVI100" s="1"/>
+      <c r="QVO100" s="1"/>
+      <c r="QVU100" s="1"/>
+      <c r="QWA100" s="1"/>
+      <c r="QWG100" s="1"/>
+      <c r="QWM100" s="1"/>
+      <c r="QWS100" s="1"/>
+      <c r="QWY100" s="1"/>
+      <c r="QXE100" s="1"/>
+      <c r="QXK100" s="1"/>
+      <c r="QXQ100" s="1"/>
+      <c r="QXW100" s="1"/>
+      <c r="QYC100" s="1"/>
+      <c r="QYI100" s="1"/>
+      <c r="QYO100" s="1"/>
+      <c r="QYU100" s="1"/>
+      <c r="QZA100" s="1"/>
+      <c r="QZG100" s="1"/>
+      <c r="QZM100" s="1"/>
+      <c r="QZS100" s="1"/>
+      <c r="QZY100" s="1"/>
+      <c r="RAE100" s="1"/>
+      <c r="RAK100" s="1"/>
+      <c r="RAQ100" s="1"/>
+      <c r="RAW100" s="1"/>
+      <c r="RBC100" s="1"/>
+      <c r="RBI100" s="1"/>
+      <c r="RBO100" s="1"/>
+      <c r="RBU100" s="1"/>
+      <c r="RCA100" s="1"/>
+      <c r="RCG100" s="1"/>
+      <c r="RCM100" s="1"/>
+      <c r="RCS100" s="1"/>
+      <c r="RCY100" s="1"/>
+      <c r="RDE100" s="1"/>
+      <c r="RDK100" s="1"/>
+      <c r="RDQ100" s="1"/>
+      <c r="RDW100" s="1"/>
+      <c r="REC100" s="1"/>
+      <c r="REI100" s="1"/>
+      <c r="REO100" s="1"/>
+      <c r="REU100" s="1"/>
+      <c r="RFA100" s="1"/>
+      <c r="RFG100" s="1"/>
+      <c r="RFM100" s="1"/>
+      <c r="RFS100" s="1"/>
+      <c r="RFY100" s="1"/>
+      <c r="RGE100" s="1"/>
+      <c r="RGK100" s="1"/>
+      <c r="RGQ100" s="1"/>
+      <c r="RGW100" s="1"/>
+      <c r="RHC100" s="1"/>
+      <c r="RHI100" s="1"/>
+      <c r="RHO100" s="1"/>
+      <c r="RHU100" s="1"/>
+      <c r="RIA100" s="1"/>
+      <c r="RIG100" s="1"/>
+      <c r="RIM100" s="1"/>
+      <c r="RIS100" s="1"/>
+      <c r="RIY100" s="1"/>
+      <c r="RJE100" s="1"/>
+      <c r="RJK100" s="1"/>
+      <c r="RJQ100" s="1"/>
+      <c r="RJW100" s="1"/>
+      <c r="RKC100" s="1"/>
+      <c r="RKI100" s="1"/>
+      <c r="RKO100" s="1"/>
+      <c r="RKU100" s="1"/>
+      <c r="RLA100" s="1"/>
+      <c r="RLG100" s="1"/>
+      <c r="RLM100" s="1"/>
+      <c r="RLS100" s="1"/>
+      <c r="RLY100" s="1"/>
+      <c r="RME100" s="1"/>
+      <c r="RMK100" s="1"/>
+      <c r="RMQ100" s="1"/>
+      <c r="RMW100" s="1"/>
+      <c r="RNC100" s="1"/>
+      <c r="RNI100" s="1"/>
+      <c r="RNO100" s="1"/>
+      <c r="RNU100" s="1"/>
+      <c r="ROA100" s="1"/>
+      <c r="ROG100" s="1"/>
+      <c r="ROM100" s="1"/>
+      <c r="ROS100" s="1"/>
+      <c r="ROY100" s="1"/>
+      <c r="RPE100" s="1"/>
+      <c r="RPK100" s="1"/>
+      <c r="RPQ100" s="1"/>
+      <c r="RPW100" s="1"/>
+      <c r="RQC100" s="1"/>
+      <c r="RQI100" s="1"/>
+      <c r="RQO100" s="1"/>
+      <c r="RQU100" s="1"/>
+      <c r="RRA100" s="1"/>
+      <c r="RRG100" s="1"/>
+      <c r="RRM100" s="1"/>
+      <c r="RRS100" s="1"/>
+      <c r="RRY100" s="1"/>
+      <c r="RSE100" s="1"/>
+      <c r="RSK100" s="1"/>
+      <c r="RSQ100" s="1"/>
+      <c r="RSW100" s="1"/>
+      <c r="RTC100" s="1"/>
+      <c r="RTI100" s="1"/>
+      <c r="RTO100" s="1"/>
+      <c r="RTU100" s="1"/>
+      <c r="RUA100" s="1"/>
+      <c r="RUG100" s="1"/>
+      <c r="RUM100" s="1"/>
+      <c r="RUS100" s="1"/>
+      <c r="RUY100" s="1"/>
+      <c r="RVE100" s="1"/>
+      <c r="RVK100" s="1"/>
+      <c r="RVQ100" s="1"/>
+      <c r="RVW100" s="1"/>
+      <c r="RWC100" s="1"/>
+      <c r="RWI100" s="1"/>
+      <c r="RWO100" s="1"/>
+      <c r="RWU100" s="1"/>
+      <c r="RXA100" s="1"/>
+      <c r="RXG100" s="1"/>
+      <c r="RXM100" s="1"/>
+      <c r="RXS100" s="1"/>
+      <c r="RXY100" s="1"/>
+      <c r="RYE100" s="1"/>
+      <c r="RYK100" s="1"/>
+      <c r="RYQ100" s="1"/>
+      <c r="RYW100" s="1"/>
+      <c r="RZC100" s="1"/>
+      <c r="RZI100" s="1"/>
+      <c r="RZO100" s="1"/>
+      <c r="RZU100" s="1"/>
+      <c r="SAA100" s="1"/>
+      <c r="SAG100" s="1"/>
+      <c r="SAM100" s="1"/>
+      <c r="SAS100" s="1"/>
+      <c r="SAY100" s="1"/>
+      <c r="SBE100" s="1"/>
+      <c r="SBK100" s="1"/>
+      <c r="SBQ100" s="1"/>
+      <c r="SBW100" s="1"/>
+      <c r="SCC100" s="1"/>
+      <c r="SCI100" s="1"/>
+      <c r="SCO100" s="1"/>
+      <c r="SCU100" s="1"/>
+      <c r="SDA100" s="1"/>
+      <c r="SDG100" s="1"/>
+      <c r="SDM100" s="1"/>
+      <c r="SDS100" s="1"/>
+      <c r="SDY100" s="1"/>
+      <c r="SEE100" s="1"/>
+      <c r="SEK100" s="1"/>
+      <c r="SEQ100" s="1"/>
+      <c r="SEW100" s="1"/>
+      <c r="SFC100" s="1"/>
+      <c r="SFI100" s="1"/>
+      <c r="SFO100" s="1"/>
+      <c r="SFU100" s="1"/>
+      <c r="SGA100" s="1"/>
+      <c r="SGG100" s="1"/>
+      <c r="SGM100" s="1"/>
+      <c r="SGS100" s="1"/>
+      <c r="SGY100" s="1"/>
+      <c r="SHE100" s="1"/>
+      <c r="SHK100" s="1"/>
+      <c r="SHQ100" s="1"/>
+      <c r="SHW100" s="1"/>
+      <c r="SIC100" s="1"/>
+      <c r="SII100" s="1"/>
+      <c r="SIO100" s="1"/>
+      <c r="SIU100" s="1"/>
+      <c r="SJA100" s="1"/>
+      <c r="SJG100" s="1"/>
+      <c r="SJM100" s="1"/>
+      <c r="SJS100" s="1"/>
+      <c r="SJY100" s="1"/>
+      <c r="SKE100" s="1"/>
+      <c r="SKK100" s="1"/>
+      <c r="SKQ100" s="1"/>
+      <c r="SKW100" s="1"/>
+      <c r="SLC100" s="1"/>
+      <c r="SLI100" s="1"/>
+      <c r="SLO100" s="1"/>
+      <c r="SLU100" s="1"/>
+      <c r="SMA100" s="1"/>
+      <c r="SMG100" s="1"/>
+      <c r="SMM100" s="1"/>
+      <c r="SMS100" s="1"/>
+      <c r="SMY100" s="1"/>
+      <c r="SNE100" s="1"/>
+      <c r="SNK100" s="1"/>
+      <c r="SNQ100" s="1"/>
+      <c r="SNW100" s="1"/>
+      <c r="SOC100" s="1"/>
+      <c r="SOI100" s="1"/>
+      <c r="SOO100" s="1"/>
+      <c r="SOU100" s="1"/>
+      <c r="SPA100" s="1"/>
+      <c r="SPG100" s="1"/>
+      <c r="SPM100" s="1"/>
+      <c r="SPS100" s="1"/>
+      <c r="SPY100" s="1"/>
+      <c r="SQE100" s="1"/>
+      <c r="SQK100" s="1"/>
+      <c r="SQQ100" s="1"/>
+      <c r="SQW100" s="1"/>
+      <c r="SRC100" s="1"/>
+      <c r="SRI100" s="1"/>
+      <c r="SRO100" s="1"/>
+      <c r="SRU100" s="1"/>
+      <c r="SSA100" s="1"/>
+      <c r="SSG100" s="1"/>
+      <c r="SSM100" s="1"/>
+      <c r="SSS100" s="1"/>
+      <c r="SSY100" s="1"/>
+      <c r="STE100" s="1"/>
+      <c r="STK100" s="1"/>
+      <c r="STQ100" s="1"/>
+      <c r="STW100" s="1"/>
+      <c r="SUC100" s="1"/>
+      <c r="SUI100" s="1"/>
+      <c r="SUO100" s="1"/>
+      <c r="SUU100" s="1"/>
+      <c r="SVA100" s="1"/>
+      <c r="SVG100" s="1"/>
+      <c r="SVM100" s="1"/>
+      <c r="SVS100" s="1"/>
+      <c r="SVY100" s="1"/>
+      <c r="SWE100" s="1"/>
+      <c r="SWK100" s="1"/>
+      <c r="SWQ100" s="1"/>
+      <c r="SWW100" s="1"/>
+      <c r="SXC100" s="1"/>
+      <c r="SXI100" s="1"/>
+      <c r="SXO100" s="1"/>
+      <c r="SXU100" s="1"/>
+      <c r="SYA100" s="1"/>
+      <c r="SYG100" s="1"/>
+      <c r="SYM100" s="1"/>
+      <c r="SYS100" s="1"/>
+      <c r="SYY100" s="1"/>
+      <c r="SZE100" s="1"/>
+      <c r="SZK100" s="1"/>
+      <c r="SZQ100" s="1"/>
+      <c r="SZW100" s="1"/>
+      <c r="TAC100" s="1"/>
+      <c r="TAI100" s="1"/>
+      <c r="TAO100" s="1"/>
+      <c r="TAU100" s="1"/>
+      <c r="TBA100" s="1"/>
+      <c r="TBG100" s="1"/>
+      <c r="TBM100" s="1"/>
+      <c r="TBS100" s="1"/>
+      <c r="TBY100" s="1"/>
+      <c r="TCE100" s="1"/>
+      <c r="TCK100" s="1"/>
+      <c r="TCQ100" s="1"/>
+      <c r="TCW100" s="1"/>
+      <c r="TDC100" s="1"/>
+      <c r="TDI100" s="1"/>
+      <c r="TDO100" s="1"/>
+      <c r="TDU100" s="1"/>
+      <c r="TEA100" s="1"/>
+      <c r="TEG100" s="1"/>
+      <c r="TEM100" s="1"/>
+      <c r="TES100" s="1"/>
+      <c r="TEY100" s="1"/>
+      <c r="TFE100" s="1"/>
+      <c r="TFK100" s="1"/>
+      <c r="TFQ100" s="1"/>
+      <c r="TFW100" s="1"/>
+      <c r="TGC100" s="1"/>
+      <c r="TGI100" s="1"/>
+      <c r="TGO100" s="1"/>
+      <c r="TGU100" s="1"/>
+      <c r="THA100" s="1"/>
+      <c r="THG100" s="1"/>
+      <c r="THM100" s="1"/>
+      <c r="THS100" s="1"/>
+      <c r="THY100" s="1"/>
+      <c r="TIE100" s="1"/>
+      <c r="TIK100" s="1"/>
+      <c r="TIQ100" s="1"/>
+      <c r="TIW100" s="1"/>
+      <c r="TJC100" s="1"/>
+      <c r="TJI100" s="1"/>
+      <c r="TJO100" s="1"/>
+      <c r="TJU100" s="1"/>
+      <c r="TKA100" s="1"/>
+      <c r="TKG100" s="1"/>
+      <c r="TKM100" s="1"/>
+      <c r="TKS100" s="1"/>
+      <c r="TKY100" s="1"/>
+      <c r="TLE100" s="1"/>
+      <c r="TLK100" s="1"/>
+      <c r="TLQ100" s="1"/>
+      <c r="TLW100" s="1"/>
+      <c r="TMC100" s="1"/>
+      <c r="TMI100" s="1"/>
+      <c r="TMO100" s="1"/>
+      <c r="TMU100" s="1"/>
+      <c r="TNA100" s="1"/>
+      <c r="TNG100" s="1"/>
+      <c r="TNM100" s="1"/>
+      <c r="TNS100" s="1"/>
+      <c r="TNY100" s="1"/>
+      <c r="TOE100" s="1"/>
+      <c r="TOK100" s="1"/>
+      <c r="TOQ100" s="1"/>
+      <c r="TOW100" s="1"/>
+      <c r="TPC100" s="1"/>
+      <c r="TPI100" s="1"/>
+      <c r="TPO100" s="1"/>
+      <c r="TPU100" s="1"/>
+      <c r="TQA100" s="1"/>
+      <c r="TQG100" s="1"/>
+      <c r="TQM100" s="1"/>
+      <c r="TQS100" s="1"/>
+      <c r="TQY100" s="1"/>
+      <c r="TRE100" s="1"/>
+      <c r="TRK100" s="1"/>
+      <c r="TRQ100" s="1"/>
+      <c r="TRW100" s="1"/>
+      <c r="TSC100" s="1"/>
+      <c r="TSI100" s="1"/>
+      <c r="TSO100" s="1"/>
+      <c r="TSU100" s="1"/>
+      <c r="TTA100" s="1"/>
+      <c r="TTG100" s="1"/>
+      <c r="TTM100" s="1"/>
+      <c r="TTS100" s="1"/>
+      <c r="TTY100" s="1"/>
+      <c r="TUE100" s="1"/>
+      <c r="TUK100" s="1"/>
+      <c r="TUQ100" s="1"/>
+      <c r="TUW100" s="1"/>
+      <c r="TVC100" s="1"/>
+      <c r="TVI100" s="1"/>
+      <c r="TVO100" s="1"/>
+      <c r="TVU100" s="1"/>
+      <c r="TWA100" s="1"/>
+      <c r="TWG100" s="1"/>
+      <c r="TWM100" s="1"/>
+      <c r="TWS100" s="1"/>
+      <c r="TWY100" s="1"/>
+      <c r="TXE100" s="1"/>
+      <c r="TXK100" s="1"/>
+      <c r="TXQ100" s="1"/>
+      <c r="TXW100" s="1"/>
+      <c r="TYC100" s="1"/>
+      <c r="TYI100" s="1"/>
+      <c r="TYO100" s="1"/>
+      <c r="TYU100" s="1"/>
+      <c r="TZA100" s="1"/>
+      <c r="TZG100" s="1"/>
+      <c r="TZM100" s="1"/>
+      <c r="TZS100" s="1"/>
+      <c r="TZY100" s="1"/>
+      <c r="UAE100" s="1"/>
+      <c r="UAK100" s="1"/>
+      <c r="UAQ100" s="1"/>
+      <c r="UAW100" s="1"/>
+      <c r="UBC100" s="1"/>
+      <c r="UBI100" s="1"/>
+      <c r="UBO100" s="1"/>
+      <c r="UBU100" s="1"/>
+      <c r="UCA100" s="1"/>
+      <c r="UCG100" s="1"/>
+      <c r="UCM100" s="1"/>
+      <c r="UCS100" s="1"/>
+      <c r="UCY100" s="1"/>
+      <c r="UDE100" s="1"/>
+      <c r="UDK100" s="1"/>
+      <c r="UDQ100" s="1"/>
+      <c r="UDW100" s="1"/>
+      <c r="UEC100" s="1"/>
+      <c r="UEI100" s="1"/>
+      <c r="UEO100" s="1"/>
+      <c r="UEU100" s="1"/>
+      <c r="UFA100" s="1"/>
+      <c r="UFG100" s="1"/>
+      <c r="UFM100" s="1"/>
+      <c r="UFS100" s="1"/>
+      <c r="UFY100" s="1"/>
+      <c r="UGE100" s="1"/>
+      <c r="UGK100" s="1"/>
+      <c r="UGQ100" s="1"/>
+      <c r="UGW100" s="1"/>
+      <c r="UHC100" s="1"/>
+      <c r="UHI100" s="1"/>
+      <c r="UHO100" s="1"/>
+      <c r="UHU100" s="1"/>
+      <c r="UIA100" s="1"/>
+      <c r="UIG100" s="1"/>
+      <c r="UIM100" s="1"/>
+      <c r="UIS100" s="1"/>
+      <c r="UIY100" s="1"/>
+      <c r="UJE100" s="1"/>
+      <c r="UJK100" s="1"/>
+      <c r="UJQ100" s="1"/>
+      <c r="UJW100" s="1"/>
+      <c r="UKC100" s="1"/>
+      <c r="UKI100" s="1"/>
+      <c r="UKO100" s="1"/>
+      <c r="UKU100" s="1"/>
+      <c r="ULA100" s="1"/>
+      <c r="ULG100" s="1"/>
+      <c r="ULM100" s="1"/>
+      <c r="ULS100" s="1"/>
+      <c r="ULY100" s="1"/>
+      <c r="UME100" s="1"/>
+      <c r="UMK100" s="1"/>
+      <c r="UMQ100" s="1"/>
+      <c r="UMW100" s="1"/>
+      <c r="UNC100" s="1"/>
+      <c r="UNI100" s="1"/>
+      <c r="UNO100" s="1"/>
+      <c r="UNU100" s="1"/>
+      <c r="UOA100" s="1"/>
+      <c r="UOG100" s="1"/>
+      <c r="UOM100" s="1"/>
+      <c r="UOS100" s="1"/>
+      <c r="UOY100" s="1"/>
+      <c r="UPE100" s="1"/>
+      <c r="UPK100" s="1"/>
+      <c r="UPQ100" s="1"/>
+      <c r="UPW100" s="1"/>
+      <c r="UQC100" s="1"/>
+      <c r="UQI100" s="1"/>
+      <c r="UQO100" s="1"/>
+      <c r="UQU100" s="1"/>
+      <c r="URA100" s="1"/>
+      <c r="URG100" s="1"/>
+      <c r="URM100" s="1"/>
+      <c r="URS100" s="1"/>
+      <c r="URY100" s="1"/>
+      <c r="USE100" s="1"/>
+      <c r="USK100" s="1"/>
+      <c r="USQ100" s="1"/>
+      <c r="USW100" s="1"/>
+      <c r="UTC100" s="1"/>
+      <c r="UTI100" s="1"/>
+      <c r="UTO100" s="1"/>
+      <c r="UTU100" s="1"/>
+      <c r="UUA100" s="1"/>
+      <c r="UUG100" s="1"/>
+      <c r="UUM100" s="1"/>
+      <c r="UUS100" s="1"/>
+      <c r="UUY100" s="1"/>
+      <c r="UVE100" s="1"/>
+      <c r="UVK100" s="1"/>
+      <c r="UVQ100" s="1"/>
+      <c r="UVW100" s="1"/>
+      <c r="UWC100" s="1"/>
+      <c r="UWI100" s="1"/>
+      <c r="UWO100" s="1"/>
+      <c r="UWU100" s="1"/>
+      <c r="UXA100" s="1"/>
+      <c r="UXG100" s="1"/>
+      <c r="UXM100" s="1"/>
+      <c r="UXS100" s="1"/>
+      <c r="UXY100" s="1"/>
+      <c r="UYE100" s="1"/>
+      <c r="UYK100" s="1"/>
+      <c r="UYQ100" s="1"/>
+      <c r="UYW100" s="1"/>
+      <c r="UZC100" s="1"/>
+      <c r="UZI100" s="1"/>
+      <c r="UZO100" s="1"/>
+      <c r="UZU100" s="1"/>
+      <c r="VAA100" s="1"/>
+      <c r="VAG100" s="1"/>
+      <c r="VAM100" s="1"/>
+      <c r="VAS100" s="1"/>
+      <c r="VAY100" s="1"/>
+      <c r="VBE100" s="1"/>
+      <c r="VBK100" s="1"/>
+      <c r="VBQ100" s="1"/>
+      <c r="VBW100" s="1"/>
+      <c r="VCC100" s="1"/>
+      <c r="VCI100" s="1"/>
+      <c r="VCO100" s="1"/>
+      <c r="VCU100" s="1"/>
+      <c r="VDA100" s="1"/>
+      <c r="VDG100" s="1"/>
+      <c r="VDM100" s="1"/>
+      <c r="VDS100" s="1"/>
+      <c r="VDY100" s="1"/>
+      <c r="VEE100" s="1"/>
+      <c r="VEK100" s="1"/>
+      <c r="VEQ100" s="1"/>
+      <c r="VEW100" s="1"/>
+      <c r="VFC100" s="1"/>
+      <c r="VFI100" s="1"/>
+      <c r="VFO100" s="1"/>
+      <c r="VFU100" s="1"/>
+      <c r="VGA100" s="1"/>
+      <c r="VGG100" s="1"/>
+      <c r="VGM100" s="1"/>
+      <c r="VGS100" s="1"/>
+      <c r="VGY100" s="1"/>
+      <c r="VHE100" s="1"/>
+      <c r="VHK100" s="1"/>
+      <c r="VHQ100" s="1"/>
+      <c r="VHW100" s="1"/>
+      <c r="VIC100" s="1"/>
+      <c r="VII100" s="1"/>
+      <c r="VIO100" s="1"/>
+      <c r="VIU100" s="1"/>
+      <c r="VJA100" s="1"/>
+      <c r="VJG100" s="1"/>
+      <c r="VJM100" s="1"/>
+      <c r="VJS100" s="1"/>
+      <c r="VJY100" s="1"/>
+      <c r="VKE100" s="1"/>
+      <c r="VKK100" s="1"/>
+      <c r="VKQ100" s="1"/>
+      <c r="VKW100" s="1"/>
+      <c r="VLC100" s="1"/>
+      <c r="VLI100" s="1"/>
+      <c r="VLO100" s="1"/>
+      <c r="VLU100" s="1"/>
+      <c r="VMA100" s="1"/>
+      <c r="VMG100" s="1"/>
+      <c r="VMM100" s="1"/>
+      <c r="VMS100" s="1"/>
+      <c r="VMY100" s="1"/>
+      <c r="VNE100" s="1"/>
+      <c r="VNK100" s="1"/>
+      <c r="VNQ100" s="1"/>
+      <c r="VNW100" s="1"/>
+      <c r="VOC100" s="1"/>
+      <c r="VOI100" s="1"/>
+      <c r="VOO100" s="1"/>
+      <c r="VOU100" s="1"/>
+      <c r="VPA100" s="1"/>
+      <c r="VPG100" s="1"/>
+      <c r="VPM100" s="1"/>
+      <c r="VPS100" s="1"/>
+      <c r="VPY100" s="1"/>
+      <c r="VQE100" s="1"/>
+      <c r="VQK100" s="1"/>
+      <c r="VQQ100" s="1"/>
+      <c r="VQW100" s="1"/>
+      <c r="VRC100" s="1"/>
+      <c r="VRI100" s="1"/>
+      <c r="VRO100" s="1"/>
+      <c r="VRU100" s="1"/>
+      <c r="VSA100" s="1"/>
+      <c r="VSG100" s="1"/>
+      <c r="VSM100" s="1"/>
+      <c r="VSS100" s="1"/>
+      <c r="VSY100" s="1"/>
+      <c r="VTE100" s="1"/>
+      <c r="VTK100" s="1"/>
+      <c r="VTQ100" s="1"/>
+      <c r="VTW100" s="1"/>
+      <c r="VUC100" s="1"/>
+      <c r="VUI100" s="1"/>
+      <c r="VUO100" s="1"/>
+      <c r="VUU100" s="1"/>
+      <c r="VVA100" s="1"/>
+      <c r="VVG100" s="1"/>
+      <c r="VVM100" s="1"/>
+      <c r="VVS100" s="1"/>
+      <c r="VVY100" s="1"/>
+      <c r="VWE100" s="1"/>
+      <c r="VWK100" s="1"/>
+      <c r="VWQ100" s="1"/>
+      <c r="VWW100" s="1"/>
+      <c r="VXC100" s="1"/>
+      <c r="VXI100" s="1"/>
+      <c r="VXO100" s="1"/>
+      <c r="VXU100" s="1"/>
+      <c r="VYA100" s="1"/>
+      <c r="VYG100" s="1"/>
+      <c r="VYM100" s="1"/>
+      <c r="VYS100" s="1"/>
+      <c r="VYY100" s="1"/>
+      <c r="VZE100" s="1"/>
+      <c r="VZK100" s="1"/>
+      <c r="VZQ100" s="1"/>
+      <c r="VZW100" s="1"/>
+      <c r="WAC100" s="1"/>
+      <c r="WAI100" s="1"/>
+      <c r="WAO100" s="1"/>
+      <c r="WAU100" s="1"/>
+      <c r="WBA100" s="1"/>
+      <c r="WBG100" s="1"/>
+      <c r="WBM100" s="1"/>
+      <c r="WBS100" s="1"/>
+      <c r="WBY100" s="1"/>
+      <c r="WCE100" s="1"/>
+      <c r="WCK100" s="1"/>
+      <c r="WCQ100" s="1"/>
+      <c r="WCW100" s="1"/>
+      <c r="WDC100" s="1"/>
+      <c r="WDI100" s="1"/>
+      <c r="WDO100" s="1"/>
+      <c r="WDU100" s="1"/>
+      <c r="WEA100" s="1"/>
+      <c r="WEG100" s="1"/>
+      <c r="WEM100" s="1"/>
+      <c r="WES100" s="1"/>
+      <c r="WEY100" s="1"/>
+      <c r="WFE100" s="1"/>
+      <c r="WFK100" s="1"/>
+      <c r="WFQ100" s="1"/>
+      <c r="WFW100" s="1"/>
+      <c r="WGC100" s="1"/>
+      <c r="WGI100" s="1"/>
+      <c r="WGO100" s="1"/>
+      <c r="WGU100" s="1"/>
+      <c r="WHA100" s="1"/>
+      <c r="WHG100" s="1"/>
+      <c r="WHM100" s="1"/>
+      <c r="WHS100" s="1"/>
+      <c r="WHY100" s="1"/>
+      <c r="WIE100" s="1"/>
+      <c r="WIK100" s="1"/>
+      <c r="WIQ100" s="1"/>
+      <c r="WIW100" s="1"/>
+      <c r="WJC100" s="1"/>
+      <c r="WJI100" s="1"/>
+      <c r="WJO100" s="1"/>
+      <c r="WJU100" s="1"/>
+      <c r="WKA100" s="1"/>
+      <c r="WKG100" s="1"/>
+      <c r="WKM100" s="1"/>
+      <c r="WKS100" s="1"/>
+      <c r="WKY100" s="1"/>
+      <c r="WLE100" s="1"/>
+      <c r="WLK100" s="1"/>
+      <c r="WLQ100" s="1"/>
+      <c r="WLW100" s="1"/>
+      <c r="WMC100" s="1"/>
+      <c r="WMI100" s="1"/>
+      <c r="WMO100" s="1"/>
+      <c r="WMU100" s="1"/>
+      <c r="WNA100" s="1"/>
+      <c r="WNG100" s="1"/>
+      <c r="WNM100" s="1"/>
+      <c r="WNS100" s="1"/>
+      <c r="WNY100" s="1"/>
+      <c r="WOE100" s="1"/>
+      <c r="WOK100" s="1"/>
+      <c r="WOQ100" s="1"/>
+      <c r="WOW100" s="1"/>
+      <c r="WPC100" s="1"/>
+      <c r="WPI100" s="1"/>
+      <c r="WPO100" s="1"/>
+      <c r="WPU100" s="1"/>
+      <c r="WQA100" s="1"/>
+      <c r="WQG100" s="1"/>
+      <c r="WQM100" s="1"/>
+      <c r="WQS100" s="1"/>
+      <c r="WQY100" s="1"/>
+      <c r="WRE100" s="1"/>
+      <c r="WRK100" s="1"/>
+      <c r="WRQ100" s="1"/>
+      <c r="WRW100" s="1"/>
+      <c r="WSC100" s="1"/>
+      <c r="WSI100" s="1"/>
+      <c r="WSO100" s="1"/>
+      <c r="WSU100" s="1"/>
+      <c r="WTA100" s="1"/>
+      <c r="WTG100" s="1"/>
+      <c r="WTM100" s="1"/>
+      <c r="WTS100" s="1"/>
+      <c r="WTY100" s="1"/>
+      <c r="WUE100" s="1"/>
+      <c r="WUK100" s="1"/>
+      <c r="WUQ100" s="1"/>
+      <c r="WUW100" s="1"/>
+      <c r="WVC100" s="1"/>
+      <c r="WVI100" s="1"/>
+      <c r="WVO100" s="1"/>
+      <c r="WVU100" s="1"/>
+      <c r="WWA100" s="1"/>
+      <c r="WWG100" s="1"/>
+      <c r="WWM100" s="1"/>
+      <c r="WWS100" s="1"/>
+      <c r="WWY100" s="1"/>
+      <c r="WXE100" s="1"/>
+      <c r="WXK100" s="1"/>
+      <c r="WXQ100" s="1"/>
+      <c r="WXW100" s="1"/>
+      <c r="WYC100" s="1"/>
+      <c r="WYI100" s="1"/>
+      <c r="WYO100" s="1"/>
+      <c r="WYU100" s="1"/>
+      <c r="WZA100" s="1"/>
+      <c r="WZG100" s="1"/>
+      <c r="WZM100" s="1"/>
+      <c r="WZS100" s="1"/>
+      <c r="WZY100" s="1"/>
+      <c r="XAE100" s="1"/>
+      <c r="XAK100" s="1"/>
+      <c r="XAQ100" s="1"/>
+      <c r="XAW100" s="1"/>
+      <c r="XBC100" s="1"/>
+      <c r="XBI100" s="1"/>
+      <c r="XBO100" s="1"/>
+      <c r="XBU100" s="1"/>
+      <c r="XCA100" s="1"/>
+      <c r="XCG100" s="1"/>
+      <c r="XCM100" s="1"/>
+      <c r="XCS100" s="1"/>
+      <c r="XCY100" s="1"/>
+      <c r="XDE100" s="1"/>
+      <c r="XDK100" s="1"/>
+      <c r="XDQ100" s="1"/>
+      <c r="XDW100" s="1"/>
+      <c r="XEC100" s="1"/>
+      <c r="XEI100" s="1"/>
+      <c r="XEO100" s="1"/>
+      <c r="XEU100" s="1"/>
+      <c r="XFA100" s="1"/>
+    </row>
+    <row r="101" spans="1:1021 1027:2047 2053:3067 3073:4093 4099:5119 5125:6139 6145:7165 7171:8191 8197:9211 9217:10237 10243:11263 11269:12283 12289:13309 13315:14335 14341:15355 15361:16381" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B101" t="s">
+        <v>247</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1243</v>
+      </c>
+      <c r="G101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="S101" s="1"/>
+      <c r="Y101" s="1"/>
+      <c r="AE101" s="1"/>
+      <c r="AK101" s="1"/>
+      <c r="AQ101" s="1"/>
+      <c r="AW101" s="1"/>
+      <c r="BC101" s="1"/>
+      <c r="BI101" s="1"/>
+      <c r="BO101" s="1"/>
+      <c r="BU101" s="1"/>
+      <c r="CA101" s="1"/>
+      <c r="CG101" s="1"/>
+      <c r="CM101" s="1"/>
+      <c r="CS101" s="1"/>
+      <c r="CY101" s="1"/>
+      <c r="DE101" s="1"/>
+      <c r="DK101" s="1"/>
+      <c r="DQ101" s="1"/>
+      <c r="DW101" s="1"/>
+      <c r="EC101" s="1"/>
+      <c r="EI101" s="1"/>
+      <c r="EO101" s="1"/>
+      <c r="EU101" s="1"/>
+      <c r="FA101" s="1"/>
+      <c r="FG101" s="1"/>
+      <c r="FM101" s="1"/>
+      <c r="FS101" s="1"/>
+      <c r="FY101" s="1"/>
+      <c r="GE101" s="1"/>
+      <c r="GK101" s="1"/>
+      <c r="GQ101" s="1"/>
+      <c r="GW101" s="1"/>
+      <c r="HC101" s="1"/>
+      <c r="HI101" s="1"/>
+      <c r="HO101" s="1"/>
+      <c r="HU101" s="1"/>
+      <c r="IA101" s="1"/>
+      <c r="IG101" s="1"/>
+      <c r="IM101" s="1"/>
+      <c r="IS101" s="1"/>
+      <c r="IY101" s="1"/>
+      <c r="JE101" s="1"/>
+      <c r="JK101" s="1"/>
+      <c r="JQ101" s="1"/>
+      <c r="JW101" s="1"/>
+      <c r="KC101" s="1"/>
+      <c r="KI101" s="1"/>
+      <c r="KO101" s="1"/>
+      <c r="KU101" s="1"/>
+      <c r="LA101" s="1"/>
+      <c r="LG101" s="1"/>
+      <c r="LM101" s="1"/>
+      <c r="LS101" s="1"/>
+      <c r="LY101" s="1"/>
+      <c r="ME101" s="1"/>
+      <c r="MK101" s="1"/>
+      <c r="MQ101" s="1"/>
+      <c r="MW101" s="1"/>
+      <c r="NC101" s="1"/>
+      <c r="NI101" s="1"/>
+      <c r="NO101" s="1"/>
+      <c r="NU101" s="1"/>
+      <c r="OA101" s="1"/>
+      <c r="OG101" s="1"/>
+      <c r="OM101" s="1"/>
+      <c r="OS101" s="1"/>
+      <c r="OY101" s="1"/>
+      <c r="PE101" s="1"/>
+      <c r="PK101" s="1"/>
+      <c r="PQ101" s="1"/>
+      <c r="PW101" s="1"/>
+      <c r="QC101" s="1"/>
+      <c r="QI101" s="1"/>
+      <c r="QO101" s="1"/>
+      <c r="QU101" s="1"/>
+      <c r="RA101" s="1"/>
+      <c r="RG101" s="1"/>
+      <c r="RM101" s="1"/>
+      <c r="RS101" s="1"/>
+      <c r="RY101" s="1"/>
+      <c r="SE101" s="1"/>
+      <c r="SK101" s="1"/>
+      <c r="SQ101" s="1"/>
+      <c r="SW101" s="1"/>
+      <c r="TC101" s="1"/>
+      <c r="TI101" s="1"/>
+      <c r="TO101" s="1"/>
+      <c r="TU101" s="1"/>
+      <c r="UA101" s="1"/>
+      <c r="UG101" s="1"/>
+      <c r="UM101" s="1"/>
+      <c r="US101" s="1"/>
+      <c r="UY101" s="1"/>
+      <c r="VE101" s="1"/>
+      <c r="VK101" s="1"/>
+      <c r="VQ101" s="1"/>
+      <c r="VW101" s="1"/>
+      <c r="WC101" s="1"/>
+      <c r="WI101" s="1"/>
+      <c r="WO101" s="1"/>
+      <c r="WU101" s="1"/>
+      <c r="XA101" s="1"/>
+      <c r="XG101" s="1"/>
+      <c r="XM101" s="1"/>
+      <c r="XS101" s="1"/>
+      <c r="XY101" s="1"/>
+      <c r="YE101" s="1"/>
+      <c r="YK101" s="1"/>
+      <c r="YQ101" s="1"/>
+      <c r="YW101" s="1"/>
+      <c r="ZC101" s="1"/>
+      <c r="ZI101" s="1"/>
+      <c r="ZO101" s="1"/>
+      <c r="ZU101" s="1"/>
+      <c r="AAA101" s="1"/>
+      <c r="AAG101" s="1"/>
+      <c r="AAM101" s="1"/>
+      <c r="AAS101" s="1"/>
+      <c r="AAY101" s="1"/>
+      <c r="ABE101" s="1"/>
+      <c r="ABK101" s="1"/>
+      <c r="ABQ101" s="1"/>
+      <c r="ABW101" s="1"/>
+      <c r="ACC101" s="1"/>
+      <c r="ACI101" s="1"/>
+      <c r="ACO101" s="1"/>
+      <c r="ACU101" s="1"/>
+      <c r="ADA101" s="1"/>
+      <c r="ADG101" s="1"/>
+      <c r="ADM101" s="1"/>
+      <c r="ADS101" s="1"/>
+      <c r="ADY101" s="1"/>
+      <c r="AEE101" s="1"/>
+      <c r="AEK101" s="1"/>
+      <c r="AEQ101" s="1"/>
+      <c r="AEW101" s="1"/>
+      <c r="AFC101" s="1"/>
+      <c r="AFI101" s="1"/>
+      <c r="AFO101" s="1"/>
+      <c r="AFU101" s="1"/>
+      <c r="AGA101" s="1"/>
+      <c r="AGG101" s="1"/>
+      <c r="AGM101" s="1"/>
+      <c r="AGS101" s="1"/>
+      <c r="AGY101" s="1"/>
+      <c r="AHE101" s="1"/>
+      <c r="AHK101" s="1"/>
+      <c r="AHQ101" s="1"/>
+      <c r="AHW101" s="1"/>
+      <c r="AIC101" s="1"/>
+      <c r="AII101" s="1"/>
+      <c r="AIO101" s="1"/>
+      <c r="AIU101" s="1"/>
+      <c r="AJA101" s="1"/>
+      <c r="AJG101" s="1"/>
+      <c r="AJM101" s="1"/>
+      <c r="AJS101" s="1"/>
+      <c r="AJY101" s="1"/>
+      <c r="AKE101" s="1"/>
+      <c r="AKK101" s="1"/>
+      <c r="AKQ101" s="1"/>
+      <c r="AKW101" s="1"/>
+      <c r="ALC101" s="1"/>
+      <c r="ALI101" s="1"/>
+      <c r="ALO101" s="1"/>
+      <c r="ALU101" s="1"/>
+      <c r="AMA101" s="1"/>
+      <c r="AMG101" s="1"/>
+      <c r="AMM101" s="1"/>
+      <c r="AMS101" s="1"/>
+      <c r="AMY101" s="1"/>
+      <c r="ANE101" s="1"/>
+      <c r="ANK101" s="1"/>
+      <c r="ANQ101" s="1"/>
+      <c r="ANW101" s="1"/>
+      <c r="AOC101" s="1"/>
+      <c r="AOI101" s="1"/>
+      <c r="AOO101" s="1"/>
+      <c r="AOU101" s="1"/>
+      <c r="APA101" s="1"/>
+      <c r="APG101" s="1"/>
+      <c r="APM101" s="1"/>
+      <c r="APS101" s="1"/>
+      <c r="APY101" s="1"/>
+      <c r="AQE101" s="1"/>
+      <c r="AQK101" s="1"/>
+      <c r="AQQ101" s="1"/>
+      <c r="AQW101" s="1"/>
+      <c r="ARC101" s="1"/>
+      <c r="ARI101" s="1"/>
+      <c r="ARO101" s="1"/>
+      <c r="ARU101" s="1"/>
+      <c r="ASA101" s="1"/>
+      <c r="ASG101" s="1"/>
+      <c r="ASM101" s="1"/>
+      <c r="ASS101" s="1"/>
+      <c r="ASY101" s="1"/>
+      <c r="ATE101" s="1"/>
+      <c r="ATK101" s="1"/>
+      <c r="ATQ101" s="1"/>
+      <c r="ATW101" s="1"/>
+      <c r="AUC101" s="1"/>
+      <c r="AUI101" s="1"/>
+      <c r="AUO101" s="1"/>
+      <c r="AUU101" s="1"/>
+      <c r="AVA101" s="1"/>
+      <c r="AVG101" s="1"/>
+      <c r="AVM101" s="1"/>
+      <c r="AVS101" s="1"/>
+      <c r="AVY101" s="1"/>
+      <c r="AWE101" s="1"/>
+      <c r="AWK101" s="1"/>
+      <c r="AWQ101" s="1"/>
+      <c r="AWW101" s="1"/>
+      <c r="AXC101" s="1"/>
+      <c r="AXI101" s="1"/>
+      <c r="AXO101" s="1"/>
+      <c r="AXU101" s="1"/>
+      <c r="AYA101" s="1"/>
+      <c r="AYG101" s="1"/>
+      <c r="AYM101" s="1"/>
+      <c r="AYS101" s="1"/>
+      <c r="AYY101" s="1"/>
+      <c r="AZE101" s="1"/>
+      <c r="AZK101" s="1"/>
+      <c r="AZQ101" s="1"/>
+      <c r="AZW101" s="1"/>
+      <c r="BAC101" s="1"/>
+      <c r="BAI101" s="1"/>
+      <c r="BAO101" s="1"/>
+      <c r="BAU101" s="1"/>
+      <c r="BBA101" s="1"/>
+      <c r="BBG101" s="1"/>
+      <c r="BBM101" s="1"/>
+      <c r="BBS101" s="1"/>
+      <c r="BBY101" s="1"/>
+      <c r="BCE101" s="1"/>
+      <c r="BCK101" s="1"/>
+      <c r="BCQ101" s="1"/>
+      <c r="BCW101" s="1"/>
+      <c r="BDC101" s="1"/>
+      <c r="BDI101" s="1"/>
+      <c r="BDO101" s="1"/>
+      <c r="BDU101" s="1"/>
+      <c r="BEA101" s="1"/>
+      <c r="BEG101" s="1"/>
+      <c r="BEM101" s="1"/>
+      <c r="BES101" s="1"/>
+      <c r="BEY101" s="1"/>
+      <c r="BFE101" s="1"/>
+      <c r="BFK101" s="1"/>
+      <c r="BFQ101" s="1"/>
+      <c r="BFW101" s="1"/>
+      <c r="BGC101" s="1"/>
+      <c r="BGI101" s="1"/>
+      <c r="BGO101" s="1"/>
+      <c r="BGU101" s="1"/>
+      <c r="BHA101" s="1"/>
+      <c r="BHG101" s="1"/>
+      <c r="BHM101" s="1"/>
+      <c r="BHS101" s="1"/>
+      <c r="BHY101" s="1"/>
+      <c r="BIE101" s="1"/>
+      <c r="BIK101" s="1"/>
+      <c r="BIQ101" s="1"/>
+      <c r="BIW101" s="1"/>
+      <c r="BJC101" s="1"/>
+      <c r="BJI101" s="1"/>
+      <c r="BJO101" s="1"/>
+      <c r="BJU101" s="1"/>
+      <c r="BKA101" s="1"/>
+      <c r="BKG101" s="1"/>
+      <c r="BKM101" s="1"/>
+      <c r="BKS101" s="1"/>
+      <c r="BKY101" s="1"/>
+      <c r="BLE101" s="1"/>
+      <c r="BLK101" s="1"/>
+      <c r="BLQ101" s="1"/>
+      <c r="BLW101" s="1"/>
+      <c r="BMC101" s="1"/>
+      <c r="BMI101" s="1"/>
+      <c r="BMO101" s="1"/>
+      <c r="BMU101" s="1"/>
+      <c r="BNA101" s="1"/>
+      <c r="BNG101" s="1"/>
+      <c r="BNM101" s="1"/>
+      <c r="BNS101" s="1"/>
+      <c r="BNY101" s="1"/>
+      <c r="BOE101" s="1"/>
+      <c r="BOK101" s="1"/>
+      <c r="BOQ101" s="1"/>
+      <c r="BOW101" s="1"/>
+      <c r="BPC101" s="1"/>
+      <c r="BPI101" s="1"/>
+      <c r="BPO101" s="1"/>
+      <c r="BPU101" s="1"/>
+      <c r="BQA101" s="1"/>
+      <c r="BQG101" s="1"/>
+      <c r="BQM101" s="1"/>
+      <c r="BQS101" s="1"/>
+      <c r="BQY101" s="1"/>
+      <c r="BRE101" s="1"/>
+      <c r="BRK101" s="1"/>
+      <c r="BRQ101" s="1"/>
+      <c r="BRW101" s="1"/>
+      <c r="BSC101" s="1"/>
+      <c r="BSI101" s="1"/>
+      <c r="BSO101" s="1"/>
+      <c r="BSU101" s="1"/>
+      <c r="BTA101" s="1"/>
+      <c r="BTG101" s="1"/>
+      <c r="BTM101" s="1"/>
+      <c r="BTS101" s="1"/>
+      <c r="BTY101" s="1"/>
+      <c r="BUE101" s="1"/>
+      <c r="BUK101" s="1"/>
+      <c r="BUQ101" s="1"/>
+      <c r="BUW101" s="1"/>
+      <c r="BVC101" s="1"/>
+      <c r="BVI101" s="1"/>
+      <c r="BVO101" s="1"/>
+      <c r="BVU101" s="1"/>
+      <c r="BWA101" s="1"/>
+      <c r="BWG101" s="1"/>
+      <c r="BWM101" s="1"/>
+      <c r="BWS101" s="1"/>
+      <c r="BWY101" s="1"/>
+      <c r="BXE101" s="1"/>
+      <c r="BXK101" s="1"/>
+      <c r="BXQ101" s="1"/>
+      <c r="BXW101" s="1"/>
+      <c r="BYC101" s="1"/>
+      <c r="BYI101" s="1"/>
+      <c r="BYO101" s="1"/>
+      <c r="BYU101" s="1"/>
+      <c r="BZA101" s="1"/>
+      <c r="BZG101" s="1"/>
+      <c r="BZM101" s="1"/>
+      <c r="BZS101" s="1"/>
+      <c r="BZY101" s="1"/>
+      <c r="CAE101" s="1"/>
+      <c r="CAK101" s="1"/>
+      <c r="CAQ101" s="1"/>
+      <c r="CAW101" s="1"/>
+      <c r="CBC101" s="1"/>
+      <c r="CBI101" s="1"/>
+      <c r="CBO101" s="1"/>
+      <c r="CBU101" s="1"/>
+      <c r="CCA101" s="1"/>
+      <c r="CCG101" s="1"/>
+      <c r="CCM101" s="1"/>
+      <c r="CCS101" s="1"/>
+      <c r="CCY101" s="1"/>
+      <c r="CDE101" s="1"/>
+      <c r="CDK101" s="1"/>
+      <c r="CDQ101" s="1"/>
+      <c r="CDW101" s="1"/>
+      <c r="CEC101" s="1"/>
+      <c r="CEI101" s="1"/>
+      <c r="CEO101" s="1"/>
+      <c r="CEU101" s="1"/>
+      <c r="CFA101" s="1"/>
+      <c r="CFG101" s="1"/>
+      <c r="CFM101" s="1"/>
+      <c r="CFS101" s="1"/>
+      <c r="CFY101" s="1"/>
+      <c r="CGE101" s="1"/>
+      <c r="CGK101" s="1"/>
+      <c r="CGQ101" s="1"/>
+      <c r="CGW101" s="1"/>
+      <c r="CHC101" s="1"/>
+      <c r="CHI101" s="1"/>
+      <c r="CHO101" s="1"/>
+      <c r="CHU101" s="1"/>
+      <c r="CIA101" s="1"/>
+      <c r="CIG101" s="1"/>
+      <c r="CIM101" s="1"/>
+      <c r="CIS101" s="1"/>
+      <c r="CIY101" s="1"/>
+      <c r="CJE101" s="1"/>
+      <c r="CJK101" s="1"/>
+      <c r="CJQ101" s="1"/>
+      <c r="CJW101" s="1"/>
+      <c r="CKC101" s="1"/>
+      <c r="CKI101" s="1"/>
+      <c r="CKO101" s="1"/>
+      <c r="CKU101" s="1"/>
+      <c r="CLA101" s="1"/>
+      <c r="CLG101" s="1"/>
+      <c r="CLM101" s="1"/>
+      <c r="CLS101" s="1"/>
+      <c r="CLY101" s="1"/>
+      <c r="CME101" s="1"/>
+      <c r="CMK101" s="1"/>
+      <c r="CMQ101" s="1"/>
+      <c r="CMW101" s="1"/>
+      <c r="CNC101" s="1"/>
+      <c r="CNI101" s="1"/>
+      <c r="CNO101" s="1"/>
+      <c r="CNU101" s="1"/>
+      <c r="COA101" s="1"/>
+      <c r="COG101" s="1"/>
+      <c r="COM101" s="1"/>
+      <c r="COS101" s="1"/>
+      <c r="COY101" s="1"/>
+      <c r="CPE101" s="1"/>
+      <c r="CPK101" s="1"/>
+      <c r="CPQ101" s="1"/>
+      <c r="CPW101" s="1"/>
+      <c r="CQC101" s="1"/>
+      <c r="CQI101" s="1"/>
+      <c r="CQO101" s="1"/>
+      <c r="CQU101" s="1"/>
+      <c r="CRA101" s="1"/>
+      <c r="CRG101" s="1"/>
+      <c r="CRM101" s="1"/>
+      <c r="CRS101" s="1"/>
+      <c r="CRY101" s="1"/>
+      <c r="CSE101" s="1"/>
+      <c r="CSK101" s="1"/>
+      <c r="CSQ101" s="1"/>
+      <c r="CSW101" s="1"/>
+      <c r="CTC101" s="1"/>
+      <c r="CTI101" s="1"/>
+      <c r="CTO101" s="1"/>
+      <c r="CTU101" s="1"/>
+      <c r="CUA101" s="1"/>
+      <c r="CUG101" s="1"/>
+      <c r="CUM101" s="1"/>
+      <c r="CUS101" s="1"/>
+      <c r="CUY101" s="1"/>
+      <c r="CVE101" s="1"/>
+      <c r="CVK101" s="1"/>
+      <c r="CVQ101" s="1"/>
+      <c r="CVW101" s="1"/>
+      <c r="CWC101" s="1"/>
+      <c r="CWI101" s="1"/>
+      <c r="CWO101" s="1"/>
+      <c r="CWU101" s="1"/>
+      <c r="CXA101" s="1"/>
+      <c r="CXG101" s="1"/>
+      <c r="CXM101" s="1"/>
+      <c r="CXS101" s="1"/>
+      <c r="CXY101" s="1"/>
+      <c r="CYE101" s="1"/>
+      <c r="CYK101" s="1"/>
+      <c r="CYQ101" s="1"/>
+      <c r="CYW101" s="1"/>
+      <c r="CZC101" s="1"/>
+      <c r="CZI101" s="1"/>
+      <c r="CZO101" s="1"/>
+      <c r="CZU101" s="1"/>
+      <c r="DAA101" s="1"/>
+      <c r="DAG101" s="1"/>
+      <c r="DAM101" s="1"/>
+      <c r="DAS101" s="1"/>
+      <c r="DAY101" s="1"/>
+      <c r="DBE101" s="1"/>
+      <c r="DBK101" s="1"/>
+      <c r="DBQ101" s="1"/>
+      <c r="DBW101" s="1"/>
+      <c r="DCC101" s="1"/>
+      <c r="DCI101" s="1"/>
+      <c r="DCO101" s="1"/>
+      <c r="DCU101" s="1"/>
+      <c r="DDA101" s="1"/>
+      <c r="DDG101" s="1"/>
+      <c r="DDM101" s="1"/>
+      <c r="DDS101" s="1"/>
+      <c r="DDY101" s="1"/>
+      <c r="DEE101" s="1"/>
+      <c r="DEK101" s="1"/>
+      <c r="DEQ101" s="1"/>
+      <c r="DEW101" s="1"/>
+      <c r="DFC101" s="1"/>
+      <c r="DFI101" s="1"/>
+      <c r="DFO101" s="1"/>
+      <c r="DFU101" s="1"/>
+      <c r="DGA101" s="1"/>
+      <c r="DGG101" s="1"/>
+      <c r="DGM101" s="1"/>
+      <c r="DGS101" s="1"/>
+      <c r="DGY101" s="1"/>
+      <c r="DHE101" s="1"/>
+      <c r="DHK101" s="1"/>
+      <c r="DHQ101" s="1"/>
+      <c r="DHW101" s="1"/>
+      <c r="DIC101" s="1"/>
+      <c r="DII101" s="1"/>
+      <c r="DIO101" s="1"/>
+      <c r="DIU101" s="1"/>
+      <c r="DJA101" s="1"/>
+      <c r="DJG101" s="1"/>
+      <c r="DJM101" s="1"/>
+      <c r="DJS101" s="1"/>
+      <c r="DJY101" s="1"/>
+      <c r="DKE101" s="1"/>
+      <c r="DKK101" s="1"/>
+      <c r="DKQ101" s="1"/>
+      <c r="DKW101" s="1"/>
+      <c r="DLC101" s="1"/>
+      <c r="DLI101" s="1"/>
+      <c r="DLO101" s="1"/>
+      <c r="DLU101" s="1"/>
+      <c r="DMA101" s="1"/>
+      <c r="DMG101" s="1"/>
+      <c r="DMM101" s="1"/>
+      <c r="DMS101" s="1"/>
+      <c r="DMY101" s="1"/>
+      <c r="DNE101" s="1"/>
+      <c r="DNK101" s="1"/>
+      <c r="DNQ101" s="1"/>
+      <c r="DNW101" s="1"/>
+      <c r="DOC101" s="1"/>
+      <c r="DOI101" s="1"/>
+      <c r="DOO101" s="1"/>
+      <c r="DOU101" s="1"/>
+      <c r="DPA101" s="1"/>
+      <c r="DPG101" s="1"/>
+      <c r="DPM101" s="1"/>
+      <c r="DPS101" s="1"/>
+      <c r="DPY101" s="1"/>
+      <c r="DQE101" s="1"/>
+      <c r="DQK101" s="1"/>
+      <c r="DQQ101" s="1"/>
+      <c r="DQW101" s="1"/>
+      <c r="DRC101" s="1"/>
+      <c r="DRI101" s="1"/>
+      <c r="DRO101" s="1"/>
+      <c r="DRU101" s="1"/>
+      <c r="DSA101" s="1"/>
+      <c r="DSG101" s="1"/>
+      <c r="DSM101" s="1"/>
+      <c r="DSS101" s="1"/>
+      <c r="DSY101" s="1"/>
+      <c r="DTE101" s="1"/>
+      <c r="DTK101" s="1"/>
+      <c r="DTQ101" s="1"/>
+      <c r="DTW101" s="1"/>
+      <c r="DUC101" s="1"/>
+      <c r="DUI101" s="1"/>
+      <c r="DUO101" s="1"/>
+      <c r="DUU101" s="1"/>
+      <c r="DVA101" s="1"/>
+      <c r="DVG101" s="1"/>
+      <c r="DVM101" s="1"/>
+      <c r="DVS101" s="1"/>
+      <c r="DVY101" s="1"/>
+      <c r="DWE101" s="1"/>
+      <c r="DWK101" s="1"/>
+      <c r="DWQ101" s="1"/>
+      <c r="DWW101" s="1"/>
+      <c r="DXC101" s="1"/>
+      <c r="DXI101" s="1"/>
+      <c r="DXO101" s="1"/>
+      <c r="DXU101" s="1"/>
+      <c r="DYA101" s="1"/>
+      <c r="DYG101" s="1"/>
+      <c r="DYM101" s="1"/>
+      <c r="DYS101" s="1"/>
+      <c r="DYY101" s="1"/>
+      <c r="DZE101" s="1"/>
+      <c r="DZK101" s="1"/>
+      <c r="DZQ101" s="1"/>
+      <c r="DZW101" s="1"/>
+      <c r="EAC101" s="1"/>
+      <c r="EAI101" s="1"/>
+      <c r="EAO101" s="1"/>
+      <c r="EAU101" s="1"/>
+      <c r="EBA101" s="1"/>
+      <c r="EBG101" s="1"/>
+      <c r="EBM101" s="1"/>
+      <c r="EBS101" s="1"/>
+      <c r="EBY101" s="1"/>
+      <c r="ECE101" s="1"/>
+      <c r="ECK101" s="1"/>
+      <c r="ECQ101" s="1"/>
+      <c r="ECW101" s="1"/>
+      <c r="EDC101" s="1"/>
+      <c r="EDI101" s="1"/>
+      <c r="EDO101" s="1"/>
+      <c r="EDU101" s="1"/>
+      <c r="EEA101" s="1"/>
+      <c r="EEG101" s="1"/>
+      <c r="EEM101" s="1"/>
+      <c r="EES101" s="1"/>
+      <c r="EEY101" s="1"/>
+      <c r="EFE101" s="1"/>
+      <c r="EFK101" s="1"/>
+      <c r="EFQ101" s="1"/>
+      <c r="EFW101" s="1"/>
+      <c r="EGC101" s="1"/>
+      <c r="EGI101" s="1"/>
+      <c r="EGO101" s="1"/>
+      <c r="EGU101" s="1"/>
+      <c r="EHA101" s="1"/>
+      <c r="EHG101" s="1"/>
+      <c r="EHM101" s="1"/>
+      <c r="EHS101" s="1"/>
+      <c r="EHY101" s="1"/>
+      <c r="EIE101" s="1"/>
+      <c r="EIK101" s="1"/>
+      <c r="EIQ101" s="1"/>
+      <c r="EIW101" s="1"/>
+      <c r="EJC101" s="1"/>
+      <c r="EJI101" s="1"/>
+      <c r="EJO101" s="1"/>
+      <c r="EJU101" s="1"/>
+      <c r="EKA101" s="1"/>
+      <c r="EKG101" s="1"/>
+      <c r="EKM101" s="1"/>
+      <c r="EKS101" s="1"/>
+      <c r="EKY101" s="1"/>
+      <c r="ELE101" s="1"/>
+      <c r="ELK101" s="1"/>
+      <c r="ELQ101" s="1"/>
+      <c r="ELW101" s="1"/>
+      <c r="EMC101" s="1"/>
+      <c r="EMI101" s="1"/>
+      <c r="EMO101" s="1"/>
+      <c r="EMU101" s="1"/>
+      <c r="ENA101" s="1"/>
+      <c r="ENG101" s="1"/>
+      <c r="ENM101" s="1"/>
+      <c r="ENS101" s="1"/>
+      <c r="ENY101" s="1"/>
+      <c r="EOE101" s="1"/>
+      <c r="EOK101" s="1"/>
+      <c r="EOQ101" s="1"/>
+      <c r="EOW101" s="1"/>
+      <c r="EPC101" s="1"/>
+      <c r="EPI101" s="1"/>
+      <c r="EPO101" s="1"/>
+      <c r="EPU101" s="1"/>
+      <c r="EQA101" s="1"/>
+      <c r="EQG101" s="1"/>
+      <c r="EQM101" s="1"/>
+      <c r="EQS101" s="1"/>
+      <c r="EQY101" s="1"/>
+      <c r="ERE101" s="1"/>
+      <c r="ERK101" s="1"/>
+      <c r="ERQ101" s="1"/>
+      <c r="ERW101" s="1"/>
+      <c r="ESC101" s="1"/>
+      <c r="ESI101" s="1"/>
+      <c r="ESO101" s="1"/>
+      <c r="ESU101" s="1"/>
+      <c r="ETA101" s="1"/>
+      <c r="ETG101" s="1"/>
+      <c r="ETM101" s="1"/>
+      <c r="ETS101" s="1"/>
+      <c r="ETY101" s="1"/>
+      <c r="EUE101" s="1"/>
+      <c r="EUK101" s="1"/>
+      <c r="EUQ101" s="1"/>
+      <c r="EUW101" s="1"/>
+      <c r="EVC101" s="1"/>
+      <c r="EVI101" s="1"/>
+      <c r="EVO101" s="1"/>
+      <c r="EVU101" s="1"/>
+      <c r="EWA101" s="1"/>
+      <c r="EWG101" s="1"/>
+      <c r="EWM101" s="1"/>
+      <c r="EWS101" s="1"/>
+      <c r="EWY101" s="1"/>
+      <c r="EXE101" s="1"/>
+      <c r="EXK101" s="1"/>
+      <c r="EXQ101" s="1"/>
+      <c r="EXW101" s="1"/>
+      <c r="EYC101" s="1"/>
+      <c r="EYI101" s="1"/>
+      <c r="EYO101" s="1"/>
+      <c r="EYU101" s="1"/>
+      <c r="EZA101" s="1"/>
+      <c r="EZG101" s="1"/>
+      <c r="EZM101" s="1"/>
+      <c r="EZS101" s="1"/>
+      <c r="EZY101" s="1"/>
+      <c r="FAE101" s="1"/>
+      <c r="FAK101" s="1"/>
+      <c r="FAQ101" s="1"/>
+      <c r="FAW101" s="1"/>
+      <c r="FBC101" s="1"/>
+      <c r="FBI101" s="1"/>
+      <c r="FBO101" s="1"/>
+      <c r="FBU101" s="1"/>
+      <c r="FCA101" s="1"/>
+      <c r="FCG101" s="1"/>
+      <c r="FCM101" s="1"/>
+      <c r="FCS101" s="1"/>
+      <c r="FCY101" s="1"/>
+      <c r="FDE101" s="1"/>
+      <c r="FDK101" s="1"/>
+      <c r="FDQ101" s="1"/>
+      <c r="FDW101" s="1"/>
+      <c r="FEC101" s="1"/>
+      <c r="FEI101" s="1"/>
+      <c r="FEO101" s="1"/>
+      <c r="FEU101" s="1"/>
+      <c r="FFA101" s="1"/>
+      <c r="FFG101" s="1"/>
+      <c r="FFM101" s="1"/>
+      <c r="FFS101" s="1"/>
+      <c r="FFY101" s="1"/>
+      <c r="FGE101" s="1"/>
+      <c r="FGK101" s="1"/>
+      <c r="FGQ101" s="1"/>
+      <c r="FGW101" s="1"/>
+      <c r="FHC101" s="1"/>
+      <c r="FHI101" s="1"/>
+      <c r="FHO101" s="1"/>
+      <c r="FHU101" s="1"/>
+      <c r="FIA101" s="1"/>
+      <c r="FIG101" s="1"/>
+      <c r="FIM101" s="1"/>
+      <c r="FIS101" s="1"/>
+      <c r="FIY101" s="1"/>
+      <c r="FJE101" s="1"/>
+      <c r="FJK101" s="1"/>
+      <c r="FJQ101" s="1"/>
+      <c r="FJW101" s="1"/>
+      <c r="FKC101" s="1"/>
+      <c r="FKI101" s="1"/>
+      <c r="FKO101" s="1"/>
+      <c r="FKU101" s="1"/>
+      <c r="FLA101" s="1"/>
+      <c r="FLG101" s="1"/>
+      <c r="FLM101" s="1"/>
+      <c r="FLS101" s="1"/>
+      <c r="FLY101" s="1"/>
+      <c r="FME101" s="1"/>
+      <c r="FMK101" s="1"/>
+      <c r="FMQ101" s="1"/>
+      <c r="FMW101" s="1"/>
+      <c r="FNC101" s="1"/>
+      <c r="FNI101" s="1"/>
+      <c r="FNO101" s="1"/>
+      <c r="FNU101" s="1"/>
+      <c r="FOA101" s="1"/>
+      <c r="FOG101" s="1"/>
+      <c r="FOM101" s="1"/>
+      <c r="FOS101" s="1"/>
+      <c r="FOY101" s="1"/>
+      <c r="FPE101" s="1"/>
+      <c r="FPK101" s="1"/>
+      <c r="FPQ101" s="1"/>
+      <c r="FPW101" s="1"/>
+      <c r="FQC101" s="1"/>
+      <c r="FQI101" s="1"/>
+      <c r="FQO101" s="1"/>
+      <c r="FQU101" s="1"/>
+      <c r="FRA101" s="1"/>
+      <c r="FRG101" s="1"/>
+      <c r="FRM101" s="1"/>
+      <c r="FRS101" s="1"/>
+      <c r="FRY101" s="1"/>
+      <c r="FSE101" s="1"/>
+      <c r="FSK101" s="1"/>
+      <c r="FSQ101" s="1"/>
+      <c r="FSW101" s="1"/>
+      <c r="FTC101" s="1"/>
+      <c r="FTI101" s="1"/>
+      <c r="FTO101" s="1"/>
+      <c r="FTU101" s="1"/>
+      <c r="FUA101" s="1"/>
+      <c r="FUG101" s="1"/>
+      <c r="FUM101" s="1"/>
+      <c r="FUS101" s="1"/>
+      <c r="FUY101" s="1"/>
+      <c r="FVE101" s="1"/>
+      <c r="FVK101" s="1"/>
+      <c r="FVQ101" s="1"/>
+      <c r="FVW101" s="1"/>
+      <c r="FWC101" s="1"/>
+      <c r="FWI101" s="1"/>
+      <c r="FWO101" s="1"/>
+      <c r="FWU101" s="1"/>
+      <c r="FXA101" s="1"/>
+      <c r="FXG101" s="1"/>
+      <c r="FXM101" s="1"/>
+      <c r="FXS101" s="1"/>
+      <c r="FXY101" s="1"/>
+      <c r="FYE101" s="1"/>
+      <c r="FYK101" s="1"/>
+      <c r="FYQ101" s="1"/>
+      <c r="FYW101" s="1"/>
+      <c r="FZC101" s="1"/>
+      <c r="FZI101" s="1"/>
+      <c r="FZO101" s="1"/>
+      <c r="FZU101" s="1"/>
+      <c r="GAA101" s="1"/>
+      <c r="GAG101" s="1"/>
+      <c r="GAM101" s="1"/>
+      <c r="GAS101" s="1"/>
+      <c r="GAY101" s="1"/>
+      <c r="GBE101" s="1"/>
+      <c r="GBK101" s="1"/>
+      <c r="GBQ101" s="1"/>
+      <c r="GBW101" s="1"/>
+      <c r="GCC101" s="1"/>
+      <c r="GCI101" s="1"/>
+      <c r="GCO101" s="1"/>
+      <c r="GCU101" s="1"/>
+      <c r="GDA101" s="1"/>
+      <c r="GDG101" s="1"/>
+      <c r="GDM101" s="1"/>
+      <c r="GDS101" s="1"/>
+      <c r="GDY101" s="1"/>
+      <c r="GEE101" s="1"/>
+      <c r="GEK101" s="1"/>
+      <c r="GEQ101" s="1"/>
+      <c r="GEW101" s="1"/>
+      <c r="GFC101" s="1"/>
+      <c r="GFI101" s="1"/>
+      <c r="GFO101" s="1"/>
+      <c r="GFU101" s="1"/>
+      <c r="GGA101" s="1"/>
+      <c r="GGG101" s="1"/>
+      <c r="GGM101" s="1"/>
+      <c r="GGS101" s="1"/>
+      <c r="GGY101" s="1"/>
+      <c r="GHE101" s="1"/>
+      <c r="GHK101" s="1"/>
+      <c r="GHQ101" s="1"/>
+      <c r="GHW101" s="1"/>
+      <c r="GIC101" s="1"/>
+      <c r="GII101" s="1"/>
+      <c r="GIO101" s="1"/>
+      <c r="GIU101" s="1"/>
+      <c r="GJA101" s="1"/>
+      <c r="GJG101" s="1"/>
+      <c r="GJM101" s="1"/>
+      <c r="GJS101" s="1"/>
+      <c r="GJY101" s="1"/>
+      <c r="GKE101" s="1"/>
+      <c r="GKK101" s="1"/>
+      <c r="GKQ101" s="1"/>
+      <c r="GKW101" s="1"/>
+      <c r="GLC101" s="1"/>
+      <c r="GLI101" s="1"/>
+      <c r="GLO101" s="1"/>
+      <c r="GLU101" s="1"/>
+      <c r="GMA101" s="1"/>
+      <c r="GMG101" s="1"/>
+      <c r="GMM101" s="1"/>
+      <c r="GMS101" s="1"/>
+      <c r="GMY101" s="1"/>
+      <c r="GNE101" s="1"/>
+      <c r="GNK101" s="1"/>
+      <c r="GNQ101" s="1"/>
+      <c r="GNW101" s="1"/>
+      <c r="GOC101" s="1"/>
+      <c r="GOI101" s="1"/>
+      <c r="GOO101" s="1"/>
+      <c r="GOU101" s="1"/>
+      <c r="GPA101" s="1"/>
+      <c r="GPG101" s="1"/>
+      <c r="GPM101" s="1"/>
+      <c r="GPS101" s="1"/>
+      <c r="GPY101" s="1"/>
+      <c r="GQE101" s="1"/>
+      <c r="GQK101" s="1"/>
+      <c r="GQQ101" s="1"/>
+      <c r="GQW101" s="1"/>
+      <c r="GRC101" s="1"/>
+      <c r="GRI101" s="1"/>
+      <c r="GRO101" s="1"/>
+      <c r="GRU101" s="1"/>
+      <c r="GSA101" s="1"/>
+      <c r="GSG101" s="1"/>
+      <c r="GSM101" s="1"/>
+      <c r="GSS101" s="1"/>
+      <c r="GSY101" s="1"/>
+      <c r="GTE101" s="1"/>
+      <c r="GTK101" s="1"/>
+      <c r="GTQ101" s="1"/>
+      <c r="GTW101" s="1"/>
+      <c r="GUC101" s="1"/>
+      <c r="GUI101" s="1"/>
+      <c r="GUO101" s="1"/>
+      <c r="GUU101" s="1"/>
+      <c r="GVA101" s="1"/>
+      <c r="GVG101" s="1"/>
+      <c r="GVM101" s="1"/>
+      <c r="GVS101" s="1"/>
+      <c r="GVY101" s="1"/>
+      <c r="GWE101" s="1"/>
+      <c r="GWK101" s="1"/>
+      <c r="GWQ101" s="1"/>
+      <c r="GWW101" s="1"/>
+      <c r="GXC101" s="1"/>
+      <c r="GXI101" s="1"/>
+      <c r="GXO101" s="1"/>
+      <c r="GXU101" s="1"/>
+      <c r="GYA101" s="1"/>
+      <c r="GYG101" s="1"/>
+      <c r="GYM101" s="1"/>
+      <c r="GYS101" s="1"/>
+      <c r="GYY101" s="1"/>
+      <c r="GZE101" s="1"/>
+      <c r="GZK101" s="1"/>
+      <c r="GZQ101" s="1"/>
+      <c r="GZW101" s="1"/>
+      <c r="HAC101" s="1"/>
+      <c r="HAI101" s="1"/>
+      <c r="HAO101" s="1"/>
+      <c r="HAU101" s="1"/>
+      <c r="HBA101" s="1"/>
+      <c r="HBG101" s="1"/>
+      <c r="HBM101" s="1"/>
+      <c r="HBS101" s="1"/>
+      <c r="HBY101" s="1"/>
+      <c r="HCE101" s="1"/>
+      <c r="HCK101" s="1"/>
+      <c r="HCQ101" s="1"/>
+      <c r="HCW101" s="1"/>
+      <c r="HDC101" s="1"/>
+      <c r="HDI101" s="1"/>
+      <c r="HDO101" s="1"/>
+      <c r="HDU101" s="1"/>
+      <c r="HEA101" s="1"/>
+      <c r="HEG101" s="1"/>
+      <c r="HEM101" s="1"/>
+      <c r="HES101" s="1"/>
+      <c r="HEY101" s="1"/>
+      <c r="HFE101" s="1"/>
+      <c r="HFK101" s="1"/>
+      <c r="HFQ101" s="1"/>
+      <c r="HFW101" s="1"/>
+      <c r="HGC101" s="1"/>
+      <c r="HGI101" s="1"/>
+      <c r="HGO101" s="1"/>
+      <c r="HGU101" s="1"/>
+      <c r="HHA101" s="1"/>
+      <c r="HHG101" s="1"/>
+      <c r="HHM101" s="1"/>
+      <c r="HHS101" s="1"/>
+      <c r="HHY101" s="1"/>
+      <c r="HIE101" s="1"/>
+      <c r="HIK101" s="1"/>
+      <c r="HIQ101" s="1"/>
+      <c r="HIW101" s="1"/>
+      <c r="HJC101" s="1"/>
+      <c r="HJI101" s="1"/>
+      <c r="HJO101" s="1"/>
+      <c r="HJU101" s="1"/>
+      <c r="HKA101" s="1"/>
+      <c r="HKG101" s="1"/>
+      <c r="HKM101" s="1"/>
+      <c r="HKS101" s="1"/>
+      <c r="HKY101" s="1"/>
+      <c r="HLE101" s="1"/>
+      <c r="HLK101" s="1"/>
+      <c r="HLQ101" s="1"/>
+      <c r="HLW101" s="1"/>
+      <c r="HMC101" s="1"/>
+      <c r="HMI101" s="1"/>
+      <c r="HMO101" s="1"/>
+      <c r="HMU101" s="1"/>
+      <c r="HNA101" s="1"/>
+      <c r="HNG101" s="1"/>
+      <c r="HNM101" s="1"/>
+      <c r="HNS101" s="1"/>
+      <c r="HNY101" s="1"/>
+      <c r="HOE101" s="1"/>
+      <c r="HOK101" s="1"/>
+      <c r="HOQ101" s="1"/>
+      <c r="HOW101" s="1"/>
+      <c r="HPC101" s="1"/>
+      <c r="HPI101" s="1"/>
+      <c r="HPO101" s="1"/>
+      <c r="HPU101" s="1"/>
+      <c r="HQA101" s="1"/>
+      <c r="HQG101" s="1"/>
+      <c r="HQM101" s="1"/>
+      <c r="HQS101" s="1"/>
+      <c r="HQY101" s="1"/>
+      <c r="HRE101" s="1"/>
+      <c r="HRK101" s="1"/>
+      <c r="HRQ101" s="1"/>
+      <c r="HRW101" s="1"/>
+      <c r="HSC101" s="1"/>
+      <c r="HSI101" s="1"/>
+      <c r="HSO101" s="1"/>
+      <c r="HSU101" s="1"/>
+      <c r="HTA101" s="1"/>
+      <c r="HTG101" s="1"/>
+      <c r="HTM101" s="1"/>
+      <c r="HTS101" s="1"/>
+      <c r="HTY101" s="1"/>
+      <c r="HUE101" s="1"/>
+      <c r="HUK101" s="1"/>
+      <c r="HUQ101" s="1"/>
+      <c r="HUW101" s="1"/>
+      <c r="HVC101" s="1"/>
+      <c r="HVI101" s="1"/>
+      <c r="HVO101" s="1"/>
+      <c r="HVU101" s="1"/>
+      <c r="HWA101" s="1"/>
+      <c r="HWG101" s="1"/>
+      <c r="HWM101" s="1"/>
+      <c r="HWS101" s="1"/>
+      <c r="HWY101" s="1"/>
+      <c r="HXE101" s="1"/>
+      <c r="HXK101" s="1"/>
+      <c r="HXQ101" s="1"/>
+      <c r="HXW101" s="1"/>
+      <c r="HYC101" s="1"/>
+      <c r="HYI101" s="1"/>
+      <c r="HYO101" s="1"/>
+      <c r="HYU101" s="1"/>
+      <c r="HZA101" s="1"/>
+      <c r="HZG101" s="1"/>
+      <c r="HZM101" s="1"/>
+      <c r="HZS101" s="1"/>
+      <c r="HZY101" s="1"/>
+      <c r="IAE101" s="1"/>
+      <c r="IAK101" s="1"/>
+      <c r="IAQ101" s="1"/>
+      <c r="IAW101" s="1"/>
+      <c r="IBC101" s="1"/>
+      <c r="IBI101" s="1"/>
+      <c r="IBO101" s="1"/>
+      <c r="IBU101" s="1"/>
+      <c r="ICA101" s="1"/>
+      <c r="ICG101" s="1"/>
+      <c r="ICM101" s="1"/>
+      <c r="ICS101" s="1"/>
+      <c r="ICY101" s="1"/>
+      <c r="IDE101" s="1"/>
+      <c r="IDK101" s="1"/>
+      <c r="IDQ101" s="1"/>
+      <c r="IDW101" s="1"/>
+      <c r="IEC101" s="1"/>
+      <c r="IEI101" s="1"/>
+      <c r="IEO101" s="1"/>
+      <c r="IEU101" s="1"/>
+      <c r="IFA101" s="1"/>
+      <c r="IFG101" s="1"/>
+      <c r="IFM101" s="1"/>
+      <c r="IFS101" s="1"/>
+      <c r="IFY101" s="1"/>
+      <c r="IGE101" s="1"/>
+      <c r="IGK101" s="1"/>
+      <c r="IGQ101" s="1"/>
+      <c r="IGW101" s="1"/>
+      <c r="IHC101" s="1"/>
+      <c r="IHI101" s="1"/>
+      <c r="IHO101" s="1"/>
+      <c r="IHU101" s="1"/>
+      <c r="IIA101" s="1"/>
+      <c r="IIG101" s="1"/>
+      <c r="IIM101" s="1"/>
+      <c r="IIS101" s="1"/>
+      <c r="IIY101" s="1"/>
+      <c r="IJE101" s="1"/>
+      <c r="IJK101" s="1"/>
+      <c r="IJQ101" s="1"/>
+      <c r="IJW101" s="1"/>
+      <c r="IKC101" s="1"/>
+      <c r="IKI101" s="1"/>
+      <c r="IKO101" s="1"/>
+      <c r="IKU101" s="1"/>
+      <c r="ILA101" s="1"/>
+      <c r="ILG101" s="1"/>
+      <c r="ILM101" s="1"/>
+      <c r="ILS101" s="1"/>
+      <c r="ILY101" s="1"/>
+      <c r="IME101" s="1"/>
+      <c r="IMK101" s="1"/>
+      <c r="IMQ101" s="1"/>
+      <c r="IMW101" s="1"/>
+      <c r="INC101" s="1"/>
+      <c r="INI101" s="1"/>
+      <c r="INO101" s="1"/>
+      <c r="INU101" s="1"/>
+      <c r="IOA101" s="1"/>
+      <c r="IOG101" s="1"/>
+      <c r="IOM101" s="1"/>
+      <c r="IOS101" s="1"/>
+      <c r="IOY101" s="1"/>
+      <c r="IPE101" s="1"/>
+      <c r="IPK101" s="1"/>
+      <c r="IPQ101" s="1"/>
+      <c r="IPW101" s="1"/>
+      <c r="IQC101" s="1"/>
+      <c r="IQI101" s="1"/>
+      <c r="IQO101" s="1"/>
+      <c r="IQU101" s="1"/>
+      <c r="IRA101" s="1"/>
+      <c r="IRG101" s="1"/>
+      <c r="IRM101" s="1"/>
+      <c r="IRS101" s="1"/>
+      <c r="IRY101" s="1"/>
+      <c r="ISE101" s="1"/>
+      <c r="ISK101" s="1"/>
+      <c r="ISQ101" s="1"/>
+      <c r="ISW101" s="1"/>
+      <c r="ITC101" s="1"/>
+      <c r="ITI101" s="1"/>
+      <c r="ITO101" s="1"/>
+      <c r="ITU101" s="1"/>
+      <c r="IUA101" s="1"/>
+      <c r="IUG101" s="1"/>
+      <c r="IUM101" s="1"/>
+      <c r="IUS101" s="1"/>
+      <c r="IUY101" s="1"/>
+      <c r="IVE101" s="1"/>
+      <c r="IVK101" s="1"/>
+      <c r="IVQ101" s="1"/>
+      <c r="IVW101" s="1"/>
+      <c r="IWC101" s="1"/>
+      <c r="IWI101" s="1"/>
+      <c r="IWO101" s="1"/>
+      <c r="IWU101" s="1"/>
+      <c r="IXA101" s="1"/>
+      <c r="IXG101" s="1"/>
+      <c r="IXM101" s="1"/>
+      <c r="IXS101" s="1"/>
+      <c r="IXY101" s="1"/>
+      <c r="IYE101" s="1"/>
+      <c r="IYK101" s="1"/>
+      <c r="IYQ101" s="1"/>
+      <c r="IYW101" s="1"/>
+      <c r="IZC101" s="1"/>
+      <c r="IZI101" s="1"/>
+      <c r="IZO101" s="1"/>
+      <c r="IZU101" s="1"/>
+      <c r="JAA101" s="1"/>
+      <c r="JAG101" s="1"/>
+      <c r="JAM101" s="1"/>
+      <c r="JAS101" s="1"/>
+      <c r="JAY101" s="1"/>
+      <c r="JBE101" s="1"/>
+      <c r="JBK101" s="1"/>
+      <c r="JBQ101" s="1"/>
+      <c r="JBW101" s="1"/>
+      <c r="JCC101" s="1"/>
+      <c r="JCI101" s="1"/>
+      <c r="JCO101" s="1"/>
+      <c r="JCU101" s="1"/>
+      <c r="JDA101" s="1"/>
+      <c r="JDG101" s="1"/>
+      <c r="JDM101" s="1"/>
+      <c r="JDS101" s="1"/>
+      <c r="JDY101" s="1"/>
+      <c r="JEE101" s="1"/>
+      <c r="JEK101" s="1"/>
+      <c r="JEQ101" s="1"/>
+      <c r="JEW101" s="1"/>
+      <c r="JFC101" s="1"/>
+      <c r="JFI101" s="1"/>
+      <c r="JFO101" s="1"/>
+      <c r="JFU101" s="1"/>
+      <c r="JGA101" s="1"/>
+      <c r="JGG101" s="1"/>
+      <c r="JGM101" s="1"/>
+      <c r="JGS101" s="1"/>
+      <c r="JGY101" s="1"/>
+      <c r="JHE101" s="1"/>
+      <c r="JHK101" s="1"/>
+      <c r="JHQ101" s="1"/>
+      <c r="JHW101" s="1"/>
+      <c r="JIC101" s="1"/>
+      <c r="JII101" s="1"/>
+      <c r="JIO101" s="1"/>
+      <c r="JIU101" s="1"/>
+      <c r="JJA101" s="1"/>
+      <c r="JJG101" s="1"/>
+      <c r="JJM101" s="1"/>
+      <c r="JJS101" s="1"/>
+      <c r="JJY101" s="1"/>
+      <c r="JKE101" s="1"/>
+      <c r="JKK101" s="1"/>
+      <c r="JKQ101" s="1"/>
+      <c r="JKW101" s="1"/>
+      <c r="JLC101" s="1"/>
+      <c r="JLI101" s="1"/>
+      <c r="JLO101" s="1"/>
+      <c r="JLU101" s="1"/>
+      <c r="JMA101" s="1"/>
+      <c r="JMG101" s="1"/>
+      <c r="JMM101" s="1"/>
+      <c r="JMS101" s="1"/>
+      <c r="JMY101" s="1"/>
+      <c r="JNE101" s="1"/>
+      <c r="JNK101" s="1"/>
+      <c r="JNQ101" s="1"/>
+      <c r="JNW101" s="1"/>
+      <c r="JOC101" s="1"/>
+      <c r="JOI101" s="1"/>
+      <c r="JOO101" s="1"/>
+      <c r="JOU101" s="1"/>
+      <c r="JPA101" s="1"/>
+      <c r="JPG101" s="1"/>
+      <c r="JPM101" s="1"/>
+      <c r="JPS101" s="1"/>
+      <c r="JPY101" s="1"/>
+      <c r="JQE101" s="1"/>
+      <c r="JQK101" s="1"/>
+      <c r="JQQ101" s="1"/>
+      <c r="JQW101" s="1"/>
+      <c r="JRC101" s="1"/>
+      <c r="JRI101" s="1"/>
+      <c r="JRO101" s="1"/>
+      <c r="JRU101" s="1"/>
+      <c r="JSA101" s="1"/>
+      <c r="JSG101" s="1"/>
+      <c r="JSM101" s="1"/>
+      <c r="JSS101" s="1"/>
+      <c r="JSY101" s="1"/>
+      <c r="JTE101" s="1"/>
+      <c r="JTK101" s="1"/>
+      <c r="JTQ101" s="1"/>
+      <c r="JTW101" s="1"/>
+      <c r="JUC101" s="1"/>
+      <c r="JUI101" s="1"/>
+      <c r="JUO101" s="1"/>
+      <c r="JUU101" s="1"/>
+      <c r="JVA101" s="1"/>
+      <c r="JVG101" s="1"/>
+      <c r="JVM101" s="1"/>
+      <c r="JVS101" s="1"/>
+      <c r="JVY101" s="1"/>
+      <c r="JWE101" s="1"/>
+      <c r="JWK101" s="1"/>
+      <c r="JWQ101" s="1"/>
+      <c r="JWW101" s="1"/>
+      <c r="JXC101" s="1"/>
+      <c r="JXI101" s="1"/>
+      <c r="JXO101" s="1"/>
+      <c r="JXU101" s="1"/>
+      <c r="JYA101" s="1"/>
+      <c r="JYG101" s="1"/>
+      <c r="JYM101" s="1"/>
+      <c r="JYS101" s="1"/>
+      <c r="JYY101" s="1"/>
+      <c r="JZE101" s="1"/>
+      <c r="JZK101" s="1"/>
+      <c r="JZQ101" s="1"/>
+      <c r="JZW101" s="1"/>
+      <c r="KAC101" s="1"/>
+      <c r="KAI101" s="1"/>
+      <c r="KAO101" s="1"/>
+      <c r="KAU101" s="1"/>
+      <c r="KBA101" s="1"/>
+      <c r="KBG101" s="1"/>
+      <c r="KBM101" s="1"/>
+      <c r="KBS101" s="1"/>
+      <c r="KBY101" s="1"/>
+      <c r="KCE101" s="1"/>
+      <c r="KCK101" s="1"/>
+      <c r="KCQ101" s="1"/>
+      <c r="KCW101" s="1"/>
+      <c r="KDC101" s="1"/>
+      <c r="KDI101" s="1"/>
+      <c r="KDO101" s="1"/>
+      <c r="KDU101" s="1"/>
+      <c r="KEA101" s="1"/>
+      <c r="KEG101" s="1"/>
+      <c r="KEM101" s="1"/>
+      <c r="KES101" s="1"/>
+      <c r="KEY101" s="1"/>
+      <c r="KFE101" s="1"/>
+      <c r="KFK101" s="1"/>
+      <c r="KFQ101" s="1"/>
+      <c r="KFW101" s="1"/>
+      <c r="KGC101" s="1"/>
+      <c r="KGI101" s="1"/>
+      <c r="KGO101" s="1"/>
+      <c r="KGU101" s="1"/>
+      <c r="KHA101" s="1"/>
+      <c r="KHG101" s="1"/>
+      <c r="KHM101" s="1"/>
+      <c r="KHS101" s="1"/>
+      <c r="KHY101" s="1"/>
+      <c r="KIE101" s="1"/>
+      <c r="KIK101" s="1"/>
+      <c r="KIQ101" s="1"/>
+      <c r="KIW101" s="1"/>
+      <c r="KJC101" s="1"/>
+      <c r="KJI101" s="1"/>
+      <c r="KJO101" s="1"/>
+      <c r="KJU101" s="1"/>
+      <c r="KKA101" s="1"/>
+      <c r="KKG101" s="1"/>
+      <c r="KKM101" s="1"/>
+      <c r="KKS101" s="1"/>
+      <c r="KKY101" s="1"/>
+      <c r="KLE101" s="1"/>
+      <c r="KLK101" s="1"/>
+      <c r="KLQ101" s="1"/>
+      <c r="KLW101" s="1"/>
+      <c r="KMC101" s="1"/>
+      <c r="KMI101" s="1"/>
+      <c r="KMO101" s="1"/>
+      <c r="KMU101" s="1"/>
+      <c r="KNA101" s="1"/>
+      <c r="KNG101" s="1"/>
+      <c r="KNM101" s="1"/>
+      <c r="KNS101" s="1"/>
+      <c r="KNY101" s="1"/>
+      <c r="KOE101" s="1"/>
+      <c r="KOK101" s="1"/>
+      <c r="KOQ101" s="1"/>
+      <c r="KOW101" s="1"/>
+      <c r="KPC101" s="1"/>
+      <c r="KPI101" s="1"/>
+      <c r="KPO101" s="1"/>
+      <c r="KPU101" s="1"/>
+      <c r="KQA101" s="1"/>
+      <c r="KQG101" s="1"/>
+      <c r="KQM101" s="1"/>
+      <c r="KQS101" s="1"/>
+      <c r="KQY101" s="1"/>
+      <c r="KRE101" s="1"/>
+      <c r="KRK101" s="1"/>
+      <c r="KRQ101" s="1"/>
+      <c r="KRW101" s="1"/>
+      <c r="KSC101" s="1"/>
+      <c r="KSI101" s="1"/>
+      <c r="KSO101" s="1"/>
+      <c r="KSU101" s="1"/>
+      <c r="KTA101" s="1"/>
+      <c r="KTG101" s="1"/>
+      <c r="KTM101" s="1"/>
+      <c r="KTS101" s="1"/>
+      <c r="KTY101" s="1"/>
+      <c r="KUE101" s="1"/>
+      <c r="KUK101" s="1"/>
+      <c r="KUQ101" s="1"/>
+      <c r="KUW101" s="1"/>
+      <c r="KVC101" s="1"/>
+      <c r="KVI101" s="1"/>
+      <c r="KVO101" s="1"/>
+      <c r="KVU101" s="1"/>
+      <c r="KWA101" s="1"/>
+      <c r="KWG101" s="1"/>
+      <c r="KWM101" s="1"/>
+      <c r="KWS101" s="1"/>
+      <c r="KWY101" s="1"/>
+      <c r="KXE101" s="1"/>
+      <c r="KXK101" s="1"/>
+      <c r="KXQ101" s="1"/>
+      <c r="KXW101" s="1"/>
+      <c r="KYC101" s="1"/>
+      <c r="KYI101" s="1"/>
+      <c r="KYO101" s="1"/>
+      <c r="KYU101" s="1"/>
+      <c r="KZA101" s="1"/>
+      <c r="KZG101" s="1"/>
+      <c r="KZM101" s="1"/>
+      <c r="KZS101" s="1"/>
+      <c r="KZY101" s="1"/>
+      <c r="LAE101" s="1"/>
+      <c r="LAK101" s="1"/>
+      <c r="LAQ101" s="1"/>
+      <c r="LAW101" s="1"/>
+      <c r="LBC101" s="1"/>
+      <c r="LBI101" s="1"/>
+      <c r="LBO101" s="1"/>
+      <c r="LBU101" s="1"/>
+      <c r="LCA101" s="1"/>
+      <c r="LCG101" s="1"/>
+      <c r="LCM101" s="1"/>
+      <c r="LCS101" s="1"/>
+      <c r="LCY101" s="1"/>
+      <c r="LDE101" s="1"/>
+      <c r="LDK101" s="1"/>
+      <c r="LDQ101" s="1"/>
+      <c r="LDW101" s="1"/>
+      <c r="LEC101" s="1"/>
+      <c r="LEI101" s="1"/>
+      <c r="LEO101" s="1"/>
+      <c r="LEU101" s="1"/>
+      <c r="LFA101" s="1"/>
+      <c r="LFG101" s="1"/>
+      <c r="LFM101" s="1"/>
+      <c r="LFS101" s="1"/>
+      <c r="LFY101" s="1"/>
+      <c r="LGE101" s="1"/>
+      <c r="LGK101" s="1"/>
+      <c r="LGQ101" s="1"/>
+      <c r="LGW101" s="1"/>
+      <c r="LHC101" s="1"/>
+      <c r="LHI101" s="1"/>
+      <c r="LHO101" s="1"/>
+      <c r="LHU101" s="1"/>
+      <c r="LIA101" s="1"/>
+      <c r="LIG101" s="1"/>
+      <c r="LIM101" s="1"/>
+      <c r="LIS101" s="1"/>
+      <c r="LIY101" s="1"/>
+      <c r="LJE101" s="1"/>
+      <c r="LJK101" s="1"/>
+      <c r="LJQ101" s="1"/>
+      <c r="LJW101" s="1"/>
+      <c r="LKC101" s="1"/>
+      <c r="LKI101" s="1"/>
+      <c r="LKO101" s="1"/>
+      <c r="LKU101" s="1"/>
+      <c r="LLA101" s="1"/>
+      <c r="LLG101" s="1"/>
+      <c r="LLM101" s="1"/>
+      <c r="LLS101" s="1"/>
+      <c r="LLY101" s="1"/>
+      <c r="LME101" s="1"/>
+      <c r="LMK101" s="1"/>
+      <c r="LMQ101" s="1"/>
+      <c r="LMW101" s="1"/>
+      <c r="LNC101" s="1"/>
+      <c r="LNI101" s="1"/>
+      <c r="LNO101" s="1"/>
+      <c r="LNU101" s="1"/>
+      <c r="LOA101" s="1"/>
+      <c r="LOG101" s="1"/>
+      <c r="LOM101" s="1"/>
+      <c r="LOS101" s="1"/>
+      <c r="LOY101" s="1"/>
+      <c r="LPE101" s="1"/>
+      <c r="LPK101" s="1"/>
+      <c r="LPQ101" s="1"/>
+      <c r="LPW101" s="1"/>
+      <c r="LQC101" s="1"/>
+      <c r="LQI101" s="1"/>
+      <c r="LQO101" s="1"/>
+      <c r="LQU101" s="1"/>
+      <c r="LRA101" s="1"/>
+      <c r="LRG101" s="1"/>
+      <c r="LRM101" s="1"/>
+      <c r="LRS101" s="1"/>
+      <c r="LRY101" s="1"/>
+      <c r="LSE101" s="1"/>
+      <c r="LSK101" s="1"/>
+      <c r="LSQ101" s="1"/>
+      <c r="LSW101" s="1"/>
+      <c r="LTC101" s="1"/>
+      <c r="LTI101" s="1"/>
+      <c r="LTO101" s="1"/>
+      <c r="LTU101" s="1"/>
+      <c r="LUA101" s="1"/>
+      <c r="LUG101" s="1"/>
+      <c r="LUM101" s="1"/>
+      <c r="LUS101" s="1"/>
+      <c r="LUY101" s="1"/>
+      <c r="LVE101" s="1"/>
+      <c r="LVK101" s="1"/>
+      <c r="LVQ101" s="1"/>
+      <c r="LVW101" s="1"/>
+      <c r="LWC101" s="1"/>
+      <c r="LWI101" s="1"/>
+      <c r="LWO101" s="1"/>
+      <c r="LWU101" s="1"/>
+      <c r="LXA101" s="1"/>
+      <c r="LXG101" s="1"/>
+      <c r="LXM101" s="1"/>
+      <c r="LXS101" s="1"/>
+      <c r="LXY101" s="1"/>
+      <c r="LYE101" s="1"/>
+      <c r="LYK101" s="1"/>
+      <c r="LYQ101" s="1"/>
+      <c r="LYW101" s="1"/>
+      <c r="LZC101" s="1"/>
+      <c r="LZI101" s="1"/>
+      <c r="LZO101" s="1"/>
+      <c r="LZU101" s="1"/>
+      <c r="MAA101" s="1"/>
+      <c r="MAG101" s="1"/>
+      <c r="MAM101" s="1"/>
+      <c r="MAS101" s="1"/>
+      <c r="MAY101" s="1"/>
+      <c r="MBE101" s="1"/>
+      <c r="MBK101" s="1"/>
+      <c r="MBQ101" s="1"/>
+      <c r="MBW101" s="1"/>
+      <c r="MCC101" s="1"/>
+      <c r="MCI101" s="1"/>
+      <c r="MCO101" s="1"/>
+      <c r="MCU101" s="1"/>
+      <c r="MDA101" s="1"/>
+      <c r="MDG101" s="1"/>
+      <c r="MDM101" s="1"/>
+      <c r="MDS101" s="1"/>
+      <c r="MDY101" s="1"/>
+      <c r="MEE101" s="1"/>
+      <c r="MEK101" s="1"/>
+      <c r="MEQ101" s="1"/>
+      <c r="MEW101" s="1"/>
+      <c r="MFC101" s="1"/>
+      <c r="MFI101" s="1"/>
+      <c r="MFO101" s="1"/>
+      <c r="MFU101" s="1"/>
+      <c r="MGA101" s="1"/>
+      <c r="MGG101" s="1"/>
+      <c r="MGM101" s="1"/>
+      <c r="MGS101" s="1"/>
+      <c r="MGY101" s="1"/>
+      <c r="MHE101" s="1"/>
+      <c r="MHK101" s="1"/>
+      <c r="MHQ101" s="1"/>
+      <c r="MHW101" s="1"/>
+      <c r="MIC101" s="1"/>
+      <c r="MII101" s="1"/>
+      <c r="MIO101" s="1"/>
+      <c r="MIU101" s="1"/>
+      <c r="MJA101" s="1"/>
+      <c r="MJG101" s="1"/>
+      <c r="MJM101" s="1"/>
+      <c r="MJS101" s="1"/>
+      <c r="MJY101" s="1"/>
+      <c r="MKE101" s="1"/>
+      <c r="MKK101" s="1"/>
+      <c r="MKQ101" s="1"/>
+      <c r="MKW101" s="1"/>
+      <c r="MLC101" s="1"/>
+      <c r="MLI101" s="1"/>
+      <c r="MLO101" s="1"/>
+      <c r="MLU101" s="1"/>
+      <c r="MMA101" s="1"/>
+      <c r="MMG101" s="1"/>
+      <c r="MMM101" s="1"/>
+      <c r="MMS101" s="1"/>
+      <c r="MMY101" s="1"/>
+      <c r="MNE101" s="1"/>
+      <c r="MNK101" s="1"/>
+      <c r="MNQ101" s="1"/>
+      <c r="MNW101" s="1"/>
+      <c r="MOC101" s="1"/>
+      <c r="MOI101" s="1"/>
+      <c r="MOO101" s="1"/>
+      <c r="MOU101" s="1"/>
+      <c r="MPA101" s="1"/>
+      <c r="MPG101" s="1"/>
+      <c r="MPM101" s="1"/>
+      <c r="MPS101" s="1"/>
+      <c r="MPY101" s="1"/>
+      <c r="MQE101" s="1"/>
+      <c r="MQK101" s="1"/>
+      <c r="MQQ101" s="1"/>
+      <c r="MQW101" s="1"/>
+      <c r="MRC101" s="1"/>
+      <c r="MRI101" s="1"/>
+      <c r="MRO101" s="1"/>
+      <c r="MRU101" s="1"/>
+      <c r="MSA101" s="1"/>
+      <c r="MSG101" s="1"/>
+      <c r="MSM101" s="1"/>
+      <c r="MSS101" s="1"/>
+      <c r="MSY101" s="1"/>
+      <c r="MTE101" s="1"/>
+      <c r="MTK101" s="1"/>
+      <c r="MTQ101" s="1"/>
+      <c r="MTW101" s="1"/>
+      <c r="MUC101" s="1"/>
+      <c r="MUI101" s="1"/>
+      <c r="MUO101" s="1"/>
+      <c r="MUU101" s="1"/>
+      <c r="MVA101" s="1"/>
+      <c r="MVG101" s="1"/>
+      <c r="MVM101" s="1"/>
+      <c r="MVS101" s="1"/>
+      <c r="MVY101" s="1"/>
+      <c r="MWE101" s="1"/>
+      <c r="MWK101" s="1"/>
+      <c r="MWQ101" s="1"/>
+      <c r="MWW101" s="1"/>
+      <c r="MXC101" s="1"/>
+      <c r="MXI101" s="1"/>
+      <c r="MXO101" s="1"/>
+      <c r="MXU101" s="1"/>
+      <c r="MYA101" s="1"/>
+      <c r="MYG101" s="1"/>
+      <c r="MYM101" s="1"/>
+      <c r="MYS101" s="1"/>
+      <c r="MYY101" s="1"/>
+      <c r="MZE101" s="1"/>
+      <c r="MZK101" s="1"/>
+      <c r="MZQ101" s="1"/>
+      <c r="MZW101" s="1"/>
+      <c r="NAC101" s="1"/>
+      <c r="NAI101" s="1"/>
+      <c r="NAO101" s="1"/>
+      <c r="NAU101" s="1"/>
+      <c r="NBA101" s="1"/>
+      <c r="NBG101" s="1"/>
+      <c r="NBM101" s="1"/>
+      <c r="NBS101" s="1"/>
+      <c r="NBY101" s="1"/>
+      <c r="NCE101" s="1"/>
+      <c r="NCK101" s="1"/>
+      <c r="NCQ101" s="1"/>
+      <c r="NCW101" s="1"/>
+      <c r="NDC101" s="1"/>
+      <c r="NDI101" s="1"/>
+      <c r="NDO101" s="1"/>
+      <c r="NDU101" s="1"/>
+      <c r="NEA101" s="1"/>
+      <c r="NEG101" s="1"/>
+      <c r="NEM101" s="1"/>
+      <c r="NES101" s="1"/>
+      <c r="NEY101" s="1"/>
+      <c r="NFE101" s="1"/>
+      <c r="NFK101" s="1"/>
+      <c r="NFQ101" s="1"/>
+      <c r="NFW101" s="1"/>
+      <c r="NGC101" s="1"/>
+      <c r="NGI101" s="1"/>
+      <c r="NGO101" s="1"/>
+      <c r="NGU101" s="1"/>
+      <c r="NHA101" s="1"/>
+      <c r="NHG101" s="1"/>
+      <c r="NHM101" s="1"/>
+      <c r="NHS101" s="1"/>
+      <c r="NHY101" s="1"/>
+      <c r="NIE101" s="1"/>
+      <c r="NIK101" s="1"/>
+      <c r="NIQ101" s="1"/>
+      <c r="NIW101" s="1"/>
+      <c r="NJC101" s="1"/>
+      <c r="NJI101" s="1"/>
+      <c r="NJO101" s="1"/>
+      <c r="NJU101" s="1"/>
+      <c r="NKA101" s="1"/>
+      <c r="NKG101" s="1"/>
+      <c r="NKM101" s="1"/>
+      <c r="NKS101" s="1"/>
+      <c r="NKY101" s="1"/>
+      <c r="NLE101" s="1"/>
+      <c r="NLK101" s="1"/>
+      <c r="NLQ101" s="1"/>
+      <c r="NLW101" s="1"/>
+      <c r="NMC101" s="1"/>
+      <c r="NMI101" s="1"/>
+      <c r="NMO101" s="1"/>
+      <c r="NMU101" s="1"/>
+      <c r="NNA101" s="1"/>
+      <c r="NNG101" s="1"/>
+      <c r="NNM101" s="1"/>
+      <c r="NNS101" s="1"/>
+      <c r="NNY101" s="1"/>
+      <c r="NOE101" s="1"/>
+      <c r="NOK101" s="1"/>
+      <c r="NOQ101" s="1"/>
+      <c r="NOW101" s="1"/>
+      <c r="NPC101" s="1"/>
+      <c r="NPI101" s="1"/>
+      <c r="NPO101" s="1"/>
+      <c r="NPU101" s="1"/>
+      <c r="NQA101" s="1"/>
+      <c r="NQG101" s="1"/>
+      <c r="NQM101" s="1"/>
+      <c r="NQS101" s="1"/>
+      <c r="NQY101" s="1"/>
+      <c r="NRE101" s="1"/>
+      <c r="NRK101" s="1"/>
+      <c r="NRQ101" s="1"/>
+      <c r="NRW101" s="1"/>
+      <c r="NSC101" s="1"/>
+      <c r="NSI101" s="1"/>
+      <c r="NSO101" s="1"/>
+      <c r="NSU101" s="1"/>
+      <c r="NTA101" s="1"/>
+      <c r="NTG101" s="1"/>
+      <c r="NTM101" s="1"/>
+      <c r="NTS101" s="1"/>
+      <c r="NTY101" s="1"/>
+      <c r="NUE101" s="1"/>
+      <c r="NUK101" s="1"/>
+      <c r="NUQ101" s="1"/>
+      <c r="NUW101" s="1"/>
+      <c r="NVC101" s="1"/>
+      <c r="NVI101" s="1"/>
+      <c r="NVO101" s="1"/>
+      <c r="NVU101" s="1"/>
+      <c r="NWA101" s="1"/>
+      <c r="NWG101" s="1"/>
+      <c r="NWM101" s="1"/>
+      <c r="NWS101" s="1"/>
+      <c r="NWY101" s="1"/>
+      <c r="NXE101" s="1"/>
+      <c r="NXK101" s="1"/>
+      <c r="NXQ101" s="1"/>
+      <c r="NXW101" s="1"/>
+      <c r="NYC101" s="1"/>
+      <c r="NYI101" s="1"/>
+      <c r="NYO101" s="1"/>
+      <c r="NYU101" s="1"/>
+      <c r="NZA101" s="1"/>
+      <c r="NZG101" s="1"/>
+      <c r="NZM101" s="1"/>
+      <c r="NZS101" s="1"/>
+      <c r="NZY101" s="1"/>
+      <c r="OAE101" s="1"/>
+      <c r="OAK101" s="1"/>
+      <c r="OAQ101" s="1"/>
+      <c r="OAW101" s="1"/>
+      <c r="OBC101" s="1"/>
+      <c r="OBI101" s="1"/>
+      <c r="OBO101" s="1"/>
+      <c r="OBU101" s="1"/>
+      <c r="OCA101" s="1"/>
+      <c r="OCG101" s="1"/>
+      <c r="OCM101" s="1"/>
+      <c r="OCS101" s="1"/>
+      <c r="OCY101" s="1"/>
+      <c r="ODE101" s="1"/>
+      <c r="ODK101" s="1"/>
+      <c r="ODQ101" s="1"/>
+      <c r="ODW101" s="1"/>
+      <c r="OEC101" s="1"/>
+      <c r="OEI101" s="1"/>
+      <c r="OEO101" s="1"/>
+      <c r="OEU101" s="1"/>
+      <c r="OFA101" s="1"/>
+      <c r="OFG101" s="1"/>
+      <c r="OFM101" s="1"/>
+      <c r="OFS101" s="1"/>
+      <c r="OFY101" s="1"/>
+      <c r="OGE101" s="1"/>
+      <c r="OGK101" s="1"/>
+      <c r="OGQ101" s="1"/>
+      <c r="OGW101" s="1"/>
+      <c r="OHC101" s="1"/>
+      <c r="OHI101" s="1"/>
+      <c r="OHO101" s="1"/>
+      <c r="OHU101" s="1"/>
+      <c r="OIA101" s="1"/>
+      <c r="OIG101" s="1"/>
+      <c r="OIM101" s="1"/>
+      <c r="OIS101" s="1"/>
+      <c r="OIY101" s="1"/>
+      <c r="OJE101" s="1"/>
+      <c r="OJK101" s="1"/>
+      <c r="OJQ101" s="1"/>
+      <c r="OJW101" s="1"/>
+      <c r="OKC101" s="1"/>
+      <c r="OKI101" s="1"/>
+      <c r="OKO101" s="1"/>
+      <c r="OKU101" s="1"/>
+      <c r="OLA101" s="1"/>
+      <c r="OLG101" s="1"/>
+      <c r="OLM101" s="1"/>
+      <c r="OLS101" s="1"/>
+      <c r="OLY101" s="1"/>
+      <c r="OME101" s="1"/>
+      <c r="OMK101" s="1"/>
+      <c r="OMQ101" s="1"/>
+      <c r="OMW101" s="1"/>
+      <c r="ONC101" s="1"/>
+      <c r="ONI101" s="1"/>
+      <c r="ONO101" s="1"/>
+      <c r="ONU101" s="1"/>
+      <c r="OOA101" s="1"/>
+      <c r="OOG101" s="1"/>
+      <c r="OOM101" s="1"/>
+      <c r="OOS101" s="1"/>
+      <c r="OOY101" s="1"/>
+      <c r="OPE101" s="1"/>
+      <c r="OPK101" s="1"/>
+      <c r="OPQ101" s="1"/>
+      <c r="OPW101" s="1"/>
+      <c r="OQC101" s="1"/>
+      <c r="OQI101" s="1"/>
+      <c r="OQO101" s="1"/>
+      <c r="OQU101" s="1"/>
+      <c r="ORA101" s="1"/>
+      <c r="ORG101" s="1"/>
+      <c r="ORM101" s="1"/>
+      <c r="ORS101" s="1"/>
+      <c r="ORY101" s="1"/>
+      <c r="OSE101" s="1"/>
+      <c r="OSK101" s="1"/>
+      <c r="OSQ101" s="1"/>
+      <c r="OSW101" s="1"/>
+      <c r="OTC101" s="1"/>
+      <c r="OTI101" s="1"/>
+      <c r="OTO101" s="1"/>
+      <c r="OTU101" s="1"/>
+      <c r="OUA101" s="1"/>
+      <c r="OUG101" s="1"/>
+      <c r="OUM101" s="1"/>
+      <c r="OUS101" s="1"/>
+      <c r="OUY101" s="1"/>
+      <c r="OVE101" s="1"/>
+      <c r="OVK101" s="1"/>
+      <c r="OVQ101" s="1"/>
+      <c r="OVW101" s="1"/>
+      <c r="OWC101" s="1"/>
+      <c r="OWI101" s="1"/>
+      <c r="OWO101" s="1"/>
+      <c r="OWU101" s="1"/>
+      <c r="OXA101" s="1"/>
+      <c r="OXG101" s="1"/>
+      <c r="OXM101" s="1"/>
+      <c r="OXS101" s="1"/>
+      <c r="OXY101" s="1"/>
+      <c r="OYE101" s="1"/>
+      <c r="OYK101" s="1"/>
+      <c r="OYQ101" s="1"/>
+      <c r="OYW101" s="1"/>
+      <c r="OZC101" s="1"/>
+      <c r="OZI101" s="1"/>
+      <c r="OZO101" s="1"/>
+      <c r="OZU101" s="1"/>
+      <c r="PAA101" s="1"/>
+      <c r="PAG101" s="1"/>
+      <c r="PAM101" s="1"/>
+      <c r="PAS101" s="1"/>
+      <c r="PAY101" s="1"/>
+      <c r="PBE101" s="1"/>
+      <c r="PBK101" s="1"/>
+      <c r="PBQ101" s="1"/>
+      <c r="PBW101" s="1"/>
+      <c r="PCC101" s="1"/>
+      <c r="PCI101" s="1"/>
+      <c r="PCO101" s="1"/>
+      <c r="PCU101" s="1"/>
+      <c r="PDA101" s="1"/>
+      <c r="PDG101" s="1"/>
+      <c r="PDM101" s="1"/>
+      <c r="PDS101" s="1"/>
+      <c r="PDY101" s="1"/>
+      <c r="PEE101" s="1"/>
+      <c r="PEK101" s="1"/>
+      <c r="PEQ101" s="1"/>
+      <c r="PEW101" s="1"/>
+      <c r="PFC101" s="1"/>
+      <c r="PFI101" s="1"/>
+      <c r="PFO101" s="1"/>
+      <c r="PFU101" s="1"/>
+      <c r="PGA101" s="1"/>
+      <c r="PGG101" s="1"/>
+      <c r="PGM101" s="1"/>
+      <c r="PGS101" s="1"/>
+      <c r="PGY101" s="1"/>
+      <c r="PHE101" s="1"/>
+      <c r="PHK101" s="1"/>
+      <c r="PHQ101" s="1"/>
+      <c r="PHW101" s="1"/>
+      <c r="PIC101" s="1"/>
+      <c r="PII101" s="1"/>
+      <c r="PIO101" s="1"/>
+      <c r="PIU101" s="1"/>
+      <c r="PJA101" s="1"/>
+      <c r="PJG101" s="1"/>
+      <c r="PJM101" s="1"/>
+      <c r="PJS101" s="1"/>
+      <c r="PJY101" s="1"/>
+      <c r="PKE101" s="1"/>
+      <c r="PKK101" s="1"/>
+      <c r="PKQ101" s="1"/>
+      <c r="PKW101" s="1"/>
+      <c r="PLC101" s="1"/>
+      <c r="PLI101" s="1"/>
+      <c r="PLO101" s="1"/>
+      <c r="PLU101" s="1"/>
+      <c r="PMA101" s="1"/>
+      <c r="PMG101" s="1"/>
+      <c r="PMM101" s="1"/>
+      <c r="PMS101" s="1"/>
+      <c r="PMY101" s="1"/>
+      <c r="PNE101" s="1"/>
+      <c r="PNK101" s="1"/>
+      <c r="PNQ101" s="1"/>
+      <c r="PNW101" s="1"/>
+      <c r="POC101" s="1"/>
+      <c r="POI101" s="1"/>
+      <c r="POO101" s="1"/>
+      <c r="POU101" s="1"/>
+      <c r="PPA101" s="1"/>
+      <c r="PPG101" s="1"/>
+      <c r="PPM101" s="1"/>
+      <c r="PPS101" s="1"/>
+      <c r="PPY101" s="1"/>
+      <c r="PQE101" s="1"/>
+      <c r="PQK101" s="1"/>
+      <c r="PQQ101" s="1"/>
+      <c r="PQW101" s="1"/>
+      <c r="PRC101" s="1"/>
+      <c r="PRI101" s="1"/>
+      <c r="PRO101" s="1"/>
+      <c r="PRU101" s="1"/>
+      <c r="PSA101" s="1"/>
+      <c r="PSG101" s="1"/>
+      <c r="PSM101" s="1"/>
+      <c r="PSS101" s="1"/>
+      <c r="PSY101" s="1"/>
+      <c r="PTE101" s="1"/>
+      <c r="PTK101" s="1"/>
+      <c r="PTQ101" s="1"/>
+      <c r="PTW101" s="1"/>
+      <c r="PUC101" s="1"/>
+      <c r="PUI101" s="1"/>
+      <c r="PUO101" s="1"/>
+      <c r="PUU101" s="1"/>
+      <c r="PVA101" s="1"/>
+      <c r="PVG101" s="1"/>
+      <c r="PVM101" s="1"/>
+      <c r="PVS101" s="1"/>
+      <c r="PVY101" s="1"/>
+      <c r="PWE101" s="1"/>
+      <c r="PWK101" s="1"/>
+      <c r="PWQ101" s="1"/>
+      <c r="PWW101" s="1"/>
+      <c r="PXC101" s="1"/>
+      <c r="PXI101" s="1"/>
+      <c r="PXO101" s="1"/>
+      <c r="PXU101" s="1"/>
+      <c r="PYA101" s="1"/>
+      <c r="PYG101" s="1"/>
+      <c r="PYM101" s="1"/>
+      <c r="PYS101" s="1"/>
+      <c r="PYY101" s="1"/>
+      <c r="PZE101" s="1"/>
+      <c r="PZK101" s="1"/>
+      <c r="PZQ101" s="1"/>
+      <c r="PZW101" s="1"/>
+      <c r="QAC101" s="1"/>
+      <c r="QAI101" s="1"/>
+      <c r="QAO101" s="1"/>
+      <c r="QAU101" s="1"/>
+      <c r="QBA101" s="1"/>
+      <c r="QBG101" s="1"/>
+      <c r="QBM101" s="1"/>
+      <c r="QBS101" s="1"/>
+      <c r="QBY101" s="1"/>
+      <c r="QCE101" s="1"/>
+      <c r="QCK101" s="1"/>
+      <c r="QCQ101" s="1"/>
+      <c r="QCW101" s="1"/>
+      <c r="QDC101" s="1"/>
+      <c r="QDI101" s="1"/>
+      <c r="QDO101" s="1"/>
+      <c r="QDU101" s="1"/>
+      <c r="QEA101" s="1"/>
+      <c r="QEG101" s="1"/>
+      <c r="QEM101" s="1"/>
+      <c r="QES101" s="1"/>
+      <c r="QEY101" s="1"/>
+      <c r="QFE101" s="1"/>
+      <c r="QFK101" s="1"/>
+      <c r="QFQ101" s="1"/>
+      <c r="QFW101" s="1"/>
+      <c r="QGC101" s="1"/>
+      <c r="QGI101" s="1"/>
+      <c r="QGO101" s="1"/>
+      <c r="QGU101" s="1"/>
+      <c r="QHA101" s="1"/>
+      <c r="QHG101" s="1"/>
+      <c r="QHM101" s="1"/>
+      <c r="QHS101" s="1"/>
+      <c r="QHY101" s="1"/>
+      <c r="QIE101" s="1"/>
+      <c r="QIK101" s="1"/>
+      <c r="QIQ101" s="1"/>
+      <c r="QIW101" s="1"/>
+      <c r="QJC101" s="1"/>
+      <c r="QJI101" s="1"/>
+      <c r="QJO101" s="1"/>
+      <c r="QJU101" s="1"/>
+      <c r="QKA101" s="1"/>
+      <c r="QKG101" s="1"/>
+      <c r="QKM101" s="1"/>
+      <c r="QKS101" s="1"/>
+      <c r="QKY101" s="1"/>
+      <c r="QLE101" s="1"/>
+      <c r="QLK101" s="1"/>
+      <c r="QLQ101" s="1"/>
+      <c r="QLW101" s="1"/>
+      <c r="QMC101" s="1"/>
+      <c r="QMI101" s="1"/>
+      <c r="QMO101" s="1"/>
+      <c r="QMU101" s="1"/>
+      <c r="QNA101" s="1"/>
+      <c r="QNG101" s="1"/>
+      <c r="QNM101" s="1"/>
+      <c r="QNS101" s="1"/>
+      <c r="QNY101" s="1"/>
+      <c r="QOE101" s="1"/>
+      <c r="QOK101" s="1"/>
+      <c r="QOQ101" s="1"/>
+      <c r="QOW101" s="1"/>
+      <c r="QPC101" s="1"/>
+      <c r="QPI101" s="1"/>
+      <c r="QPO101" s="1"/>
+      <c r="QPU101" s="1"/>
+      <c r="QQA101" s="1"/>
+      <c r="QQG101" s="1"/>
+      <c r="QQM101" s="1"/>
+      <c r="QQS101" s="1"/>
+      <c r="QQY101" s="1"/>
+      <c r="QRE101" s="1"/>
+      <c r="QRK101" s="1"/>
+      <c r="QRQ101" s="1"/>
+      <c r="QRW101" s="1"/>
+      <c r="QSC101" s="1"/>
+      <c r="QSI101" s="1"/>
+      <c r="QSO101" s="1"/>
+      <c r="QSU101" s="1"/>
+      <c r="QTA101" s="1"/>
+      <c r="QTG101" s="1"/>
+      <c r="QTM101" s="1"/>
+      <c r="QTS101" s="1"/>
+      <c r="QTY101" s="1"/>
+      <c r="QUE101" s="1"/>
+      <c r="QUK101" s="1"/>
+      <c r="QUQ101" s="1"/>
+      <c r="QUW101" s="1"/>
+      <c r="QVC101" s="1"/>
+      <c r="QVI101" s="1"/>
+      <c r="QVO101" s="1"/>
+      <c r="QVU101" s="1"/>
+      <c r="QWA101" s="1"/>
+      <c r="QWG101" s="1"/>
+      <c r="QWM101" s="1"/>
+      <c r="QWS101" s="1"/>
+      <c r="QWY101" s="1"/>
+      <c r="QXE101" s="1"/>
+      <c r="QXK101" s="1"/>
+      <c r="QXQ101" s="1"/>
+      <c r="QXW101" s="1"/>
+      <c r="QYC101" s="1"/>
+      <c r="QYI101" s="1"/>
+      <c r="QYO101" s="1"/>
+      <c r="QYU101" s="1"/>
+      <c r="QZA101" s="1"/>
+      <c r="QZG101" s="1"/>
+      <c r="QZM101" s="1"/>
+      <c r="QZS101" s="1"/>
+      <c r="QZY101" s="1"/>
+      <c r="RAE101" s="1"/>
+      <c r="RAK101" s="1"/>
+      <c r="RAQ101" s="1"/>
+      <c r="RAW101" s="1"/>
+      <c r="RBC101" s="1"/>
+      <c r="RBI101" s="1"/>
+      <c r="RBO101" s="1"/>
+      <c r="RBU101" s="1"/>
+      <c r="RCA101" s="1"/>
+      <c r="RCG101" s="1"/>
+      <c r="RCM101" s="1"/>
+      <c r="RCS101" s="1"/>
+      <c r="RCY101" s="1"/>
+      <c r="RDE101" s="1"/>
+      <c r="RDK101" s="1"/>
+      <c r="RDQ101" s="1"/>
+      <c r="RDW101" s="1"/>
+      <c r="REC101" s="1"/>
+      <c r="REI101" s="1"/>
+      <c r="REO101" s="1"/>
+      <c r="REU101" s="1"/>
+      <c r="RFA101" s="1"/>
+      <c r="RFG101" s="1"/>
+      <c r="RFM101" s="1"/>
+      <c r="RFS101" s="1"/>
+      <c r="RFY101" s="1"/>
+      <c r="RGE101" s="1"/>
+      <c r="RGK101" s="1"/>
+      <c r="RGQ101" s="1"/>
+      <c r="RGW101" s="1"/>
+      <c r="RHC101" s="1"/>
+      <c r="RHI101" s="1"/>
+      <c r="RHO101" s="1"/>
+      <c r="RHU101" s="1"/>
+      <c r="RIA101" s="1"/>
+      <c r="RIG101" s="1"/>
+      <c r="RIM101" s="1"/>
+      <c r="RIS101" s="1"/>
+      <c r="RIY101" s="1"/>
+      <c r="RJE101" s="1"/>
+      <c r="RJK101" s="1"/>
+      <c r="RJQ101" s="1"/>
+      <c r="RJW101" s="1"/>
+      <c r="RKC101" s="1"/>
+      <c r="RKI101" s="1"/>
+      <c r="RKO101" s="1"/>
+      <c r="RKU101" s="1"/>
+      <c r="RLA101" s="1"/>
+      <c r="RLG101" s="1"/>
+      <c r="RLM101" s="1"/>
+      <c r="RLS101" s="1"/>
+      <c r="RLY101" s="1"/>
+      <c r="RME101" s="1"/>
+      <c r="RMK101" s="1"/>
+      <c r="RMQ101" s="1"/>
+      <c r="RMW101" s="1"/>
+      <c r="RNC101" s="1"/>
+      <c r="RNI101" s="1"/>
+      <c r="RNO101" s="1"/>
+      <c r="RNU101" s="1"/>
+      <c r="ROA101" s="1"/>
+      <c r="ROG101" s="1"/>
+      <c r="ROM101" s="1"/>
+      <c r="ROS101" s="1"/>
+      <c r="ROY101" s="1"/>
+      <c r="RPE101" s="1"/>
+      <c r="RPK101" s="1"/>
+      <c r="RPQ101" s="1"/>
+      <c r="RPW101" s="1"/>
+      <c r="RQC101" s="1"/>
+      <c r="RQI101" s="1"/>
+      <c r="RQO101" s="1"/>
+      <c r="RQU101" s="1"/>
+      <c r="RRA101" s="1"/>
+      <c r="RRG101" s="1"/>
+      <c r="RRM101" s="1"/>
+      <c r="RRS101" s="1"/>
+      <c r="RRY101" s="1"/>
+      <c r="RSE101" s="1"/>
+      <c r="RSK101" s="1"/>
+      <c r="RSQ101" s="1"/>
+      <c r="RSW101" s="1"/>
+      <c r="RTC101" s="1"/>
+      <c r="RTI101" s="1"/>
+      <c r="RTO101" s="1"/>
+      <c r="RTU101" s="1"/>
+      <c r="RUA101" s="1"/>
+      <c r="RUG101" s="1"/>
+      <c r="RUM101" s="1"/>
+      <c r="RUS101" s="1"/>
+      <c r="RUY101" s="1"/>
+      <c r="RVE101" s="1"/>
+      <c r="RVK101" s="1"/>
+      <c r="RVQ101" s="1"/>
+      <c r="RVW101" s="1"/>
+      <c r="RWC101" s="1"/>
+      <c r="RWI101" s="1"/>
+      <c r="RWO101" s="1"/>
+      <c r="RWU101" s="1"/>
+      <c r="RXA101" s="1"/>
+      <c r="RXG101" s="1"/>
+      <c r="RXM101" s="1"/>
+      <c r="RXS101" s="1"/>
+      <c r="RXY101" s="1"/>
+      <c r="RYE101" s="1"/>
+      <c r="RYK101" s="1"/>
+      <c r="RYQ101" s="1"/>
+      <c r="RYW101" s="1"/>
+      <c r="RZC101" s="1"/>
+      <c r="RZI101" s="1"/>
+      <c r="RZO101" s="1"/>
+      <c r="RZU101" s="1"/>
+      <c r="SAA101" s="1"/>
+      <c r="SAG101" s="1"/>
+      <c r="SAM101" s="1"/>
+      <c r="SAS101" s="1"/>
+      <c r="SAY101" s="1"/>
+      <c r="SBE101" s="1"/>
+      <c r="SBK101" s="1"/>
+      <c r="SBQ101" s="1"/>
+      <c r="SBW101" s="1"/>
+      <c r="SCC101" s="1"/>
+      <c r="SCI101" s="1"/>
+      <c r="SCO101" s="1"/>
+      <c r="SCU101" s="1"/>
+      <c r="SDA101" s="1"/>
+      <c r="SDG101" s="1"/>
+      <c r="SDM101" s="1"/>
+      <c r="SDS101" s="1"/>
+      <c r="SDY101" s="1"/>
+      <c r="SEE101" s="1"/>
+      <c r="SEK101" s="1"/>
+      <c r="SEQ101" s="1"/>
+      <c r="SEW101" s="1"/>
+      <c r="SFC101" s="1"/>
+      <c r="SFI101" s="1"/>
+      <c r="SFO101" s="1"/>
+      <c r="SFU101" s="1"/>
+      <c r="SGA101" s="1"/>
+      <c r="SGG101" s="1"/>
+      <c r="SGM101" s="1"/>
+      <c r="SGS101" s="1"/>
+      <c r="SGY101" s="1"/>
+      <c r="SHE101" s="1"/>
+      <c r="SHK101" s="1"/>
+      <c r="SHQ101" s="1"/>
+      <c r="SHW101" s="1"/>
+      <c r="SIC101" s="1"/>
+      <c r="SII101" s="1"/>
+      <c r="SIO101" s="1"/>
+      <c r="SIU101" s="1"/>
+      <c r="SJA101" s="1"/>
+      <c r="SJG101" s="1"/>
+      <c r="SJM101" s="1"/>
+      <c r="SJS101" s="1"/>
+      <c r="SJY101" s="1"/>
+      <c r="SKE101" s="1"/>
+      <c r="SKK101" s="1"/>
+      <c r="SKQ101" s="1"/>
+      <c r="SKW101" s="1"/>
+      <c r="SLC101" s="1"/>
+      <c r="SLI101" s="1"/>
+      <c r="SLO101" s="1"/>
+      <c r="SLU101" s="1"/>
+      <c r="SMA101" s="1"/>
+      <c r="SMG101" s="1"/>
+      <c r="SMM101" s="1"/>
+      <c r="SMS101" s="1"/>
+      <c r="SMY101" s="1"/>
+      <c r="SNE101" s="1"/>
+      <c r="SNK101" s="1"/>
+      <c r="SNQ101" s="1"/>
+      <c r="SNW101" s="1"/>
+      <c r="SOC101" s="1"/>
+      <c r="SOI101" s="1"/>
+      <c r="SOO101" s="1"/>
+      <c r="SOU101" s="1"/>
+      <c r="SPA101" s="1"/>
+      <c r="SPG101" s="1"/>
+      <c r="SPM101" s="1"/>
+      <c r="SPS101" s="1"/>
+      <c r="SPY101" s="1"/>
+      <c r="SQE101" s="1"/>
+      <c r="SQK101" s="1"/>
+      <c r="SQQ101" s="1"/>
+      <c r="SQW101" s="1"/>
+      <c r="SRC101" s="1"/>
+      <c r="SRI101" s="1"/>
+      <c r="SRO101" s="1"/>
+      <c r="SRU101" s="1"/>
+      <c r="SSA101" s="1"/>
+      <c r="SSG101" s="1"/>
+      <c r="SSM101" s="1"/>
+      <c r="SSS101" s="1"/>
+      <c r="SSY101" s="1"/>
+      <c r="STE101" s="1"/>
+      <c r="STK101" s="1"/>
+      <c r="STQ101" s="1"/>
+      <c r="STW101" s="1"/>
+      <c r="SUC101" s="1"/>
+      <c r="SUI101" s="1"/>
+      <c r="SUO101" s="1"/>
+      <c r="SUU101" s="1"/>
+      <c r="SVA101" s="1"/>
+      <c r="SVG101" s="1"/>
+      <c r="SVM101" s="1"/>
+      <c r="SVS101" s="1"/>
+      <c r="SVY101" s="1"/>
+      <c r="SWE101" s="1"/>
+      <c r="SWK101" s="1"/>
+      <c r="SWQ101" s="1"/>
+      <c r="SWW101" s="1"/>
+      <c r="SXC101" s="1"/>
+      <c r="SXI101" s="1"/>
+      <c r="SXO101" s="1"/>
+      <c r="SXU101" s="1"/>
+      <c r="SYA101" s="1"/>
+      <c r="SYG101" s="1"/>
+      <c r="SYM101" s="1"/>
+      <c r="SYS101" s="1"/>
+      <c r="SYY101" s="1"/>
+      <c r="SZE101" s="1"/>
+      <c r="SZK101" s="1"/>
+      <c r="SZQ101" s="1"/>
+      <c r="SZW101" s="1"/>
+      <c r="TAC101" s="1"/>
+      <c r="TAI101" s="1"/>
+      <c r="TAO101" s="1"/>
+      <c r="TAU101" s="1"/>
+      <c r="TBA101" s="1"/>
+      <c r="TBG101" s="1"/>
+      <c r="TBM101" s="1"/>
+      <c r="TBS101" s="1"/>
+      <c r="TBY101" s="1"/>
+      <c r="TCE101" s="1"/>
+      <c r="TCK101" s="1"/>
+      <c r="TCQ101" s="1"/>
+      <c r="TCW101" s="1"/>
+      <c r="TDC101" s="1"/>
+      <c r="TDI101" s="1"/>
+      <c r="TDO101" s="1"/>
+      <c r="TDU101" s="1"/>
+      <c r="TEA101" s="1"/>
+      <c r="TEG101" s="1"/>
+      <c r="TEM101" s="1"/>
+      <c r="TES101" s="1"/>
+      <c r="TEY101" s="1"/>
+      <c r="TFE101" s="1"/>
+      <c r="TFK101" s="1"/>
+      <c r="TFQ101" s="1"/>
+      <c r="TFW101" s="1"/>
+      <c r="TGC101" s="1"/>
+      <c r="TGI101" s="1"/>
+      <c r="TGO101" s="1"/>
+      <c r="TGU101" s="1"/>
+      <c r="THA101" s="1"/>
+      <c r="THG101" s="1"/>
+      <c r="THM101" s="1"/>
+      <c r="THS101" s="1"/>
+      <c r="THY101" s="1"/>
+      <c r="TIE101" s="1"/>
+      <c r="TIK101" s="1"/>
+      <c r="TIQ101" s="1"/>
+      <c r="TIW101" s="1"/>
+      <c r="TJC101" s="1"/>
+      <c r="TJI101" s="1"/>
+      <c r="TJO101" s="1"/>
+      <c r="TJU101" s="1"/>
+      <c r="TKA101" s="1"/>
+      <c r="TKG101" s="1"/>
+      <c r="TKM101" s="1"/>
+      <c r="TKS101" s="1"/>
+      <c r="TKY101" s="1"/>
+      <c r="TLE101" s="1"/>
+      <c r="TLK101" s="1"/>
+      <c r="TLQ101" s="1"/>
+      <c r="TLW101" s="1"/>
+      <c r="TMC101" s="1"/>
+      <c r="TMI101" s="1"/>
+      <c r="TMO101" s="1"/>
+      <c r="TMU101" s="1"/>
+      <c r="TNA101" s="1"/>
+      <c r="TNG101" s="1"/>
+      <c r="TNM101" s="1"/>
+      <c r="TNS101" s="1"/>
+      <c r="TNY101" s="1"/>
+      <c r="TOE101" s="1"/>
+      <c r="TOK101" s="1"/>
+      <c r="TOQ101" s="1"/>
+      <c r="TOW101" s="1"/>
+      <c r="TPC101" s="1"/>
+      <c r="TPI101" s="1"/>
+      <c r="TPO101" s="1"/>
+      <c r="TPU101" s="1"/>
+      <c r="TQA101" s="1"/>
+      <c r="TQG101" s="1"/>
+      <c r="TQM101" s="1"/>
+      <c r="TQS101" s="1"/>
+      <c r="TQY101" s="1"/>
+      <c r="TRE101" s="1"/>
+      <c r="TRK101" s="1"/>
+      <c r="TRQ101" s="1"/>
+      <c r="TRW101" s="1"/>
+      <c r="TSC101" s="1"/>
+      <c r="TSI101" s="1"/>
+      <c r="TSO101" s="1"/>
+      <c r="TSU101" s="1"/>
+      <c r="TTA101" s="1"/>
+      <c r="TTG101" s="1"/>
+      <c r="TTM101" s="1"/>
+      <c r="TTS101" s="1"/>
+      <c r="TTY101" s="1"/>
+      <c r="TUE101" s="1"/>
+      <c r="TUK101" s="1"/>
+      <c r="TUQ101" s="1"/>
+      <c r="TUW101" s="1"/>
+      <c r="TVC101" s="1"/>
+      <c r="TVI101" s="1"/>
+      <c r="TVO101" s="1"/>
+      <c r="TVU101" s="1"/>
+      <c r="TWA101" s="1"/>
+      <c r="TWG101" s="1"/>
+      <c r="TWM101" s="1"/>
+      <c r="TWS101" s="1"/>
+      <c r="TWY101" s="1"/>
+      <c r="TXE101" s="1"/>
+      <c r="TXK101" s="1"/>
+      <c r="TXQ101" s="1"/>
+      <c r="TXW101" s="1"/>
+      <c r="TYC101" s="1"/>
+      <c r="TYI101" s="1"/>
+      <c r="TYO101" s="1"/>
+      <c r="TYU101" s="1"/>
+      <c r="TZA101" s="1"/>
+      <c r="TZG101" s="1"/>
+      <c r="TZM101" s="1"/>
+      <c r="TZS101" s="1"/>
+      <c r="TZY101" s="1"/>
+      <c r="UAE101" s="1"/>
+      <c r="UAK101" s="1"/>
+      <c r="UAQ101" s="1"/>
+      <c r="UAW101" s="1"/>
+      <c r="UBC101" s="1"/>
+      <c r="UBI101" s="1"/>
+      <c r="UBO101" s="1"/>
+      <c r="UBU101" s="1"/>
+      <c r="UCA101" s="1"/>
+      <c r="UCG101" s="1"/>
+      <c r="UCM101" s="1"/>
+      <c r="UCS101" s="1"/>
+      <c r="UCY101" s="1"/>
+      <c r="UDE101" s="1"/>
+      <c r="UDK101" s="1"/>
+      <c r="UDQ101" s="1"/>
+      <c r="UDW101" s="1"/>
+      <c r="UEC101" s="1"/>
+      <c r="UEI101" s="1"/>
+      <c r="UEO101" s="1"/>
+      <c r="UEU101" s="1"/>
+      <c r="UFA101" s="1"/>
+      <c r="UFG101" s="1"/>
+      <c r="UFM101" s="1"/>
+      <c r="UFS101" s="1"/>
+      <c r="UFY101" s="1"/>
+      <c r="UGE101" s="1"/>
+      <c r="UGK101" s="1"/>
+      <c r="UGQ101" s="1"/>
+      <c r="UGW101" s="1"/>
+      <c r="UHC101" s="1"/>
+      <c r="UHI101" s="1"/>
+      <c r="UHO101" s="1"/>
+      <c r="UHU101" s="1"/>
+      <c r="UIA101" s="1"/>
+      <c r="UIG101" s="1"/>
+      <c r="UIM101" s="1"/>
+      <c r="UIS101" s="1"/>
+      <c r="UIY101" s="1"/>
+      <c r="UJE101" s="1"/>
+      <c r="UJK101" s="1"/>
+      <c r="UJQ101" s="1"/>
+      <c r="UJW101" s="1"/>
+      <c r="UKC101" s="1"/>
+      <c r="UKI101" s="1"/>
+      <c r="UKO101" s="1"/>
+      <c r="UKU101" s="1"/>
+      <c r="ULA101" s="1"/>
+      <c r="ULG101" s="1"/>
+      <c r="ULM101" s="1"/>
+      <c r="ULS101" s="1"/>
+      <c r="ULY101" s="1"/>
+      <c r="UME101" s="1"/>
+      <c r="UMK101" s="1"/>
+      <c r="UMQ101" s="1"/>
+      <c r="UMW101" s="1"/>
+      <c r="UNC101" s="1"/>
+      <c r="UNI101" s="1"/>
+      <c r="UNO101" s="1"/>
+      <c r="UNU101" s="1"/>
+      <c r="UOA101" s="1"/>
+      <c r="UOG101" s="1"/>
+      <c r="UOM101" s="1"/>
+      <c r="UOS101" s="1"/>
+      <c r="UOY101" s="1"/>
+      <c r="UPE101" s="1"/>
+      <c r="UPK101" s="1"/>
+      <c r="UPQ101" s="1"/>
+      <c r="UPW101" s="1"/>
+      <c r="UQC101" s="1"/>
+      <c r="UQI101" s="1"/>
+      <c r="UQO101" s="1"/>
+      <c r="UQU101" s="1"/>
+      <c r="URA101" s="1"/>
+      <c r="URG101" s="1"/>
+      <c r="URM101" s="1"/>
+      <c r="URS101" s="1"/>
+      <c r="URY101" s="1"/>
+      <c r="USE101" s="1"/>
+      <c r="USK101" s="1"/>
+      <c r="USQ101" s="1"/>
+      <c r="USW101" s="1"/>
+      <c r="UTC101" s="1"/>
+      <c r="UTI101" s="1"/>
+      <c r="UTO101" s="1"/>
+      <c r="UTU101" s="1"/>
+      <c r="UUA101" s="1"/>
+      <c r="UUG101" s="1"/>
+      <c r="UUM101" s="1"/>
+      <c r="UUS101" s="1"/>
+      <c r="UUY101" s="1"/>
+      <c r="UVE101" s="1"/>
+      <c r="UVK101" s="1"/>
+      <c r="UVQ101" s="1"/>
+      <c r="UVW101" s="1"/>
+      <c r="UWC101" s="1"/>
+      <c r="UWI101" s="1"/>
+      <c r="UWO101" s="1"/>
+      <c r="UWU101" s="1"/>
+      <c r="UXA101" s="1"/>
+      <c r="UXG101" s="1"/>
+      <c r="UXM101" s="1"/>
+      <c r="UXS101" s="1"/>
+      <c r="UXY101" s="1"/>
+      <c r="UYE101" s="1"/>
+      <c r="UYK101" s="1"/>
+      <c r="UYQ101" s="1"/>
+      <c r="UYW101" s="1"/>
+      <c r="UZC101" s="1"/>
+      <c r="UZI101" s="1"/>
+      <c r="UZO101" s="1"/>
+      <c r="UZU101" s="1"/>
+      <c r="VAA101" s="1"/>
+      <c r="VAG101" s="1"/>
+      <c r="VAM101" s="1"/>
+      <c r="VAS101" s="1"/>
+      <c r="VAY101" s="1"/>
+      <c r="VBE101" s="1"/>
+      <c r="VBK101" s="1"/>
+      <c r="VBQ101" s="1"/>
+      <c r="VBW101" s="1"/>
+      <c r="VCC101" s="1"/>
+      <c r="VCI101" s="1"/>
+      <c r="VCO101" s="1"/>
+      <c r="VCU101" s="1"/>
+      <c r="VDA101" s="1"/>
+      <c r="VDG101" s="1"/>
+      <c r="VDM101" s="1"/>
+      <c r="VDS101" s="1"/>
+      <c r="VDY101" s="1"/>
+      <c r="VEE101" s="1"/>
+      <c r="VEK101" s="1"/>
+      <c r="VEQ101" s="1"/>
+      <c r="VEW101" s="1"/>
+      <c r="VFC101" s="1"/>
+      <c r="VFI101" s="1"/>
+      <c r="VFO101" s="1"/>
+      <c r="VFU101" s="1"/>
+      <c r="VGA101" s="1"/>
+      <c r="VGG101" s="1"/>
+      <c r="VGM101" s="1"/>
+      <c r="VGS101" s="1"/>
+      <c r="VGY101" s="1"/>
+      <c r="VHE101" s="1"/>
+      <c r="VHK101" s="1"/>
+      <c r="VHQ101" s="1"/>
+      <c r="VHW101" s="1"/>
+      <c r="VIC101" s="1"/>
+      <c r="VII101" s="1"/>
+      <c r="VIO101" s="1"/>
+      <c r="VIU101" s="1"/>
+      <c r="VJA101" s="1"/>
+      <c r="VJG101" s="1"/>
+      <c r="VJM101" s="1"/>
+      <c r="VJS101" s="1"/>
+      <c r="VJY101" s="1"/>
+      <c r="VKE101" s="1"/>
+      <c r="VKK101" s="1"/>
+      <c r="VKQ101" s="1"/>
+      <c r="VKW101" s="1"/>
+      <c r="VLC101" s="1"/>
+      <c r="VLI101" s="1"/>
+      <c r="VLO101" s="1"/>
+      <c r="VLU101" s="1"/>
+      <c r="VMA101" s="1"/>
+      <c r="VMG101" s="1"/>
+      <c r="VMM101" s="1"/>
+      <c r="VMS101" s="1"/>
+      <c r="VMY101" s="1"/>
+      <c r="VNE101" s="1"/>
+      <c r="VNK101" s="1"/>
+      <c r="VNQ101" s="1"/>
+      <c r="VNW101" s="1"/>
+      <c r="VOC101" s="1"/>
+      <c r="VOI101" s="1"/>
+      <c r="VOO101" s="1"/>
+      <c r="VOU101" s="1"/>
+      <c r="VPA101" s="1"/>
+      <c r="VPG101" s="1"/>
+      <c r="VPM101" s="1"/>
+      <c r="VPS101" s="1"/>
+      <c r="VPY101" s="1"/>
+      <c r="VQE101" s="1"/>
+      <c r="VQK101" s="1"/>
+      <c r="VQQ101" s="1"/>
+      <c r="VQW101" s="1"/>
+      <c r="VRC101" s="1"/>
+      <c r="VRI101" s="1"/>
+      <c r="VRO101" s="1"/>
+      <c r="VRU101" s="1"/>
+      <c r="VSA101" s="1"/>
+      <c r="VSG101" s="1"/>
+      <c r="VSM101" s="1"/>
+      <c r="VSS101" s="1"/>
+      <c r="VSY101" s="1"/>
+      <c r="VTE101" s="1"/>
+      <c r="VTK101" s="1"/>
+      <c r="VTQ101" s="1"/>
+      <c r="VTW101" s="1"/>
+      <c r="VUC101" s="1"/>
+      <c r="VUI101" s="1"/>
+      <c r="VUO101" s="1"/>
+      <c r="VUU101" s="1"/>
+      <c r="VVA101" s="1"/>
+      <c r="VVG101" s="1"/>
+      <c r="VVM101" s="1"/>
+      <c r="VVS101" s="1"/>
+      <c r="VVY101" s="1"/>
+      <c r="VWE101" s="1"/>
+      <c r="VWK101" s="1"/>
+      <c r="VWQ101" s="1"/>
+      <c r="VWW101" s="1"/>
+      <c r="VXC101" s="1"/>
+      <c r="VXI101" s="1"/>
+      <c r="VXO101" s="1"/>
+      <c r="VXU101" s="1"/>
+      <c r="VYA101" s="1"/>
+      <c r="VYG101" s="1"/>
+      <c r="VYM101" s="1"/>
+      <c r="VYS101" s="1"/>
+      <c r="VYY101" s="1"/>
+      <c r="VZE101" s="1"/>
+      <c r="VZK101" s="1"/>
+      <c r="VZQ101" s="1"/>
+      <c r="VZW101" s="1"/>
+      <c r="WAC101" s="1"/>
+      <c r="WAI101" s="1"/>
+      <c r="WAO101" s="1"/>
+      <c r="WAU101" s="1"/>
+      <c r="WBA101" s="1"/>
+      <c r="WBG101" s="1"/>
+      <c r="WBM101" s="1"/>
+      <c r="WBS101" s="1"/>
+      <c r="WBY101" s="1"/>
+      <c r="WCE101" s="1"/>
+      <c r="WCK101" s="1"/>
+      <c r="WCQ101" s="1"/>
+      <c r="WCW101" s="1"/>
+      <c r="WDC101" s="1"/>
+      <c r="WDI101" s="1"/>
+      <c r="WDO101" s="1"/>
+      <c r="WDU101" s="1"/>
+      <c r="WEA101" s="1"/>
+      <c r="WEG101" s="1"/>
+      <c r="WEM101" s="1"/>
+      <c r="WES101" s="1"/>
+      <c r="WEY101" s="1"/>
+      <c r="WFE101" s="1"/>
+      <c r="WFK101" s="1"/>
+      <c r="WFQ101" s="1"/>
+      <c r="WFW101" s="1"/>
+      <c r="WGC101" s="1"/>
+      <c r="WGI101" s="1"/>
+      <c r="WGO101" s="1"/>
+      <c r="WGU101" s="1"/>
+      <c r="WHA101" s="1"/>
+      <c r="WHG101" s="1"/>
+      <c r="WHM101" s="1"/>
+      <c r="WHS101" s="1"/>
+      <c r="WHY101" s="1"/>
+      <c r="WIE101" s="1"/>
+      <c r="WIK101" s="1"/>
+      <c r="WIQ101" s="1"/>
+      <c r="WIW101" s="1"/>
+      <c r="WJC101" s="1"/>
+      <c r="WJI101" s="1"/>
+      <c r="WJO101" s="1"/>
+      <c r="WJU101" s="1"/>
+      <c r="WKA101" s="1"/>
+      <c r="WKG101" s="1"/>
+      <c r="WKM101" s="1"/>
+      <c r="WKS101" s="1"/>
+      <c r="WKY101" s="1"/>
+      <c r="WLE101" s="1"/>
+      <c r="WLK101" s="1"/>
+      <c r="WLQ101" s="1"/>
+      <c r="WLW101" s="1"/>
+      <c r="WMC101" s="1"/>
+      <c r="WMI101" s="1"/>
+      <c r="WMO101" s="1"/>
+      <c r="WMU101" s="1"/>
+      <c r="WNA101" s="1"/>
+      <c r="WNG101" s="1"/>
+      <c r="WNM101" s="1"/>
+      <c r="WNS101" s="1"/>
+      <c r="WNY101" s="1"/>
+      <c r="WOE101" s="1"/>
+      <c r="WOK101" s="1"/>
+      <c r="WOQ101" s="1"/>
+      <c r="WOW101" s="1"/>
+      <c r="WPC101" s="1"/>
+      <c r="WPI101" s="1"/>
+      <c r="WPO101" s="1"/>
+      <c r="WPU101" s="1"/>
+      <c r="WQA101" s="1"/>
+      <c r="WQG101" s="1"/>
+      <c r="WQM101" s="1"/>
+      <c r="WQS101" s="1"/>
+      <c r="WQY101" s="1"/>
+      <c r="WRE101" s="1"/>
+      <c r="WRK101" s="1"/>
+      <c r="WRQ101" s="1"/>
+      <c r="WRW101" s="1"/>
+      <c r="WSC101" s="1"/>
+      <c r="WSI101" s="1"/>
+      <c r="WSO101" s="1"/>
+      <c r="WSU101" s="1"/>
+      <c r="WTA101" s="1"/>
+      <c r="WTG101" s="1"/>
+      <c r="WTM101" s="1"/>
+      <c r="WTS101" s="1"/>
+      <c r="WTY101" s="1"/>
+      <c r="WUE101" s="1"/>
+      <c r="WUK101" s="1"/>
+      <c r="WUQ101" s="1"/>
+      <c r="WUW101" s="1"/>
+      <c r="WVC101" s="1"/>
+      <c r="WVI101" s="1"/>
+      <c r="WVO101" s="1"/>
+      <c r="WVU101" s="1"/>
+      <c r="WWA101" s="1"/>
+      <c r="WWG101" s="1"/>
+      <c r="WWM101" s="1"/>
+      <c r="WWS101" s="1"/>
+      <c r="WWY101" s="1"/>
+      <c r="WXE101" s="1"/>
+      <c r="WXK101" s="1"/>
+      <c r="WXQ101" s="1"/>
+      <c r="WXW101" s="1"/>
+      <c r="WYC101" s="1"/>
+      <c r="WYI101" s="1"/>
+      <c r="WYO101" s="1"/>
+      <c r="WYU101" s="1"/>
+      <c r="WZA101" s="1"/>
+      <c r="WZG101" s="1"/>
+      <c r="WZM101" s="1"/>
+      <c r="WZS101" s="1"/>
+      <c r="WZY101" s="1"/>
+      <c r="XAE101" s="1"/>
+      <c r="XAK101" s="1"/>
+      <c r="XAQ101" s="1"/>
+      <c r="XAW101" s="1"/>
+      <c r="XBC101" s="1"/>
+      <c r="XBI101" s="1"/>
+      <c r="XBO101" s="1"/>
+      <c r="XBU101" s="1"/>
+      <c r="XCA101" s="1"/>
+      <c r="XCG101" s="1"/>
+      <c r="XCM101" s="1"/>
+      <c r="XCS101" s="1"/>
+      <c r="XCY101" s="1"/>
+      <c r="XDE101" s="1"/>
+      <c r="XDK101" s="1"/>
+      <c r="XDQ101" s="1"/>
+      <c r="XDW101" s="1"/>
+      <c r="XEC101" s="1"/>
+      <c r="XEI101" s="1"/>
+      <c r="XEO101" s="1"/>
+      <c r="XEU101" s="1"/>
+      <c r="XFA101" s="1"/>
+    </row>
+    <row r="102" spans="1:1021 1027:2047 2053:3067 3073:4093 4099:5119 5125:6139 6145:7165 7171:8191 8197:9211 9217:10237 10243:11263 11269:12283 12289:13309 13315:14335 14341:15355 15361:16381" x14ac:dyDescent="0.2">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -21400,8 +29619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA463CE2-DD64-45EF-89B4-3DF3634CBCD2}">
   <dimension ref="A1:BV197"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56:XFD56"/>
+    <sheetView topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -32012,415 +40231,415 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="52" spans="1:74" s="88" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="88" t="s">
+    <row r="52" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>1383</v>
       </c>
-      <c r="B52" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="C52" s="88" t="s">
+      <c r="B52" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C52" t="s">
         <v>1652</v>
       </c>
-      <c r="D52" s="88" t="s">
+      <c r="D52" t="s">
         <v>1654</v>
       </c>
-      <c r="E52" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="F52" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="H52" s="88" t="s">
+      <c r="E52" t="s">
+        <v>1243</v>
+      </c>
+      <c r="F52" t="s">
+        <v>1243</v>
+      </c>
+      <c r="H52" t="s">
         <v>248</v>
       </c>
-      <c r="I52" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="J52" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="K52" s="88" t="s">
+      <c r="I52" t="s">
+        <v>1243</v>
+      </c>
+      <c r="J52" t="s">
+        <v>1243</v>
+      </c>
+      <c r="K52" t="s">
         <v>1351</v>
       </c>
-      <c r="L52" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="M52" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="N52" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="O52" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="P52" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="Q52" s="88" t="s">
+      <c r="L52" t="s">
+        <v>1243</v>
+      </c>
+      <c r="M52" t="s">
+        <v>1243</v>
+      </c>
+      <c r="N52" t="s">
+        <v>1243</v>
+      </c>
+      <c r="O52" t="s">
+        <v>1243</v>
+      </c>
+      <c r="P52" t="s">
+        <v>1243</v>
+      </c>
+      <c r="Q52" t="s">
         <v>1501</v>
       </c>
-      <c r="S52" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="T52" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="U52" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="V52" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="W52" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="X52" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="Y52" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="Z52" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AA52" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AB52" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AC52" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AE52" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AF52" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AG52" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AH52" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AI52" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AJ52" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AK52" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AL52" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AM52" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AN52" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AO52" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AQ52" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AR52" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AS52" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AT52" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AU52" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AV52" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AW52" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AX52" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AY52" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AZ52" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="BA52" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="BC52" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="BD52" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="BE52" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="BF52" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="BG52" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="BH52" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="BI52" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="BJ52" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="BK52" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="BL52" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="BM52" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="BO52" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="BP52" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="BQ52" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="BR52" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="BS52" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="BT52" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="BU52" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="BV52" s="88" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="53" spans="1:74" s="88" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="88" t="s">
+      <c r="S52" t="s">
+        <v>1243</v>
+      </c>
+      <c r="T52" t="s">
+        <v>1243</v>
+      </c>
+      <c r="U52" t="s">
+        <v>1243</v>
+      </c>
+      <c r="V52" t="s">
+        <v>1243</v>
+      </c>
+      <c r="W52" t="s">
+        <v>1243</v>
+      </c>
+      <c r="X52" t="s">
+        <v>1243</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>1243</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AJ52" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AK52" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AM52" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AN52" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AO52" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AQ52" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AR52" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AS52" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AT52" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AU52" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AV52" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AW52" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AX52" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AY52" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AZ52" t="s">
+        <v>1243</v>
+      </c>
+      <c r="BA52" t="s">
+        <v>1243</v>
+      </c>
+      <c r="BC52" t="s">
+        <v>1243</v>
+      </c>
+      <c r="BD52" t="s">
+        <v>1243</v>
+      </c>
+      <c r="BE52" t="s">
+        <v>1243</v>
+      </c>
+      <c r="BF52" t="s">
+        <v>1243</v>
+      </c>
+      <c r="BG52" t="s">
+        <v>1243</v>
+      </c>
+      <c r="BH52" t="s">
+        <v>1243</v>
+      </c>
+      <c r="BI52" t="s">
+        <v>1243</v>
+      </c>
+      <c r="BJ52" t="s">
+        <v>1243</v>
+      </c>
+      <c r="BK52" t="s">
+        <v>1243</v>
+      </c>
+      <c r="BL52" t="s">
+        <v>1243</v>
+      </c>
+      <c r="BM52" t="s">
+        <v>1243</v>
+      </c>
+      <c r="BO52" t="s">
+        <v>1243</v>
+      </c>
+      <c r="BP52" t="s">
+        <v>1243</v>
+      </c>
+      <c r="BQ52" t="s">
+        <v>1243</v>
+      </c>
+      <c r="BR52" t="s">
+        <v>1243</v>
+      </c>
+      <c r="BS52" t="s">
+        <v>1243</v>
+      </c>
+      <c r="BT52" t="s">
+        <v>1243</v>
+      </c>
+      <c r="BU52" t="s">
+        <v>1243</v>
+      </c>
+      <c r="BV52" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="53" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>1383</v>
       </c>
-      <c r="B53" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="C53" s="88" t="s">
+      <c r="B53" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C53" t="s">
         <v>1653</v>
       </c>
-      <c r="D53" s="88" t="s">
+      <c r="D53" t="s">
         <v>1655</v>
       </c>
-      <c r="E53" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="F53" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="H53" s="88" t="s">
+      <c r="E53" t="s">
+        <v>1243</v>
+      </c>
+      <c r="F53" t="s">
+        <v>1243</v>
+      </c>
+      <c r="H53" t="s">
         <v>247</v>
       </c>
-      <c r="I53" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="J53" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="K53" s="88" t="s">
+      <c r="I53" t="s">
+        <v>1243</v>
+      </c>
+      <c r="J53" t="s">
+        <v>1243</v>
+      </c>
+      <c r="K53" t="s">
         <v>1351</v>
       </c>
-      <c r="L53" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="M53" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="N53" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="O53" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="P53" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="Q53" s="88" t="s">
+      <c r="L53" t="s">
+        <v>1243</v>
+      </c>
+      <c r="M53" t="s">
+        <v>1243</v>
+      </c>
+      <c r="N53" t="s">
+        <v>1243</v>
+      </c>
+      <c r="O53" t="s">
+        <v>1243</v>
+      </c>
+      <c r="P53" t="s">
+        <v>1243</v>
+      </c>
+      <c r="Q53" t="s">
         <v>1499</v>
       </c>
-      <c r="S53" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="T53" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="U53" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="V53" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="W53" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="X53" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="Y53" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="Z53" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AA53" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AB53" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AC53" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AE53" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AF53" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AG53" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AH53" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AI53" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AJ53" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AK53" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AL53" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AM53" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AN53" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AO53" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AQ53" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AR53" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AS53" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AT53" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AU53" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AV53" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AW53" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AX53" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AY53" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AZ53" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="BA53" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="BC53" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="BD53" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="BE53" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="BF53" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="BG53" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="BH53" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="BI53" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="BJ53" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="BK53" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="BL53" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="BM53" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="BO53" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="BP53" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="BQ53" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="BR53" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="BS53" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="BT53" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="BU53" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="BV53" s="88" t="s">
+      <c r="S53" t="s">
+        <v>1243</v>
+      </c>
+      <c r="T53" t="s">
+        <v>1243</v>
+      </c>
+      <c r="U53" t="s">
+        <v>1243</v>
+      </c>
+      <c r="V53" t="s">
+        <v>1243</v>
+      </c>
+      <c r="W53" t="s">
+        <v>1243</v>
+      </c>
+      <c r="X53" t="s">
+        <v>1243</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>1243</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AI53" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AJ53" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AK53" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AL53" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AM53" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AN53" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AO53" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AQ53" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AR53" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AS53" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AT53" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AU53" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AV53" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AW53" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AX53" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AY53" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AZ53" t="s">
+        <v>1243</v>
+      </c>
+      <c r="BA53" t="s">
+        <v>1243</v>
+      </c>
+      <c r="BC53" t="s">
+        <v>1243</v>
+      </c>
+      <c r="BD53" t="s">
+        <v>1243</v>
+      </c>
+      <c r="BE53" t="s">
+        <v>1243</v>
+      </c>
+      <c r="BF53" t="s">
+        <v>1243</v>
+      </c>
+      <c r="BG53" t="s">
+        <v>1243</v>
+      </c>
+      <c r="BH53" t="s">
+        <v>1243</v>
+      </c>
+      <c r="BI53" t="s">
+        <v>1243</v>
+      </c>
+      <c r="BJ53" t="s">
+        <v>1243</v>
+      </c>
+      <c r="BK53" t="s">
+        <v>1243</v>
+      </c>
+      <c r="BL53" t="s">
+        <v>1243</v>
+      </c>
+      <c r="BM53" t="s">
+        <v>1243</v>
+      </c>
+      <c r="BO53" t="s">
+        <v>1243</v>
+      </c>
+      <c r="BP53" t="s">
+        <v>1243</v>
+      </c>
+      <c r="BQ53" t="s">
+        <v>1243</v>
+      </c>
+      <c r="BR53" t="s">
+        <v>1243</v>
+      </c>
+      <c r="BS53" t="s">
+        <v>1243</v>
+      </c>
+      <c r="BT53" t="s">
+        <v>1243</v>
+      </c>
+      <c r="BU53" t="s">
+        <v>1243</v>
+      </c>
+      <c r="BV53" t="s">
         <v>1243</v>
       </c>
     </row>
@@ -32836,209 +41055,209 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="56" spans="1:74" s="88" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="88" t="s">
+    <row r="56" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>1383</v>
       </c>
-      <c r="B56" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="C56" s="88" t="s">
+      <c r="B56" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C56" t="s">
         <v>1172</v>
       </c>
-      <c r="D56" s="88" t="s">
+      <c r="D56" t="s">
         <v>1502</v>
       </c>
-      <c r="E56" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="F56" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="H56" s="88" t="s">
+      <c r="E56" t="s">
+        <v>1243</v>
+      </c>
+      <c r="F56" t="s">
+        <v>1243</v>
+      </c>
+      <c r="H56" t="s">
         <v>305</v>
       </c>
-      <c r="I56" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="J56" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="K56" s="88" t="s">
+      <c r="I56" t="s">
+        <v>1243</v>
+      </c>
+      <c r="J56" t="s">
+        <v>1243</v>
+      </c>
+      <c r="K56" t="s">
         <v>1351</v>
       </c>
-      <c r="L56" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="M56" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="N56" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="O56" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="P56" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="Q56" s="88" t="s">
+      <c r="L56" t="s">
+        <v>1243</v>
+      </c>
+      <c r="M56" t="s">
+        <v>1243</v>
+      </c>
+      <c r="N56" t="s">
+        <v>1243</v>
+      </c>
+      <c r="O56" t="s">
+        <v>1243</v>
+      </c>
+      <c r="P56" t="s">
+        <v>1243</v>
+      </c>
+      <c r="Q56" t="s">
         <v>1501</v>
       </c>
-      <c r="S56" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="T56" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="U56" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="V56" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="W56" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="X56" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="Y56" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="Z56" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AA56" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AB56" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AC56" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AE56" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AF56" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AG56" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AH56" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AI56" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AJ56" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AK56" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AL56" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AM56" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AN56" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AO56" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AQ56" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AR56" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AS56" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AT56" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AU56" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AV56" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AW56" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AX56" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AY56" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="AZ56" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="BA56" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="BC56" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="BD56" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="BE56" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="BF56" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="BG56" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="BH56" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="BI56" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="BJ56" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="BK56" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="BL56" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="BM56" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="BO56" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="BP56" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="BQ56" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="BR56" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="BS56" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="BT56" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="BU56" s="88" t="s">
-        <v>1243</v>
-      </c>
-      <c r="BV56" s="88" t="s">
+      <c r="S56" t="s">
+        <v>1243</v>
+      </c>
+      <c r="T56" t="s">
+        <v>1243</v>
+      </c>
+      <c r="U56" t="s">
+        <v>1243</v>
+      </c>
+      <c r="V56" t="s">
+        <v>1243</v>
+      </c>
+      <c r="W56" t="s">
+        <v>1243</v>
+      </c>
+      <c r="X56" t="s">
+        <v>1243</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>1243</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AI56" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AJ56" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AK56" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AL56" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AM56" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AN56" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AO56" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AQ56" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AR56" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AS56" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AT56" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AU56" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AV56" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AW56" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AX56" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AY56" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AZ56" t="s">
+        <v>1243</v>
+      </c>
+      <c r="BA56" t="s">
+        <v>1243</v>
+      </c>
+      <c r="BC56" t="s">
+        <v>1243</v>
+      </c>
+      <c r="BD56" t="s">
+        <v>1243</v>
+      </c>
+      <c r="BE56" t="s">
+        <v>1243</v>
+      </c>
+      <c r="BF56" t="s">
+        <v>1243</v>
+      </c>
+      <c r="BG56" t="s">
+        <v>1243</v>
+      </c>
+      <c r="BH56" t="s">
+        <v>1243</v>
+      </c>
+      <c r="BI56" t="s">
+        <v>1243</v>
+      </c>
+      <c r="BJ56" t="s">
+        <v>1243</v>
+      </c>
+      <c r="BK56" t="s">
+        <v>1243</v>
+      </c>
+      <c r="BL56" t="s">
+        <v>1243</v>
+      </c>
+      <c r="BM56" t="s">
+        <v>1243</v>
+      </c>
+      <c r="BO56" t="s">
+        <v>1243</v>
+      </c>
+      <c r="BP56" t="s">
+        <v>1243</v>
+      </c>
+      <c r="BQ56" t="s">
+        <v>1243</v>
+      </c>
+      <c r="BR56" t="s">
+        <v>1243</v>
+      </c>
+      <c r="BS56" t="s">
+        <v>1243</v>
+      </c>
+      <c r="BT56" t="s">
+        <v>1243</v>
+      </c>
+      <c r="BU56" t="s">
+        <v>1243</v>
+      </c>
+      <c r="BV56" t="s">
         <v>1243</v>
       </c>
     </row>
